--- a/data/EPBC Act List of Threatened Fauna.xlsx
+++ b/data/EPBC Act List of Threatened Fauna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinzhu\Desktop\GPT_match_bio_names\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinzhu\Desktop\GPT_match_bio_names\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBEFDD0-CC45-4ABE-9B2D-283FF08E18B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED16247-4DDC-4F71-93B0-3AED46138F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4069,32 +4069,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4166,26 +4167,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4469,5602 +4470,5620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F704"/>
+  <dimension ref="A1:B704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="1" max="1" width="59.109375" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="4" t="s">
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="4" t="s">
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="4" t="s">
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="4" t="s">
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="4" t="s">
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="4" t="s">
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="4" t="s">
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="4" t="s">
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="4" t="s">
+    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="4" t="s">
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="4" t="s">
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="4" t="s">
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="4" t="s">
+    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="4" t="s">
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="4" t="s">
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="4" t="s">
+    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="4" t="s">
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
+    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="s">
+    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
+    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="4" t="s">
+    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="4" t="s">
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="4" t="s">
+    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="4" t="s">
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="4" t="s">
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="4" t="s">
+    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="4" t="s">
+    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="4" t="s">
+    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="4" t="s">
+    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="4" t="s">
+    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="s">
+    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="4" t="s">
+    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="4" t="s">
+    <row r="155" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="4" t="s">
+    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="4" t="s">
+    <row r="159" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="4" t="s">
+    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="4" t="s">
+    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="4" t="s">
+    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="4" t="s">
+    <row r="163" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="4" t="s">
+    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="4" t="s">
+    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="6" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="4" t="s">
+    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="4" t="s">
+    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="4" t="s">
+    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="4" t="s">
+    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="4" t="s">
+    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="4" t="s">
+    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="6" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="6" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="4" t="s">
+    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="4" t="s">
+    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="4" t="s">
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="4" t="s">
+    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="4" t="s">
+    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="4" t="s">
+    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="4" t="s">
+    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="4" t="s">
+    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="4" t="s">
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="6" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="4" t="s">
+    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="4" t="s">
+    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="4" t="s">
+    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="4" t="s">
+    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="4" t="s">
+    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="6" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="4" t="s">
+    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="4" t="s">
+    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="4" t="s">
+    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="4" t="s">
+    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="4" t="s">
+    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="4" t="s">
+    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="4" t="s">
+    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="4" t="s">
+    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="4" t="s">
+    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="4" t="s">
+    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="4" t="s">
+    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="4" t="s">
+    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="4" t="s">
+    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="4" t="s">
+    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="4" t="s">
+    <row r="207" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="4" t="s">
+    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="4" t="s">
+    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="4" t="s">
+    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="4" t="s">
+    <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="6" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="4" t="s">
+    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="4" t="s">
+    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="4" t="s">
+    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="4" t="s">
+    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="4" t="s">
+    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="4" t="s">
+    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="6" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="4" t="s">
+    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="4" t="s">
+    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="4" t="s">
+    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="6" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="4" t="s">
+    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="4" t="s">
+    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="4" t="s">
+    <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="4" t="s">
+    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="4" t="s">
+    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="4" t="s">
+    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="6" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B229" s="6"/>
-    </row>
-    <row r="230" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="4" t="s">
+    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="4" t="s">
+    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="4" t="s">
+    <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="4" t="s">
+    <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="4" t="s">
+    <row r="235" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="4" t="s">
+    <row r="236" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="4" t="s">
+    <row r="237" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="4" t="s">
+    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="6" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="4" t="s">
+    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="4" t="s">
+    <row r="240" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="6" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="4" t="s">
+    <row r="241" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="6" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="4" t="s">
+    <row r="242" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="6" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="4" t="s">
+    <row r="243" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="6" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="4" t="s">
+    <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="6" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="6" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="4" t="s">
+    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="4" t="s">
+    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="4" t="s">
+    <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="4" t="s">
+    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="4" t="s">
+    <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="4" t="s">
+    <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="4" t="s">
+    <row r="252" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="4" t="s">
+    <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="6" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="4" t="s">
+    <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="4" t="s">
+    <row r="255" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="4" t="s">
+    <row r="256" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="6" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B257" s="6"/>
-    </row>
-    <row r="258" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="4" t="s">
+    <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="4" t="s">
+    <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="4" t="s">
+    <row r="261" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="6" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="4" t="s">
+    <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="6" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="4" t="s">
+    <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="6" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="4" t="s">
+    <row r="265" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="6" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="4" t="s">
+    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="6" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="4" t="s">
+    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="4" t="s">
+    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="6" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="4" t="s">
+    <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="6" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B270" s="6"/>
-    </row>
-    <row r="271" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="4" t="s">
+    <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="4" t="s">
+    <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="4" t="s">
+    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="4" t="s">
+    <row r="275" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="4" t="s">
+    <row r="276" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="4" t="s">
+    <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="4" t="s">
+    <row r="278" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="4" t="s">
+    <row r="279" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="6" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="4" t="s">
+    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="6" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="4" t="s">
+    <row r="281" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="6" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="4" t="s">
+    <row r="282" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="6" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="4" t="s">
+    <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="6" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="4" t="s">
+    <row r="284" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="6" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="4" t="s">
+    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="6" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="4" t="s">
+      <c r="A286" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="6" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="4" t="s">
+    <row r="287" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="6" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="4" t="s">
+    <row r="288" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="6" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="4" t="s">
+    <row r="289" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="6" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="4" t="s">
+    <row r="290" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="6" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="4" t="s">
+    <row r="291" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="6" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="4" t="s">
+    <row r="292" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="6" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="4" t="s">
+    <row r="293" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="6" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="4" t="s">
+    <row r="294" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="6" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="4" t="s">
+    <row r="295" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="6" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="4" t="s">
+    <row r="296" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="6" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="6" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="4" t="s">
+    <row r="298" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="4" t="s">
+    <row r="299" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="6" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="4" t="s">
+    <row r="300" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="6" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="4" t="s">
+    <row r="301" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="4" t="s">
+    <row r="302" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="4" t="s">
+    <row r="303" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="6" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B304" s="6"/>
-    </row>
-    <row r="305" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="4" t="s">
+    <row r="306" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="6" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="4" t="s">
+    <row r="307" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="6" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="4" t="s">
+    <row r="308" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="6" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="4" t="s">
+    <row r="309" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="6" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="4" t="s">
+    <row r="310" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="6" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="4" t="s">
+    <row r="311" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="6" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A312" s="4" t="s">
+    <row r="312" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="4" t="s">
+    <row r="313" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="4" t="s">
+    <row r="314" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="6" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="4" t="s">
+    <row r="315" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="6" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="4" t="s">
+    <row r="316" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="6" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="4" t="s">
+    <row r="317" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="4" t="s">
+    <row r="318" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="6" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="4" t="s">
+    <row r="319" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="6" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="4" t="s">
+    <row r="320" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="4" t="s">
+    <row r="321" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="6" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="4" t="s">
+    <row r="322" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="4" t="s">
+    <row r="323" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="4" t="s">
+    <row r="324" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="4" t="s">
+    <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="4" t="s">
+    <row r="326" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="6" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="4" t="s">
+    <row r="327" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="4" t="s">
+    <row r="328" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="4" t="s">
+    <row r="329" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="4" t="s">
+    <row r="330" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="6" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="4" t="s">
+    <row r="331" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="4" t="s">
+    <row r="332" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="4" t="s">
+    <row r="333" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="4" t="s">
+    <row r="334" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="4" t="s">
+    <row r="335" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="4" t="s">
+    <row r="336" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="6" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="4" t="s">
+    <row r="337" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="4" t="s">
+    <row r="338" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="4" t="s">
+    <row r="339" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="6" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="4" t="s">
+    <row r="340" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="6" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="4" t="s">
+    <row r="341" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="4" t="s">
+    <row r="342" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="6" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="4" t="s">
+    <row r="343" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="6" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="4" t="s">
+    <row r="344" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="6" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="4" t="s">
+    <row r="345" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="4" t="s">
+    <row r="346" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="6" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="4" t="s">
+    <row r="347" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="6" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A348" s="4" t="s">
+    <row r="348" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="6" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="4" t="s">
+    <row r="349" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="6" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="4" t="s">
+    <row r="350" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="6" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="4" t="s">
+    <row r="351" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="6" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="4" t="s">
+      <c r="A352" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="6" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="4" t="s">
+    <row r="353" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="6" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="4" t="s">
+    <row r="354" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="6" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="4" t="s">
+    <row r="355" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="6" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="4" t="s">
+    <row r="356" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="4" t="s">
+    <row r="357" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="6" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="4" t="s">
+    <row r="358" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="6" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="4" t="s">
+    <row r="359" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="6" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="4" t="s">
+    <row r="360" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="6" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="4" t="s">
+    <row r="361" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="6" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="4" t="s">
+    <row r="362" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="6" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="4" t="s">
+    <row r="363" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="6" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A364" s="4" t="s">
+    <row r="364" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="6" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A365" s="4" t="s">
+    <row r="365" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="6" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A366" s="4" t="s">
+    <row r="366" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="6" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="4" t="s">
+    <row r="367" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="6" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="4" t="s">
+    <row r="368" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="6" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="4" t="s">
+    <row r="369" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="6" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A370" s="4" t="s">
+    <row r="370" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="6" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="4" t="s">
+    <row r="371" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="6" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A372" s="4" t="s">
+    <row r="372" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="6" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="4" t="s">
+    <row r="373" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="6" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="4" t="s">
+    <row r="374" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="4" t="s">
+    <row r="375" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="6" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="4" t="s">
+    <row r="376" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="6" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="5" t="s">
+      <c r="A377" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B377" s="6"/>
-    </row>
-    <row r="378" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B378" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="4" t="s">
+    <row r="379" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="6" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A380" s="4" t="s">
+    <row r="380" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="6" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="4" t="s">
+    <row r="381" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="6" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="4" t="s">
+      <c r="A382" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="6" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="4" t="s">
+      <c r="A383" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="6" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A384" s="4" t="s">
+    <row r="384" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="6" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A385" s="4" t="s">
+    <row r="385" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="6" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="4" t="s">
+    <row r="386" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="6" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="4" t="s">
+    <row r="387" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="6" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="4" t="s">
+    <row r="388" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="6" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A389" s="4" t="s">
+    <row r="389" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="6" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="4" t="s">
+    <row r="390" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="6" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="4" t="s">
+    <row r="391" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="6" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A392" s="4" t="s">
+    <row r="392" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="6" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A393" s="4" t="s">
+    <row r="393" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="6" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A394" s="4" t="s">
+    <row r="394" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="6" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A395" s="4" t="s">
+    <row r="395" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="6" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="4" t="s">
+    <row r="396" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="6" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A397" s="4" t="s">
+    <row r="397" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="6" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A398" s="4" t="s">
+      <c r="A398" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="6" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A399" s="4" t="s">
+    <row r="399" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="6" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A400" s="4" t="s">
+    <row r="400" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="6" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A401" s="4" t="s">
+    <row r="401" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="6" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A402" s="4" t="s">
+      <c r="A402" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="6" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="4" t="s">
+    <row r="403" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="6" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="4" t="s">
+    <row r="404" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="6" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="4" t="s">
+    <row r="405" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="6" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A406" s="4" t="s">
+    <row r="406" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="6" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="4" t="s">
+    <row r="407" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="6" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A408" s="4" t="s">
+    <row r="408" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" s="6" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="4" t="s">
+    <row r="409" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="6" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A410" s="4" t="s">
+    <row r="410" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="6" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A411" s="4" t="s">
+    <row r="411" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="6" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A412" s="4" t="s">
+    <row r="412" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="6" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A413" s="4" t="s">
+    <row r="413" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="6" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A414" s="4" t="s">
+    <row r="414" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="6" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A415" s="4" t="s">
+    <row r="415" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="6" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="4" t="s">
+    <row r="416" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="6" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A417" s="4" t="s">
+    <row r="417" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="6" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="4" t="s">
+    <row r="418" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="6" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A419" s="4" t="s">
+    <row r="419" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="6" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A420" s="4" t="s">
+    <row r="420" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="6" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A421" s="4" t="s">
+    <row r="421" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="6" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A422" s="4" t="s">
+    <row r="422" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="6" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="4" t="s">
+    <row r="423" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="6" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A424" s="4" t="s">
+    <row r="424" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="6" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A425" s="5" t="s">
+      <c r="A425" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B425" s="6"/>
-    </row>
-    <row r="426" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="B426" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A427" s="4" t="s">
+    <row r="427" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="6" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A428" s="4" t="s">
+    <row r="428" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="6" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A429" s="4" t="s">
+    <row r="429" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="6" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="4" t="s">
+    <row r="430" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="6" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A431" s="4" t="s">
+    <row r="431" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" s="6" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A432" s="4" t="s">
+    <row r="432" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A433" s="4" t="s">
+    <row r="433" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="6" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A434" s="4" t="s">
+    <row r="434" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="6" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A435" s="4" t="s">
+    <row r="435" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="6" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A436" s="4" t="s">
+    <row r="436" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="6" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A437" s="4" t="s">
+    <row r="437" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="6" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A438" s="4" t="s">
+    <row r="438" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="6" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A439" s="4" t="s">
+    <row r="439" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="6" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A440" s="4" t="s">
+    <row r="440" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="6" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A441" s="4" t="s">
+    <row r="441" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="6" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A442" s="4" t="s">
+    <row r="442" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="6" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A443" s="4" t="s">
+    <row r="443" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="6" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A444" s="4" t="s">
+    <row r="444" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="6" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A445" s="4" t="s">
+    <row r="445" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" s="6" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A446" s="4" t="s">
+    <row r="446" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" s="6" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A447" s="4" t="s">
+    <row r="447" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="6" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A448" s="4" t="s">
+    <row r="448" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="6" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A449" s="4" t="s">
+    <row r="449" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B449" s="6" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A450" s="4" t="s">
+    <row r="450" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="6" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A451" s="4" t="s">
+    <row r="451" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="6" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A452" s="4" t="s">
+    <row r="452" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="6" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A453" s="4" t="s">
+    <row r="453" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" s="6" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A454" s="4" t="s">
+    <row r="454" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B454" s="6" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A455" s="4" t="s">
+    <row r="455" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="6" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A456" s="4" t="s">
+    <row r="456" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="6" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A457" s="4" t="s">
+    <row r="457" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" s="6" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A458" s="4" t="s">
+    <row r="458" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B458" s="6" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A459" s="4" t="s">
+    <row r="459" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="6" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A460" s="4" t="s">
+    <row r="460" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="6" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A461" s="4" t="s">
+    <row r="461" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" s="6" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A462" s="4" t="s">
+    <row r="462" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" s="6" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A463" s="4" t="s">
+    <row r="463" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" s="6" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A464" s="4" t="s">
+      <c r="A464" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="6" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A465" s="4" t="s">
+    <row r="465" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" s="6" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A466" s="4" t="s">
+    <row r="466" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="6" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A467" s="4" t="s">
+    <row r="467" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="6" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A468" s="4" t="s">
+    <row r="468" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B468" s="6" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="5" t="s">
+      <c r="A469" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="B469" s="6"/>
-    </row>
-    <row r="470" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B469" s="2"/>
+    </row>
+    <row r="470" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B470" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A471" s="4" t="s">
+    <row r="471" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" s="6" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A472" s="4" t="s">
+    <row r="472" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="6" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A473" s="4" t="s">
+    <row r="473" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A473" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B473" s="6" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A474" s="4" t="s">
+    <row r="474" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="B474" s="2" t="s">
+      <c r="B474" s="6" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A475" s="4" t="s">
+    <row r="475" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B475" s="6" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A476" s="4" t="s">
+    <row r="476" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A476" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B476" s="6" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A477" s="4" t="s">
+    <row r="477" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A477" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B477" s="6" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A478" s="4" t="s">
+      <c r="A478" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B478" s="6" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A479" s="4" t="s">
+    <row r="479" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A479" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" s="6" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A480" s="4" t="s">
+    <row r="480" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A480" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B480" s="6" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A481" s="4" t="s">
+    <row r="481" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A481" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B481" s="6" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A482" s="4" t="s">
+    <row r="482" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" s="6" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A483" s="4" t="s">
+    <row r="483" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B483" s="6" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A484" s="4" t="s">
+    <row r="484" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A484" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="B484" s="2" t="s">
+      <c r="B484" s="6" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A485" s="4" t="s">
+    <row r="485" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A485" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="B485" s="2" t="s">
+      <c r="B485" s="6" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A486" s="4" t="s">
+    <row r="486" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B486" s="6" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="4" t="s">
+    <row r="487" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A487" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B487" s="6" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A488" s="4" t="s">
+    <row r="488" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B488" s="6" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A489" s="4" t="s">
+    <row r="489" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B489" s="6" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A490" s="4" t="s">
+    <row r="490" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="B490" s="2" t="s">
+      <c r="B490" s="6" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A491" s="4" t="s">
+    <row r="491" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A491" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B491" s="6" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A492" s="4" t="s">
+      <c r="A492" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="B492" s="6" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="5" t="s">
+      <c r="A493" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B493" s="6"/>
-    </row>
-    <row r="494" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B493" s="2"/>
+    </row>
+    <row r="494" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="B494" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A495" s="4" t="s">
+    <row r="495" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B495" s="6" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A496" s="4" t="s">
+    <row r="496" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A496" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B496" s="6" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A497" s="4" t="s">
+    <row r="497" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A497" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="B497" s="2" t="s">
+      <c r="B497" s="6" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A498" s="4" t="s">
+    <row r="498" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A498" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B498" s="6" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="4" t="s">
+    <row r="499" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A499" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B499" s="6" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A500" s="4" t="s">
+    <row r="500" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B500" s="6" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A501" s="4" t="s">
+    <row r="501" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A501" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="B501" s="6" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="4" t="s">
+    <row r="502" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="B502" s="6" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A503" s="4" t="s">
+    <row r="503" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A503" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B503" s="6" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A504" s="4" t="s">
+    <row r="504" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B504" s="6" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A505" s="4" t="s">
+    <row r="505" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="5" t="s">
         <v>949</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B505" s="6" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A506" s="4" t="s">
+    <row r="506" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B506" s="6" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A507" s="4" t="s">
+    <row r="507" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="B507" s="2" t="s">
+      <c r="B507" s="6" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A508" s="4" t="s">
+    <row r="508" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="B508" s="6" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A509" s="4" t="s">
+    <row r="509" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B509" s="6" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A510" s="4" t="s">
+      <c r="A510" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B510" s="6" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A511" s="4" t="s">
+    <row r="511" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="B511" s="2" t="s">
+      <c r="B511" s="6" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A512" s="5" t="s">
+      <c r="A512" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="B512" s="6"/>
-    </row>
-    <row r="513" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B512" s="2"/>
+    </row>
+    <row r="513" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B513" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A514" s="4" t="s">
+    <row r="514" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A514" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B514" s="6" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A515" s="4" t="s">
+    <row r="515" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A515" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B515" s="6" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A516" s="4" t="s">
+    <row r="516" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A516" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B516" s="6" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A517" s="4" t="s">
+    <row r="517" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A517" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B517" s="6" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A518" s="4" t="s">
+      <c r="A518" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B518" s="6" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A519" s="4" t="s">
+    <row r="519" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A519" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B519" s="6" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A520" s="4" t="s">
+    <row r="520" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A520" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B520" s="6" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A521" s="4" t="s">
+    <row r="521" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A521" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="B521" s="6" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A522" s="4" t="s">
+    <row r="522" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B522" s="6" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A523" s="4" t="s">
+    <row r="523" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A523" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B523" s="6" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A524" s="4" t="s">
+    <row r="524" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A524" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B524" s="6" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A525" s="4" t="s">
+    <row r="525" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A525" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B525" s="6" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A526" s="4" t="s">
+    <row r="526" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A526" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B526" s="6" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A527" s="4" t="s">
+    <row r="527" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A527" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B527" s="6" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A528" s="4" t="s">
+      <c r="A528" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="B528" s="6" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A529" s="4" t="s">
+    <row r="529" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A529" s="5" t="s">
         <v>994</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="B529" s="6" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A530" s="4" t="s">
+    <row r="530" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A530" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="B530" s="6" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A531" s="4" t="s">
+    <row r="531" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A531" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B531" s="6" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="4" t="s">
+    <row r="532" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A532" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B532" s="6" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A533" s="4" t="s">
+    <row r="533" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A533" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B533" s="6" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A534" s="4" t="s">
+    <row r="534" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A534" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B534" s="6" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A535" s="4" t="s">
+    <row r="535" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A535" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B535" s="6" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A536" s="4" t="s">
+    <row r="536" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A536" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B536" s="6" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A537" s="4" t="s">
+    <row r="537" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A537" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B537" s="6" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A538" s="4" t="s">
+    <row r="538" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A538" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B538" s="6" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A539" s="4" t="s">
+    <row r="539" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A539" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="B539" s="6" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A540" s="4" t="s">
+    <row r="540" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A540" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B540" s="6" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A541" s="4" t="s">
+    <row r="541" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A541" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B541" s="6" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A542" s="4" t="s">
+    <row r="542" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A542" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B542" s="6" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A543" s="5" t="s">
+      <c r="A543" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B543" s="6"/>
-    </row>
-    <row r="544" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B543" s="2"/>
+    </row>
+    <row r="544" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="B544" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A545" s="4" t="s">
+    <row r="545" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A545" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B545" s="6" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A546" s="4" t="s">
+    <row r="546" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A546" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B546" s="6" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A547" s="4" t="s">
+    <row r="547" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A547" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B547" s="6" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A548" s="4" t="s">
+    <row r="548" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A548" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B548" s="6" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A549" s="4" t="s">
+    <row r="549" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A549" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B549" s="6" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A550" s="4" t="s">
+    <row r="550" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A550" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="B550" s="2" t="s">
+      <c r="B550" s="6" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A551" s="4" t="s">
+    <row r="551" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A551" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="B551" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A552" s="4" t="s">
+    <row r="552" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A552" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B552" s="6" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A553" s="4" t="s">
+    <row r="553" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A553" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="B553" s="2" t="s">
+      <c r="B553" s="6" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A554" s="4" t="s">
+    <row r="554" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A554" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="B554" s="2" t="s">
+      <c r="B554" s="6" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A555" s="4" t="s">
+    <row r="555" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A555" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B555" s="6" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A556" s="4" t="s">
+    <row r="556" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A556" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B556" s="6" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A557" s="4" t="s">
+    <row r="557" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A557" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="B557" s="2" t="s">
+      <c r="B557" s="6" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A558" s="4" t="s">
+      <c r="A558" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B558" s="6" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A559" s="4" t="s">
+    <row r="559" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A559" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="B559" s="6" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A560" s="4" t="s">
+    <row r="560" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A560" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="B560" s="6" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A561" s="4" t="s">
+    <row r="561" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A561" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="B561" s="6" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A562" s="4" t="s">
+    <row r="562" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A562" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="B562" s="2" t="s">
+      <c r="B562" s="6" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A563" s="4" t="s">
+    <row r="563" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A563" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="B563" s="2" t="s">
+      <c r="B563" s="6" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A564" s="4" t="s">
+    <row r="564" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A564" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B564" s="6" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A565" s="4" t="s">
+    <row r="565" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A565" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="B565" s="6" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A566" s="4" t="s">
+    <row r="566" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A566" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="B566" s="2" t="s">
+      <c r="B566" s="6" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A567" s="4" t="s">
+    <row r="567" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A567" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="B567" s="2" t="s">
+      <c r="B567" s="6" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A568" s="4" t="s">
+      <c r="A568" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="B568" s="2" t="s">
+      <c r="B568" s="6" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A569" s="4" t="s">
+    <row r="569" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A569" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="B569" s="2" t="s">
+      <c r="B569" s="6" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A570" s="4" t="s">
+    <row r="570" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A570" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="B570" s="2" t="s">
+      <c r="B570" s="6" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A571" s="4" t="s">
+    <row r="571" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A571" s="5" t="s">
         <v>1075</v>
       </c>
-      <c r="B571" s="2" t="s">
+      <c r="B571" s="6" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A572" s="4" t="s">
+    <row r="572" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A572" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="B572" s="2" t="s">
+      <c r="B572" s="6" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A573" s="4" t="s">
+    <row r="573" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A573" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="B573" s="2" t="s">
+      <c r="B573" s="6" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A574" s="4" t="s">
+    <row r="574" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A574" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="B574" s="6" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A575" s="4" t="s">
+    <row r="575" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A575" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="B575" s="2" t="s">
+      <c r="B575" s="6" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A576" s="4" t="s">
+      <c r="A576" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B576" s="2" t="s">
+      <c r="B576" s="6" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A577" s="4" t="s">
+    <row r="577" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A577" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="B577" s="2" t="s">
+      <c r="B577" s="6" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A578" s="4" t="s">
+    <row r="578" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A578" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="B578" s="2" t="s">
+      <c r="B578" s="6" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A579" s="4" t="s">
+      <c r="A579" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="B579" s="2" t="s">
+      <c r="B579" s="6" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A580" s="4" t="s">
+    <row r="580" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A580" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="B580" s="2" t="s">
+      <c r="B580" s="6" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A581" s="4" t="s">
+    <row r="581" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A581" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="B581" s="2" t="s">
+      <c r="B581" s="6" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A582" s="4" t="s">
+    <row r="582" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A582" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="B582" s="2" t="s">
+      <c r="B582" s="6" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A583" s="4" t="s">
+    <row r="583" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A583" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B583" s="6" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A584" s="4" t="s">
+    <row r="584" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A584" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B584" s="6" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="77.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A585" s="4" t="s">
+    <row r="585" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A585" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="B585" s="2" t="s">
+      <c r="B585" s="6" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A586" s="4" t="s">
+    <row r="586" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A586" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="B586" s="2" t="s">
+      <c r="B586" s="6" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A587" s="4" t="s">
+    <row r="587" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A587" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="B587" s="2" t="s">
+      <c r="B587" s="6" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A588" s="4" t="s">
+    <row r="588" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A588" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="B588" s="2" t="s">
+      <c r="B588" s="6" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A589" s="4" t="s">
+    <row r="589" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A589" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="B589" s="2" t="s">
+      <c r="B589" s="6" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A590" s="4" t="s">
+    <row r="590" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A590" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B590" s="6" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A591" s="4" t="s">
+    <row r="591" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="B591" s="2" t="s">
+      <c r="B591" s="6" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A592" s="4" t="s">
+    <row r="592" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="B592" s="2" t="s">
+      <c r="B592" s="6" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A593" s="4" t="s">
+    <row r="593" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="B593" s="2" t="s">
+      <c r="B593" s="6" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A594" s="4" t="s">
+    <row r="594" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="B594" s="2" t="s">
+      <c r="B594" s="6" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A595" s="4" t="s">
+    <row r="595" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="B595" s="2" t="s">
+      <c r="B595" s="6" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A596" s="4" t="s">
+      <c r="A596" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="B596" s="6" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A597" s="4" t="s">
+    <row r="597" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="B597" s="2" t="s">
+      <c r="B597" s="6" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A598" s="4" t="s">
+    <row r="598" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="B598" s="6" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A599" s="4" t="s">
+    <row r="599" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="B599" s="2" t="s">
+      <c r="B599" s="6" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A600" s="4" t="s">
+    <row r="600" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="B600" s="2" t="s">
+      <c r="B600" s="6" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A601" s="4" t="s">
+    <row r="601" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="B601" s="2" t="s">
+      <c r="B601" s="6" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A602" s="4" t="s">
+    <row r="602" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="B602" s="2" t="s">
+      <c r="B602" s="6" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A603" s="4" t="s">
+      <c r="A603" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="B603" s="2" t="s">
+      <c r="B603" s="6" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A604" s="4" t="s">
+    <row r="604" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="B604" s="2" t="s">
+      <c r="B604" s="6" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A605" s="4" t="s">
+    <row r="605" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="B605" s="2" t="s">
+      <c r="B605" s="6" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A606" s="4" t="s">
+    <row r="606" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="B606" s="2" t="s">
+      <c r="B606" s="6" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A607" s="4" t="s">
+    <row r="607" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="B607" s="2" t="s">
+      <c r="B607" s="6" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A608" s="4" t="s">
+    <row r="608" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="B608" s="2" t="s">
+      <c r="B608" s="6" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A609" s="4" t="s">
+    <row r="609" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="B609" s="2" t="s">
+      <c r="B609" s="6" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A610" s="4" t="s">
+    <row r="610" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="B610" s="2" t="s">
+      <c r="B610" s="6" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A611" s="4" t="s">
+    <row r="611" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="B611" s="2" t="s">
+      <c r="B611" s="6" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A612" s="4" t="s">
+    <row r="612" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="B612" s="2" t="s">
+      <c r="B612" s="6" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A613" s="4" t="s">
+    <row r="613" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="B613" s="2" t="s">
+      <c r="B613" s="6" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A614" s="4" t="s">
+    <row r="614" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="B614" s="2" t="s">
+      <c r="B614" s="6" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A615" s="4" t="s">
+    <row r="615" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="B615" s="2" t="s">
+      <c r="B615" s="6" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A616" s="4" t="s">
+    <row r="616" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A616" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="B616" s="2" t="s">
+      <c r="B616" s="6" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A617" s="4" t="s">
+    <row r="617" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A617" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="B617" s="2" t="s">
+      <c r="B617" s="6" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A618" s="4" t="s">
+    <row r="618" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A618" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="B618" s="2" t="s">
+      <c r="B618" s="6" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A619" s="4" t="s">
+    <row r="619" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A619" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="B619" s="2" t="s">
+      <c r="B619" s="6" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A620" s="4" t="s">
+    <row r="620" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A620" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="B620" s="2" t="s">
+      <c r="B620" s="6" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A621" s="5" t="s">
+      <c r="A621" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="B621" s="6"/>
-    </row>
-    <row r="622" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B621" s="2"/>
+    </row>
+    <row r="622" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A622" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B622" s="1" t="s">
+      <c r="B622" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A623" s="4" t="s">
+    <row r="623" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A623" s="5" t="s">
         <v>1176</v>
       </c>
-      <c r="B623" s="2" t="s">
+      <c r="B623" s="6" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A624" s="4" t="s">
+    <row r="624" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A624" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="B624" s="2" t="s">
+      <c r="B624" s="6" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A625" s="4" t="s">
+      <c r="A625" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="B625" s="2" t="s">
+      <c r="B625" s="6" t="s">
         <v>1181</v>
       </c>
     </row>
     <row r="626" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A626" s="4" t="s">
+      <c r="A626" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="B626" s="2" t="s">
+      <c r="B626" s="6" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A627" s="4" t="s">
+    <row r="627" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A627" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="B627" s="2" t="s">
+      <c r="B627" s="6" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A628" s="4" t="s">
+    <row r="628" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A628" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="B628" s="2" t="s">
+      <c r="B628" s="6" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A629" s="4" t="s">
+    <row r="629" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A629" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="B629" s="2" t="s">
+      <c r="B629" s="6" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A630" s="4" t="s">
+    <row r="630" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A630" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="B630" s="2" t="s">
+      <c r="B630" s="6" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A631" s="4" t="s">
+    <row r="631" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A631" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="B631" s="2" t="s">
+      <c r="B631" s="6" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A632" s="4" t="s">
+    <row r="632" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A632" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="B632" s="2" t="s">
+      <c r="B632" s="6" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A633" s="4" t="s">
+    <row r="633" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A633" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="B633" s="2" t="s">
+      <c r="B633" s="6" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A634" s="4" t="s">
+    <row r="634" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A634" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="B634" s="2" t="s">
+      <c r="B634" s="6" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A635" s="4" t="s">
+    <row r="635" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A635" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="B635" s="2" t="s">
+      <c r="B635" s="6" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A636" s="4" t="s">
+    <row r="636" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A636" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="B636" s="2" t="s">
+      <c r="B636" s="6" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A637" s="4" t="s">
+    <row r="637" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A637" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="B637" s="2" t="s">
+      <c r="B637" s="6" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A638" s="4" t="s">
+    <row r="638" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="B638" s="2" t="s">
+      <c r="B638" s="6" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A639" s="4" t="s">
+    <row r="639" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A639" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="B639" s="2" t="s">
+      <c r="B639" s="6" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A640" s="4" t="s">
+    <row r="640" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A640" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="B640" s="2" t="s">
+      <c r="B640" s="6" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A641" s="4" t="s">
+      <c r="A641" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="B641" s="2" t="s">
+      <c r="B641" s="6" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A642" s="4" t="s">
+      <c r="A642" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="B642" s="2" t="s">
+      <c r="B642" s="6" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A643" s="4" t="s">
+    <row r="643" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A643" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="B643" s="2" t="s">
+      <c r="B643" s="6" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A644" s="4" t="s">
+    <row r="644" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A644" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="B644" s="2" t="s">
+      <c r="B644" s="6" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A645" s="4" t="s">
+    <row r="645" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A645" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="B645" s="2" t="s">
+      <c r="B645" s="6" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A646" s="4" t="s">
+    <row r="646" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A646" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="B646" s="2" t="s">
+      <c r="B646" s="6" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A647" s="4" t="s">
+    <row r="647" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="B647" s="2" t="s">
+      <c r="B647" s="6" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A648" s="4" t="s">
+    <row r="648" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A648" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="B648" s="2" t="s">
+      <c r="B648" s="6" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A649" s="4" t="s">
+    <row r="649" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A649" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="B649" s="2" t="s">
+      <c r="B649" s="6" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A650" s="4" t="s">
+    <row r="650" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A650" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="B650" s="2" t="s">
+      <c r="B650" s="6" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A651" s="4" t="s">
+    <row r="651" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A651" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="B651" s="2" t="s">
+      <c r="B651" s="6" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A652" s="4" t="s">
+    <row r="652" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A652" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="B652" s="2" t="s">
+      <c r="B652" s="6" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A653" s="4" t="s">
+    <row r="653" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A653" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="B653" s="2" t="s">
+      <c r="B653" s="6" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A654" s="4" t="s">
+    <row r="654" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A654" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="B654" s="2" t="s">
+      <c r="B654" s="6" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A655" s="4" t="s">
+    <row r="655" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A655" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="B655" s="2" t="s">
+      <c r="B655" s="6" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A656" s="4" t="s">
+    <row r="656" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A656" s="5" t="s">
         <v>1242</v>
       </c>
-      <c r="B656" s="2" t="s">
+      <c r="B656" s="6" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A657" s="4" t="s">
+    <row r="657" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A657" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="B657" s="2" t="s">
+      <c r="B657" s="6" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A658" s="4" t="s">
+    <row r="658" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A658" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="B658" s="2" t="s">
+      <c r="B658" s="6" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A659" s="4" t="s">
+    <row r="659" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A659" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="B659" s="2" t="s">
+      <c r="B659" s="6" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A660" s="4" t="s">
+    <row r="660" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A660" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="B660" s="2" t="s">
+      <c r="B660" s="6" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A661" s="4" t="s">
+    <row r="661" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A661" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="B661" s="2" t="s">
+      <c r="B661" s="6" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A662" s="4" t="s">
+    <row r="662" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A662" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="B662" s="2" t="s">
+      <c r="B662" s="6" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A663" s="4" t="s">
+    <row r="663" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A663" s="5" t="s">
         <v>1256</v>
       </c>
-      <c r="B663" s="2" t="s">
+      <c r="B663" s="6" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A664" s="4" t="s">
+    <row r="664" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A664" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="B664" s="2" t="s">
+      <c r="B664" s="6" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A665" s="4" t="s">
+    <row r="665" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A665" s="5" t="s">
         <v>1260</v>
       </c>
-      <c r="B665" s="2" t="s">
+      <c r="B665" s="6" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A666" s="4" t="s">
+    <row r="666" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A666" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="B666" s="2" t="s">
+      <c r="B666" s="6" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A667" s="4" t="s">
+    <row r="667" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A667" s="5" t="s">
         <v>1264</v>
       </c>
-      <c r="B667" s="2" t="s">
+      <c r="B667" s="6" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A668" s="4" t="s">
+    <row r="668" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A668" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="B668" s="2" t="s">
+      <c r="B668" s="6" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A669" s="4" t="s">
+    <row r="669" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A669" s="5" t="s">
         <v>1268</v>
       </c>
-      <c r="B669" s="2" t="s">
+      <c r="B669" s="6" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A670" s="4" t="s">
+    <row r="670" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A670" s="5" t="s">
         <v>1270</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B670" s="6" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A671" s="4" t="s">
+    <row r="671" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A671" s="5" t="s">
         <v>1272</v>
       </c>
-      <c r="B671" s="2" t="s">
+      <c r="B671" s="6" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A672" s="4" t="s">
+      <c r="A672" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="B672" s="2" t="s">
+      <c r="B672" s="6" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A673" s="4" t="s">
+    <row r="673" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="B673" s="2" t="s">
+      <c r="B673" s="6" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A674" s="4" t="s">
+    <row r="674" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="B674" s="2" t="s">
+      <c r="B674" s="6" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A675" s="4" t="s">
+    <row r="675" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="5" t="s">
         <v>1280</v>
       </c>
-      <c r="B675" s="2" t="s">
+      <c r="B675" s="6" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A676" s="4" t="s">
+    <row r="676" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="B676" s="2" t="s">
+      <c r="B676" s="6" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A677" s="4" t="s">
+    <row r="677" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="5" t="s">
         <v>1284</v>
       </c>
-      <c r="B677" s="2" t="s">
+      <c r="B677" s="6" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A678" s="5" t="s">
+      <c r="A678" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="B678" s="6"/>
-    </row>
-    <row r="679" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B678" s="2"/>
+    </row>
+    <row r="679" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A679" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B679" s="1" t="s">
+      <c r="B679" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A680" s="4" t="s">
+    <row r="680" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="5" t="s">
         <v>1287</v>
       </c>
-      <c r="B680" s="2" t="s">
+      <c r="B680" s="6" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A681" s="4" t="s">
+    <row r="681" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="5" t="s">
         <v>1289</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="B681" s="6" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A682" s="4" t="s">
+      <c r="A682" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="B682" s="2" t="s">
+      <c r="B682" s="6" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A683" s="4" t="s">
+    <row r="683" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="B683" s="6" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A684" s="4" t="s">
+    <row r="684" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="5" t="s">
         <v>1295</v>
       </c>
-      <c r="B684" s="2" t="s">
+      <c r="B684" s="6" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A685" s="4" t="s">
+    <row r="685" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="5" t="s">
         <v>1297</v>
       </c>
-      <c r="B685" s="2" t="s">
+      <c r="B685" s="6" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A686" s="4" t="s">
+    <row r="686" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="5" t="s">
         <v>1299</v>
       </c>
-      <c r="B686" s="2" t="s">
+      <c r="B686" s="6" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A687" s="4" t="s">
+    <row r="687" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="5" t="s">
         <v>1301</v>
       </c>
-      <c r="B687" s="2" t="s">
+      <c r="B687" s="6" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A688" s="4" t="s">
+    <row r="688" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="B688" s="2" t="s">
+      <c r="B688" s="6" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A689" s="4" t="s">
+    <row r="689" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="5" t="s">
         <v>1305</v>
       </c>
-      <c r="B689" s="2" t="s">
+      <c r="B689" s="6" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A690" s="4" t="s">
+    <row r="690" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A690" s="5" t="s">
         <v>1307</v>
       </c>
-      <c r="B690" s="2" t="s">
+      <c r="B690" s="6" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="154.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A691" s="4" t="s">
+    <row r="691" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A691" s="5" t="s">
         <v>1309</v>
       </c>
-      <c r="B691" s="2" t="s">
+      <c r="B691" s="6" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A692" s="4" t="s">
+    <row r="692" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="5" t="s">
         <v>1311</v>
       </c>
-      <c r="B692" s="2" t="s">
+      <c r="B692" s="6" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A693" s="4" t="s">
+    <row r="693" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A693" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="B693" s="2" t="s">
+      <c r="B693" s="6" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A694" s="4" t="s">
+    <row r="694" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A694" s="5" t="s">
         <v>1315</v>
       </c>
-      <c r="B694" s="2" t="s">
+      <c r="B694" s="6" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A695" s="5" t="s">
+      <c r="A695" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="B695" s="6"/>
-    </row>
-    <row r="696" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B695" s="2"/>
+    </row>
+    <row r="696" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A696" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B696" s="1" t="s">
+      <c r="B696" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="96.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A697" s="4" t="s">
+    <row r="697" spans="1:2" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A697" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="B697" s="2" t="s">
+      <c r="B697" s="6" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A698" s="4" t="s">
+    <row r="698" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A698" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="B698" s="2" t="s">
+      <c r="B698" s="6" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A699" s="4" t="s">
+    <row r="699" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A699" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="B699" s="2" t="s">
+      <c r="B699" s="6" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A700" s="4" t="s">
+    <row r="700" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A700" s="5" t="s">
         <v>1324</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="B700" s="6" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A701" s="4" t="s">
+    <row r="701" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A701" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="B701" s="2" t="s">
+      <c r="B701" s="6" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A702" s="4" t="s">
+    <row r="702" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A702" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B702" s="6" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A703" s="4" t="s">
+    <row r="703" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A703" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B703" s="6" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A704" s="4" t="s">
+    <row r="704" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A704" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="B704" s="2" t="s">
+      <c r="B704" s="6" t="s">
         <v>1333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A377:B377"/>
     <mergeCell ref="A695:B695"/>
     <mergeCell ref="A469:B469"/>
     <mergeCell ref="A493:B493"/>
@@ -10072,680 +10091,662 @@
     <mergeCell ref="A543:B543"/>
     <mergeCell ref="A621:B621"/>
     <mergeCell ref="A678:B678"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A425:B425"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A78:B78"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1909" xr:uid="{D4C01F0B-20B2-4267-AA9A-8BE0C7F712F5}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1910" xr:uid="{16D61E72-A144-4242-9644-3D68DA5DB7C3}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1911" xr:uid="{3B3FD51B-A787-4A1D-9CE8-D088A87C937F}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1886" xr:uid="{531AF1D7-3DE9-414F-B00B-95A963CCA482}"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1400" xr:uid="{96D20029-092F-4F18-8A54-AB626B7F54B8}"/>
-    <hyperlink ref="A12" r:id="rId6" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25895" xr:uid="{B2DBE08A-EEAC-4BB2-9047-EE298F53E28F}"/>
-    <hyperlink ref="A13" r:id="rId7" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25988" xr:uid="{6F5F618A-2F70-4ABA-91B2-F6956E7C41D3}"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26035" xr:uid="{09D84912-0F1F-4A50-8292-D1A0290EDF97}"/>
-    <hyperlink ref="A15" r:id="rId9" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26036" xr:uid="{A87024CC-8A6E-4398-AA73-27F2CA4E1503}"/>
-    <hyperlink ref="A16" r:id="rId10" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25972" xr:uid="{B726044E-60F3-4C3C-A840-DF38F2795F52}"/>
-    <hyperlink ref="A17" r:id="rId11" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=93588" xr:uid="{0E8AC8D7-EDB9-4046-BB7E-7BA95C3F84FD}"/>
-    <hyperlink ref="A18" r:id="rId12" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91194" xr:uid="{1BF40194-F255-4B54-ACB1-4798DCB27B4F}"/>
-    <hyperlink ref="A19" r:id="rId13" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64437" xr:uid="{E9721343-E8E0-4B8B-AB78-48EA6954A97C}"/>
-    <hyperlink ref="A20" r:id="rId14" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25888" xr:uid="{AF4A8F06-3442-431E-918F-1080702A13F6}"/>
-    <hyperlink ref="A21" r:id="rId15" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25989" xr:uid="{17512182-BE3C-47EB-8E31-5B544A875980}"/>
-    <hyperlink ref="A22" r:id="rId16" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88995" xr:uid="{1F3FC93D-5BD6-4688-AA5E-908855746261}"/>
-    <hyperlink ref="A23" r:id="rId17" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25985" xr:uid="{EC62BDAA-C583-4BB9-81C8-96C0FA4CC91C}"/>
-    <hyperlink ref="A24" r:id="rId18" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82446" xr:uid="{F178C61F-A494-44E4-BE5B-DC7E92E8E2FE}"/>
-    <hyperlink ref="A25" r:id="rId19" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25891" xr:uid="{AA5F19FF-82F1-4EB8-BE77-80B9620AB80F}"/>
-    <hyperlink ref="A26" r:id="rId20" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26043" xr:uid="{3B3221C2-2F64-4B0E-B55B-CD76936A7F0D}"/>
-    <hyperlink ref="A27" r:id="rId21" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66502" xr:uid="{7EF33C8C-4474-45CC-8067-3E7036D94E26}"/>
-    <hyperlink ref="A28" r:id="rId22" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=723" xr:uid="{401FC724-1983-48CD-9A54-EEF3C36146B0}"/>
-    <hyperlink ref="A29" r:id="rId23" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67106" xr:uid="{DAC00578-F3E7-4DB2-819F-E9EBFCC6CD55}"/>
-    <hyperlink ref="A30" r:id="rId24" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26017" xr:uid="{CE5CD712-2DAF-4C41-A99F-5F45F7F1C858}"/>
-    <hyperlink ref="A31" r:id="rId25" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67123" xr:uid="{9C229E73-C320-42C0-806E-266C2EE78B77}"/>
-    <hyperlink ref="A32" r:id="rId26" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25899" xr:uid="{6BDA2036-9F32-4372-8650-F9D81FB64B62}"/>
-    <hyperlink ref="A33" r:id="rId27" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25900" xr:uid="{8506C2D7-21D5-4F78-8D79-C64B8742D3E7}"/>
-    <hyperlink ref="A36" r:id="rId28" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64791" xr:uid="{5BE78AF7-7B01-4B15-BA80-483DD0C40075}"/>
-    <hyperlink ref="A37" r:id="rId29" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66656" xr:uid="{C217429B-04AC-43CC-841D-3125AF182550}"/>
-    <hyperlink ref="A38" r:id="rId30" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66657" xr:uid="{C0529084-AFFC-43D7-9DEC-16075A279076}"/>
-    <hyperlink ref="A39" r:id="rId31" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66658" xr:uid="{8ACA5FC0-6DDA-41C6-B833-A72D63ED1409}"/>
-    <hyperlink ref="A40" r:id="rId32" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85133" xr:uid="{ADCF8146-3BD5-4D13-8C79-3CFE907D1AC9}"/>
-    <hyperlink ref="A41" r:id="rId33" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=215" xr:uid="{30D8FB20-6F3E-4306-8191-EF254A8FFC5F}"/>
-    <hyperlink ref="A42" r:id="rId34" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=297" xr:uid="{8EB96791-D4D7-4F33-8121-6BBDC790C64D}"/>
-    <hyperlink ref="A43" r:id="rId35" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90573" xr:uid="{B3A0D2B1-58FC-4C31-A5A4-EC6CAD5D5256}"/>
-    <hyperlink ref="A44" r:id="rId36" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=131" xr:uid="{F6CCF81E-7195-4446-96D6-FD685FC6C3B0}"/>
-    <hyperlink ref="A45" r:id="rId37" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87615" xr:uid="{F7065351-6CA4-4967-AE6E-4FB05C621889}"/>
-    <hyperlink ref="A46" r:id="rId38" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=243" xr:uid="{76C2E3C3-A086-45DD-96D6-F99F7C89A62F}"/>
-    <hyperlink ref="A47" r:id="rId39" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66655" xr:uid="{CE9FA1F4-B465-4261-8AC6-1E0688031774}"/>
-    <hyperlink ref="A48" r:id="rId40" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=246" xr:uid="{B80E7DDC-4023-4787-925F-7F1A4BD72FB2}"/>
-    <hyperlink ref="A49" r:id="rId41" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66654" xr:uid="{5A7116DF-E171-42D4-80C4-5305B483C48C}"/>
-    <hyperlink ref="A50" r:id="rId42" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=136" xr:uid="{6982D990-5CCE-41E2-8005-9DD97F69E24A}"/>
-    <hyperlink ref="A51" r:id="rId43" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=283" xr:uid="{83C21B31-6A59-43AB-8C28-5ABFD84E7D7B}"/>
-    <hyperlink ref="A52" r:id="rId44" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64477" xr:uid="{447E1B53-0B9C-4A4C-8B56-71F399612FE3}"/>
-    <hyperlink ref="A53" r:id="rId45" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89288" xr:uid="{F10D7D36-259B-4BDB-8D46-4C2FF37A1084}"/>
-    <hyperlink ref="A54" r:id="rId46" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=122" xr:uid="{248C3927-E322-48FB-A873-64BEE855376F}"/>
-    <hyperlink ref="A55" r:id="rId47" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=126" xr:uid="{C13A451D-3782-4BA6-AF31-81CD3A3564FA}"/>
-    <hyperlink ref="A56" r:id="rId48" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=101" xr:uid="{07B8C15B-A754-4C3F-A524-8661E9D37C7A}"/>
-    <hyperlink ref="A57" r:id="rId49" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=103" xr:uid="{E2265458-3707-4946-B013-DB757F854D29}"/>
-    <hyperlink ref="A58" r:id="rId50" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87621" xr:uid="{B50B0D9B-AD67-4C80-BD09-E28AF80DC73B}"/>
-    <hyperlink ref="A59" r:id="rId51" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66869" xr:uid="{37ACCB0E-72DF-4677-8AD4-75B3C1323053}"/>
-    <hyperlink ref="A60" r:id="rId52" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=240" xr:uid="{499DD522-81EF-47F6-8D38-F7A91DED1686}"/>
-    <hyperlink ref="A61" r:id="rId53" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89881" xr:uid="{3A5F9883-4758-4DDF-8036-7E78E350386F}"/>
-    <hyperlink ref="A62" r:id="rId54" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=279" xr:uid="{B317D9D9-9394-4136-8A3F-F424EB15916E}"/>
-    <hyperlink ref="A63" r:id="rId55" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89882" xr:uid="{3E141C9A-BAE1-426A-960C-F3EFE9FDE98C}"/>
-    <hyperlink ref="A64" r:id="rId56" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89883" xr:uid="{4ED460D6-78BD-4E09-8F43-4E599C6BC8BB}"/>
-    <hyperlink ref="A65" r:id="rId57" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89865" xr:uid="{0465ED10-E6F0-4CDF-81A8-F66338B66316}"/>
-    <hyperlink ref="A66" r:id="rId58" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64383" xr:uid="{917AC371-C539-42C3-8C66-64A2F453705A}"/>
-    <hyperlink ref="A67" r:id="rId59" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=195" xr:uid="{882FD58D-036C-49B0-9A14-9611CAB1C522}"/>
-    <hyperlink ref="A68" r:id="rId60" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85424" xr:uid="{1D02BF06-B1B0-49E2-B6C5-2FFED776C931}"/>
-    <hyperlink ref="A69" r:id="rId61" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86804" xr:uid="{95277E64-2919-41B1-827D-25A5C1B68B53}"/>
-    <hyperlink ref="A70" r:id="rId62" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89" xr:uid="{32CC872D-550D-4AE0-B4D5-7E907364E3AF}"/>
-    <hyperlink ref="A71" r:id="rId63" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=184" xr:uid="{101B6012-F077-4600-BEBC-0ECC0F6DDF91}"/>
-    <hyperlink ref="A72" r:id="rId64" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25904" xr:uid="{E96A92C3-55D0-40F5-83F2-89865EE1AD51}"/>
-    <hyperlink ref="A73" r:id="rId65" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25905" xr:uid="{07D331AC-1C07-44B9-A604-0AF31C86B688}"/>
-    <hyperlink ref="A74" r:id="rId66" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=342" xr:uid="{06EBA890-5329-4886-BE8E-32F82A3CF1E7}"/>
-    <hyperlink ref="A77" r:id="rId67" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83060" xr:uid="{FC3843DA-6BD0-4DDF-9D51-FD5AF4F81B0C}"/>
-    <hyperlink ref="A80" r:id="rId68" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26169" xr:uid="{9A887FD4-356D-4909-96C2-9CD5B6F58B68}"/>
-    <hyperlink ref="A83" r:id="rId69" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=76155" xr:uid="{420995E6-446C-4D88-BE78-CC314B03CE1A}"/>
-    <hyperlink ref="A84" r:id="rId70" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64418" xr:uid="{97808EEE-0B8A-4FBD-A629-163E00B87F15}"/>
-    <hyperlink ref="A85" r:id="rId71" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90721" xr:uid="{6B91DD30-7466-4A71-85B6-6D3E24E73356}"/>
-    <hyperlink ref="A86" r:id="rId72" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68751" xr:uid="{57B9F439-B29D-4936-A5ED-CCD55A77B7AD}"/>
-    <hyperlink ref="A87" r:id="rId73" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87174" xr:uid="{43C48861-1F3C-4789-86F9-2087FC36647E}"/>
-    <hyperlink ref="A88" r:id="rId74" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87880" xr:uid="{6B4A0BB3-1406-4E55-9F09-CA321C9C3C44}"/>
-    <hyperlink ref="A89" r:id="rId75" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87178" xr:uid="{985BBAA5-F894-464C-880A-F864B7E7B744}"/>
-    <hyperlink ref="A90" r:id="rId76" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87179" xr:uid="{C9565759-9571-413C-82CF-4558FD307D93}"/>
-    <hyperlink ref="A91" r:id="rId77" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87180" xr:uid="{D6ED18F1-FE77-4155-993E-ADAA20614D21}"/>
-    <hyperlink ref="A92" r:id="rId78" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87177" xr:uid="{1076A5CE-BA23-48FF-B0CC-D63C4A966B8D}"/>
-    <hyperlink ref="A93" r:id="rId79" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87176" xr:uid="{1586260A-AF8E-41FA-BAFA-B9FC886CE3A9}"/>
-    <hyperlink ref="A94" r:id="rId80" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84745" xr:uid="{C5AB91C8-6E69-4185-8DA3-EDDADA8A3A6C}"/>
-    <hyperlink ref="A95" r:id="rId81" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90728" xr:uid="{0EA553C2-7067-43EC-BACC-414956FAEA59}"/>
-    <hyperlink ref="A96" r:id="rId82" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90729" xr:uid="{891188CF-C23C-4ABC-AF49-606EC22E9B81}"/>
-    <hyperlink ref="A97" r:id="rId83" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90730" xr:uid="{0CF2326C-2986-4143-AD0D-A9586D94D2A2}"/>
-    <hyperlink ref="A98" r:id="rId84" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90731" xr:uid="{4F378F72-5429-4A2F-BA0C-9EF0610F45CA}"/>
-    <hyperlink ref="A99" r:id="rId85" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87878" xr:uid="{5706C6FF-F774-4E4D-AAC1-B50B088A1821}"/>
-    <hyperlink ref="A100" r:id="rId86" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87879" xr:uid="{1F03D436-A934-4372-8840-5F1BAC636246}"/>
-    <hyperlink ref="A101" r:id="rId87" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82453" xr:uid="{D4171043-D2BB-41AA-A7F7-CD198366EF8F}"/>
-    <hyperlink ref="A102" r:id="rId88" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92610" xr:uid="{9E4E8519-0690-42D7-8613-9EF454922427}"/>
-    <hyperlink ref="A103" r:id="rId89" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89880" xr:uid="{5B692B18-A8AE-47B5-911D-43C9C0EB010D}"/>
-    <hyperlink ref="A104" r:id="rId90" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90734" xr:uid="{91B574B9-DC3F-4885-9366-D8EBA6F636FE}"/>
-    <hyperlink ref="A105" r:id="rId91" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81364" xr:uid="{A93C41B9-014F-445E-8B6E-914F5C9EC77A}"/>
-    <hyperlink ref="A106" r:id="rId92" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83909" xr:uid="{1285AE63-C637-4876-953F-41877015C8A1}"/>
-    <hyperlink ref="A107" r:id="rId93" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83756" xr:uid="{84A78B21-29E1-44F3-99EE-9CAF433ADC4A}"/>
-    <hyperlink ref="A110" r:id="rId94" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92317" xr:uid="{BE93941B-7467-4020-A1F7-E91373C63FEB}"/>
-    <hyperlink ref="A111" r:id="rId95" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1815" xr:uid="{9C0E5419-83BF-4176-8E34-0971BD824D59}"/>
-    <hyperlink ref="A112" r:id="rId96" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1789" xr:uid="{0691E331-E051-4692-827A-4DAA20ED369A}"/>
-    <hyperlink ref="A113" r:id="rId97" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1791" xr:uid="{69F3B022-1BAF-4A02-9202-7EA9C9BAE354}"/>
-    <hyperlink ref="A114" r:id="rId98" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64384" xr:uid="{E812F241-6160-49EF-9C9C-A077026FD18A}"/>
-    <hyperlink ref="A115" r:id="rId99" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1792" xr:uid="{9439526B-2C1E-4052-BEBD-9ACE38545F73}"/>
-    <hyperlink ref="A116" r:id="rId100" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92544" xr:uid="{7A88FDCE-4257-4D27-8862-F3E9FF5123BD}"/>
-    <hyperlink ref="A117" r:id="rId101" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1848" xr:uid="{1CECF288-8A65-4950-89EF-136EF2847A43}"/>
-    <hyperlink ref="A118" r:id="rId102" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87765" xr:uid="{E1F62DF1-A7BD-45CB-A6FA-84628CF3744C}"/>
-    <hyperlink ref="A119" r:id="rId103" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1841" xr:uid="{3B16B4D1-2043-4550-A8E6-9C3748F6CEAD}"/>
-    <hyperlink ref="A120" r:id="rId104" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82063" xr:uid="{1310436F-0186-4241-8A1A-109DEA80BACF}"/>
-    <hyperlink ref="A121" r:id="rId105" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1820" xr:uid="{6B730417-4A90-4F50-B8A8-01B2BE9ECDCB}"/>
-    <hyperlink ref="A122" r:id="rId106" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25959" xr:uid="{FDBB8A38-D1A2-4997-A17D-098AFD8D1417}"/>
-    <hyperlink ref="A123" r:id="rId107" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1934" xr:uid="{92A5DBEC-D71A-4449-A51F-DE70E19FB4CB}"/>
-    <hyperlink ref="A124" r:id="rId108" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1915" xr:uid="{C66F09EC-2A7C-4FC4-918D-E93EFE4E636D}"/>
-    <hyperlink ref="A125" r:id="rId109" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66670" xr:uid="{FF5BD28F-4C25-426E-A400-21776D7B696B}"/>
-    <hyperlink ref="A126" r:id="rId110" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1889" xr:uid="{BE19DC77-A4A7-4AC2-B32D-5FF1A3C1881D}"/>
-    <hyperlink ref="A127" r:id="rId111" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1890" xr:uid="{38866BCB-9546-4BAA-B9D2-2E36169F3E69}"/>
-    <hyperlink ref="A130" r:id="rId112" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1115" xr:uid="{0353EDD7-CEC5-4720-A5E8-8A7D43F5CF9D}"/>
-    <hyperlink ref="A131" r:id="rId113" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1118" xr:uid="{CEC2355D-44EA-461F-8607-E9EA759F8CBE}"/>
-    <hyperlink ref="A132" r:id="rId114" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88341" xr:uid="{4F2351F6-A7FE-4E5D-A8BB-F3C3D0927143}"/>
-    <hyperlink ref="A133" r:id="rId115" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91455" xr:uid="{D44CE2D0-BAD1-4558-A83C-2C895B341420}"/>
-    <hyperlink ref="A134" r:id="rId116" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90203" xr:uid="{E18B3EB3-E218-47A6-8B20-D8CC810FA322}"/>
-    <hyperlink ref="A135" r:id="rId117" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1526" xr:uid="{BD21E2ED-ABB0-4AD7-A159-73C05670B77A}"/>
-    <hyperlink ref="A136" r:id="rId118" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1444" xr:uid="{07BD2BE1-5B10-4595-95AA-95D6022AE86C}"/>
-    <hyperlink ref="A137" r:id="rId119" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90714" xr:uid="{13474A62-9EA2-4EA9-A6A1-34E18F31C438}"/>
-    <hyperlink ref="A138" r:id="rId120" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81648" xr:uid="{24E5439B-2D82-4845-A185-25C011A3F9FA}"/>
-    <hyperlink ref="A139" r:id="rId121" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84783" xr:uid="{A507A735-6E15-4E7D-9BEE-11043B4E184E}"/>
-    <hyperlink ref="A140" r:id="rId122" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64728" xr:uid="{CE67A829-7A90-4A66-9B9E-4D15E5F14A82}"/>
-    <hyperlink ref="A141" r:id="rId123" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1711" xr:uid="{94FE0069-27FE-4AD9-9B75-78C1337B138F}"/>
-    <hyperlink ref="A142" r:id="rId124" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59550" xr:uid="{D6D45B19-D5C0-4293-8FDE-C32FBF00C225}"/>
-    <hyperlink ref="A143" r:id="rId125" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91704" xr:uid="{3EF1113C-2218-49EE-A5E5-50A7F08A91F4}"/>
-    <hyperlink ref="A144" r:id="rId126" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78333" xr:uid="{C38605A4-88B2-4A5D-9A37-7DDFF3FF451E}"/>
-    <hyperlink ref="A145" r:id="rId127" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84753" xr:uid="{E95DEF4E-4794-4C8A-8CF7-5262672817D0}"/>
-    <hyperlink ref="A146" r:id="rId128" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84754" xr:uid="{4D476415-30DB-48CA-9827-267A5F8BC163}"/>
-    <hyperlink ref="A147" r:id="rId129" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91229" xr:uid="{E2B83340-A15F-48BE-B34A-DE53F438E139}"/>
-    <hyperlink ref="A148" r:id="rId130" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1760" xr:uid="{4BAEACCF-E821-4885-A279-7160D3728A80}"/>
-    <hyperlink ref="A149" r:id="rId131" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89488" xr:uid="{F1BE878D-8373-4D50-B55E-855578B0E6AE}"/>
-    <hyperlink ref="A150" r:id="rId132" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89838" xr:uid="{EB0DCC4E-D252-423B-B494-BE703453821F}"/>
-    <hyperlink ref="A151" r:id="rId133" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25558" xr:uid="{B420191A-4343-4D4F-9E39-C09FE9C56CEB}"/>
-    <hyperlink ref="A152" r:id="rId134" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90478" xr:uid="{A4F70C5C-17C5-4E5B-A845-9DA87C23372D}"/>
-    <hyperlink ref="A153" r:id="rId135" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66727" xr:uid="{AA6D5A31-8AC4-4A99-BE07-38C02B9460E3}"/>
-    <hyperlink ref="A154" r:id="rId136" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1569" xr:uid="{18FAE1C3-1FF6-4C40-A27A-2E143698CCB1}"/>
-    <hyperlink ref="A155" r:id="rId137" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88103" xr:uid="{90B13F54-E87E-40C2-90AF-78C0DAD53A28}"/>
-    <hyperlink ref="A158" r:id="rId138" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82329" xr:uid="{AAC3CB5B-7FED-4F89-8E1C-B5E36D24F4C4}"/>
-    <hyperlink ref="A159" r:id="rId139" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86183" xr:uid="{514B8788-E10B-4782-8C9B-D67F394ED8A6}"/>
-    <hyperlink ref="A160" r:id="rId140" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26001" xr:uid="{E510D4CF-A3BF-4721-B68F-8A543DC09A26}"/>
-    <hyperlink ref="A161" r:id="rId141" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82338" xr:uid="{F948643C-8CBA-40B4-B2B2-1B6F1037C115}"/>
-    <hyperlink ref="A162" r:id="rId142" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=856" xr:uid="{5212D68A-95B4-4B62-82B6-81EFE7CD5340}"/>
-    <hyperlink ref="A163" r:id="rId143" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67099" xr:uid="{E0717111-7B35-4E09-A84E-11B761A4841D}"/>
-    <hyperlink ref="A164" r:id="rId144" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59714" xr:uid="{CF88757D-34A2-4052-8359-64CFE2B6EBF9}"/>
-    <hyperlink ref="A165" r:id="rId145" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67090" xr:uid="{C93E07B7-8E1D-40E2-90E6-E01F2B2E7C23}"/>
-    <hyperlink ref="A166" r:id="rId146" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=744" xr:uid="{A32DA72F-0DE8-444B-8621-F25E8D1A94EB}"/>
-    <hyperlink ref="A167" r:id="rId147" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26011" xr:uid="{C92F6549-F58E-4DB4-88BC-F2FC22AC7913}"/>
-    <hyperlink ref="A168" r:id="rId148" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67092" xr:uid="{1D4002EF-5038-489B-8EF7-8448F7DD332B}"/>
-    <hyperlink ref="A169" r:id="rId149" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=747" xr:uid="{82758803-6D75-42F1-97D2-0E0AC04B1857}"/>
-    <hyperlink ref="A170" r:id="rId150" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=847" xr:uid="{28785A4E-3583-42CF-8DF6-33AA1FACB164}"/>
-    <hyperlink ref="A171" r:id="rId151" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=906" xr:uid="{ADB1394E-5C1A-47FF-8720-2B14DD0A1F5D}"/>
-    <hyperlink ref="A172" r:id="rId152" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84650" xr:uid="{804A16DA-5EA2-4B42-9E2B-F823A83E33A1}"/>
-    <hyperlink ref="A173" r:id="rId153" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66973" xr:uid="{3516967F-8D34-40A3-A921-432205E010F6}"/>
-    <hyperlink ref="A176" r:id="rId154" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86568" xr:uid="{E1CF58A7-7D4D-4E7B-8A48-51F7C8B44476}"/>
-    <hyperlink ref="A177" r:id="rId155" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=273" xr:uid="{528766E8-E34E-4CC5-B820-23177335E8B0}"/>
-    <hyperlink ref="A178" r:id="rId156" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=198" xr:uid="{4EBCFBCB-F7DD-4884-91C3-13D281349984}"/>
-    <hyperlink ref="A179" r:id="rId157" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87645" xr:uid="{182B4909-56EC-4269-9436-8B61D27BEC15}"/>
-    <hyperlink ref="A180" r:id="rId158" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87605" xr:uid="{6308123B-E32E-465A-8350-3F4B56FCB8AD}"/>
-    <hyperlink ref="A181" r:id="rId159" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66642" xr:uid="{DFA38772-E299-46CC-9F3A-79D66C5052BE}"/>
-    <hyperlink ref="A182" r:id="rId160" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25911" xr:uid="{A97C01DF-B4B3-4FD4-8072-5E7BD9B7DB4A}"/>
-    <hyperlink ref="A183" r:id="rId161" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87611" xr:uid="{A7D0B8DE-B765-4C16-BE43-F6EC96BE8AE1}"/>
-    <hyperlink ref="A184" r:id="rId162" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68" xr:uid="{2DF6B774-172B-4B81-9576-19BF8D3D391D}"/>
-    <hyperlink ref="A187" r:id="rId163" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67458" xr:uid="{9702A3C2-88CC-4C51-8BAC-7B81FCF1082D}"/>
-    <hyperlink ref="A188" r:id="rId164" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81250" xr:uid="{657B154A-D2EE-4385-A227-DA421138185F}"/>
-    <hyperlink ref="A189" r:id="rId165" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90200" xr:uid="{A6A74D13-CF11-48D4-84A4-B88467FD60C9}"/>
-    <hyperlink ref="A190" r:id="rId166" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88056" xr:uid="{AD5D19FD-362B-4BEB-908B-D75F0D7975AC}"/>
-    <hyperlink ref="A191" r:id="rId167" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78931" xr:uid="{242F5AB4-E75E-478E-8E08-63F185900F11}"/>
-    <hyperlink ref="A192" r:id="rId168" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92235" xr:uid="{94DC6344-EFDD-45BC-9372-27D3E36E6D6A}"/>
-    <hyperlink ref="A193" r:id="rId169" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66752" xr:uid="{E6BE7C57-93DE-4546-A8AE-076228C62A29}"/>
-    <hyperlink ref="A194" r:id="rId170" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82674" xr:uid="{4E9AA32F-06AD-40A6-B221-414395213844}"/>
-    <hyperlink ref="A195" r:id="rId171" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82675" xr:uid="{C20AEB33-0D39-48B5-8D68-5284C5DCAC9C}"/>
-    <hyperlink ref="A196" r:id="rId172" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86598" xr:uid="{FCF98EAB-99F5-4E64-A553-6FC020322B1F}"/>
-    <hyperlink ref="A197" r:id="rId173" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90755" xr:uid="{25ED2CCE-9FA4-49F7-8FF0-AD3848455B65}"/>
-    <hyperlink ref="A198" r:id="rId174" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83141" xr:uid="{142233DE-18C7-4932-A2F8-3E36594692A3}"/>
-    <hyperlink ref="A199" r:id="rId175" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83143" xr:uid="{2CFF255C-E290-4B5B-B1AC-338783E50654}"/>
-    <hyperlink ref="A200" r:id="rId176" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81538" xr:uid="{5DC64890-D8ED-40CA-AD9E-DFF1E6686AB8}"/>
-    <hyperlink ref="A201" r:id="rId177" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83148" xr:uid="{3C5A7442-C687-401C-BAA8-B1CA97071D50}"/>
-    <hyperlink ref="A202" r:id="rId178" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86602" xr:uid="{8DB41FB7-F220-41BA-B639-FF3FFE90B226}"/>
-    <hyperlink ref="A203" r:id="rId179" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86603" xr:uid="{5D07BA36-4AD8-4DB7-876C-8B5E9F9F397E}"/>
-    <hyperlink ref="A204" r:id="rId180" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90715" xr:uid="{4220E88A-3F6F-4464-A931-86ADBCE439C4}"/>
-    <hyperlink ref="A205" r:id="rId181" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90756" xr:uid="{34D2A2AC-998A-4FF5-BCC9-91C38592BD71}"/>
-    <hyperlink ref="A206" r:id="rId182" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82864" xr:uid="{D0FE19D0-D233-4F31-9E9F-D55DB23EACAB}"/>
-    <hyperlink ref="A207" r:id="rId183" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66734" xr:uid="{85692326-C8A7-4724-AF00-9DCB6599896F}"/>
-    <hyperlink ref="A208" r:id="rId184" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66754" xr:uid="{3539E873-5DA9-432C-93A8-E3C1EE9EC029}"/>
-    <hyperlink ref="A209" r:id="rId185" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77869" xr:uid="{A2B1F571-A3C9-44FA-9B7E-60539CBFD82B}"/>
-    <hyperlink ref="A210" r:id="rId186" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82953" xr:uid="{5E140773-EC7E-47FA-B93B-5A40B5EC02F3}"/>
-    <hyperlink ref="A211" r:id="rId187" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66756" xr:uid="{E601C642-6C09-42DC-89EB-AC5C812DA238}"/>
-    <hyperlink ref="A212" r:id="rId188" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66762" xr:uid="{2ED5E5E9-BFD0-4E4D-801B-90CB943B41CE}"/>
-    <hyperlink ref="A213" r:id="rId189" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81852" xr:uid="{74561EB1-8963-4B23-9129-F1371E0AE562}"/>
-    <hyperlink ref="A214" r:id="rId190" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81252" xr:uid="{A9935700-7D63-4346-BA73-059D683229BA}"/>
-    <hyperlink ref="A215" r:id="rId191" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81851" xr:uid="{B7810234-9537-400F-A416-1AD18C342DB7}"/>
-    <hyperlink ref="A216" r:id="rId192" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82084" xr:uid="{ECF5ABD1-710B-481C-BA9B-D0F46497231C}"/>
-    <hyperlink ref="A217" r:id="rId193" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81247" xr:uid="{98BD183E-AFF4-4336-BECF-A181674F0D15}"/>
-    <hyperlink ref="A218" r:id="rId194" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66821" xr:uid="{AF1063F9-8C0E-4360-A4B7-4DD96955193E}"/>
-    <hyperlink ref="A219" r:id="rId195" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77743" xr:uid="{0D66F442-C103-47CB-BC34-BDCA7B4F4328}"/>
-    <hyperlink ref="A220" r:id="rId196" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79221" xr:uid="{40DCD6D7-78C0-48B2-B6CA-BCE29AFF1BC2}"/>
-    <hyperlink ref="A221" r:id="rId197" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84736" xr:uid="{6E516C54-08E8-4BEF-A36F-D45BB4285891}"/>
-    <hyperlink ref="A222" r:id="rId198" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92260" xr:uid="{4CF180D6-ED3D-4A0A-BC8F-09A576AC6305}"/>
-    <hyperlink ref="A223" r:id="rId199" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85279" xr:uid="{A9B5E6B0-9D90-447A-A32C-FA52D930D32C}"/>
-    <hyperlink ref="A224" r:id="rId200" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81249" xr:uid="{C2C8F275-6F11-4A4C-8F88-C4EFBC3DBF65}"/>
-    <hyperlink ref="A225" r:id="rId201" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86868" xr:uid="{B99A8DE5-0EFE-41D6-AB00-2F4F664A184D}"/>
-    <hyperlink ref="A226" r:id="rId202" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81253" xr:uid="{B8B8287C-559C-4C97-9862-3C054A46B463}"/>
-    <hyperlink ref="A227" r:id="rId203" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66774" xr:uid="{D2143FA1-14E5-4C03-A5FF-7065ED9565DC}"/>
-    <hyperlink ref="A228" r:id="rId204" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90907" xr:uid="{696AC6CC-3598-4FAB-930E-5708B584FA45}"/>
-    <hyperlink ref="A231" r:id="rId205" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86541" xr:uid="{EA637BAC-93A6-442D-B8EB-4B93007FDF8C}"/>
-    <hyperlink ref="A232" r:id="rId206" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64698" xr:uid="{4220AAD7-D5C6-4736-A5D5-0E87EFDECE63}"/>
-    <hyperlink ref="A233" r:id="rId207" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=56791" xr:uid="{75B4BC6A-9B51-491B-B57F-F0B7A8F45514}"/>
-    <hyperlink ref="A234" r:id="rId208" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77038" xr:uid="{E3277A4D-C707-4898-8795-2AC1F278CBE1}"/>
-    <hyperlink ref="A235" r:id="rId209" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26167" xr:uid="{5F70082F-4A3A-4727-B294-F781290BA4A3}"/>
-    <hyperlink ref="A236" r:id="rId210" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26168" xr:uid="{77451B1A-7E65-441B-AE13-BCA0AFCF2405}"/>
-    <hyperlink ref="A237" r:id="rId211" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26184" xr:uid="{896D0295-2BA8-4C07-89A4-C2F890386068}"/>
-    <hyperlink ref="A238" r:id="rId212" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87175" xr:uid="{6F2E10C3-0192-4BFA-909F-5833EFD335FB}"/>
-    <hyperlink ref="A239" r:id="rId213" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89857" xr:uid="{E2F77206-A9C5-420E-B09C-072F416405F8}"/>
-    <hyperlink ref="A240" r:id="rId214" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88677" xr:uid="{FE6A91AC-978E-4991-AE5E-2BFCEB162ED7}"/>
-    <hyperlink ref="A241" r:id="rId215" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=56790" xr:uid="{657F1A4E-B118-4E3D-B094-F0CC51C166A4}"/>
-    <hyperlink ref="A242" r:id="rId216" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82454" xr:uid="{95A7E45D-A395-4FFA-808C-014D018D7BA8}"/>
-    <hyperlink ref="A243" r:id="rId217" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66240" xr:uid="{AFD3D618-1C28-4B39-8B82-998E7F0CDBAA}"/>
-    <hyperlink ref="A244" r:id="rId218" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26170" xr:uid="{3DF9039C-7286-46BC-BB83-27EE7A6C49AA}"/>
-    <hyperlink ref="A245" r:id="rId219" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26171" xr:uid="{B466EE5F-2FAE-4B2A-A2AC-6AD69A7F0F4A}"/>
-    <hyperlink ref="A246" r:id="rId220" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83806" xr:uid="{5AE49F57-D69D-481C-912D-B6817F51E949}"/>
-    <hyperlink ref="A247" r:id="rId221" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66632" xr:uid="{B7B874F6-DE0B-4C2C-9B76-365B313AB0C8}"/>
-    <hyperlink ref="A248" r:id="rId222" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26185" xr:uid="{F5E17BAF-D2AD-4262-93B6-E66452D7A9DB}"/>
-    <hyperlink ref="A249" r:id="rId223" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81530" xr:uid="{5FE6680A-BEAA-45F5-BFDA-B677DB93651E}"/>
-    <hyperlink ref="A250" r:id="rId224" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26177" xr:uid="{DFEA8D2A-4E14-4EF9-9A3C-283510D00A32}"/>
-    <hyperlink ref="A251" r:id="rId225" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64468" xr:uid="{946BDC73-9201-4963-BB03-C1C678CEEBAF}"/>
-    <hyperlink ref="A252" r:id="rId226" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88315" xr:uid="{CCDF8290-203E-4E8E-8A51-308F62DADB65}"/>
-    <hyperlink ref="A253" r:id="rId227" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77039" xr:uid="{6ACD8E39-3745-47C4-8ABB-3D07A8555FEE}"/>
-    <hyperlink ref="A254" r:id="rId228" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26180" xr:uid="{5EB2979E-E786-4939-944E-F748C979B8C5}"/>
-    <hyperlink ref="A255" r:id="rId229" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=56792" xr:uid="{F1C04C17-55C8-47BF-B3E4-B66DA15A5FFD}"/>
-    <hyperlink ref="A256" r:id="rId230" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83504" xr:uid="{7F58A54B-DE08-4693-9FA9-41BAFAB604A5}"/>
-    <hyperlink ref="A259" r:id="rId231" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79086" xr:uid="{71C9DCEE-9A79-49A4-91FB-F83C46733F5C}"/>
-    <hyperlink ref="A260" r:id="rId232" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59151" xr:uid="{4D228DE1-7AE4-47DC-B105-287F19EAB0E3}"/>
-    <hyperlink ref="A261" r:id="rId233" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1844" xr:uid="{C342790D-F608-4B84-997A-3B5A8E4AEB09}"/>
-    <hyperlink ref="A262" r:id="rId234" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64733" xr:uid="{1E54C13E-9401-4519-80DF-2698C6296668}"/>
-    <hyperlink ref="A263" r:id="rId235" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91509" xr:uid="{927DCA4A-A8BF-44A0-A0B5-72EF1C7C8E32}"/>
-    <hyperlink ref="A264" r:id="rId236" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25960" xr:uid="{DAF0C7F0-8F4E-44F9-A082-B0092AD6692C}"/>
-    <hyperlink ref="A265" r:id="rId237" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1935" xr:uid="{8C063BF8-19AB-41DE-9B7B-99668BC7AEF2}"/>
-    <hyperlink ref="A266" r:id="rId238" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78930" xr:uid="{EA985102-2A7E-4DA5-A36F-512990FB7D73}"/>
-    <hyperlink ref="A267" r:id="rId239" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1887" xr:uid="{7CBB273F-8F76-4E46-8B3F-FAB3C243E97A}"/>
-    <hyperlink ref="A268" r:id="rId240" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89189" xr:uid="{4878D9CD-1AA3-4DC5-BE9B-53ADF0470A8D}"/>
-    <hyperlink ref="A269" r:id="rId241" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1873" xr:uid="{03E0FA7D-4513-4938-97DC-879BB68A9CFB}"/>
-    <hyperlink ref="A272" r:id="rId242" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83161" xr:uid="{63434CED-8F06-499A-BDED-5562243C3EDD}"/>
-    <hyperlink ref="A273" r:id="rId243" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1763" xr:uid="{D7F153B7-89FC-4598-B339-136283E9ABC3}"/>
-    <hyperlink ref="A274" r:id="rId244" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90205" xr:uid="{F726AB53-5A89-4782-A5EB-EDFC723547C0}"/>
-    <hyperlink ref="A275" r:id="rId245" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90207" xr:uid="{B0E87597-1EC8-40A5-8108-E1F8FDBCFC49}"/>
-    <hyperlink ref="A276" r:id="rId246" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90209" xr:uid="{34167136-2C11-4FE8-B65F-2A302B465D61}"/>
-    <hyperlink ref="A277" r:id="rId247" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83106" xr:uid="{1C9894FE-21CC-4D1A-AD0D-7BCB8C2AF0AA}"/>
-    <hyperlink ref="A278" r:id="rId248" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64721" xr:uid="{093B07DF-3753-4216-A7AF-B46BEA83CFA3}"/>
-    <hyperlink ref="A279" r:id="rId249" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86865" xr:uid="{F9104D4B-159B-42E5-BE54-BA88F79A4193}"/>
-    <hyperlink ref="A280" r:id="rId250" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1768" xr:uid="{97136BC0-881C-40D9-A992-1D3B9608B74A}"/>
-    <hyperlink ref="A281" r:id="rId251" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64483" xr:uid="{A839CA85-76AE-4DD4-A47D-DE007DCB7701}"/>
-    <hyperlink ref="A282" r:id="rId252" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67197" xr:uid="{AD656426-3D04-4446-8684-D234EE2FC339}"/>
-    <hyperlink ref="A283" r:id="rId253" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64389" xr:uid="{C6BB070E-67E2-47CD-BD1C-8C686A108C9F}"/>
-    <hyperlink ref="A284" r:id="rId254" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59199" xr:uid="{41FF9C5B-D572-4C61-8A84-62FBDD39E0F6}"/>
-    <hyperlink ref="A285" r:id="rId255" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64487" xr:uid="{72D6CF72-2BEE-480F-8DC6-6C34596628B8}"/>
-    <hyperlink ref="A286" r:id="rId256" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1179" xr:uid="{7928C153-D4A3-4D4B-B94D-E5AACB852A35}"/>
-    <hyperlink ref="A287" r:id="rId257" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1182" xr:uid="{F14AF216-1D56-41E9-9AC8-5F5AA2DF9B3C}"/>
-    <hyperlink ref="A288" r:id="rId258" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1767" xr:uid="{4E2C6C2F-05EF-462F-85D4-0918FFA4E09C}"/>
-    <hyperlink ref="A289" r:id="rId259" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1378" xr:uid="{54C208ED-56C4-49A4-B7BA-F83CA3617522}"/>
-    <hyperlink ref="A290" r:id="rId260" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85296" xr:uid="{CCF612C2-99BB-407A-A16F-79C9BD5E4253}"/>
-    <hyperlink ref="A291" r:id="rId261" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83079" xr:uid="{31234DC2-DBFD-4103-8A81-CC56BA9586B7}"/>
-    <hyperlink ref="A292" r:id="rId262" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87162" xr:uid="{EC3650B1-C9DE-4BBC-A8B7-D569AC876918}"/>
-    <hyperlink ref="A293" r:id="rId263" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83163" xr:uid="{41FC7F61-FA40-4ED8-B1E3-3E19E8E25929}"/>
-    <hyperlink ref="A294" r:id="rId264" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84053" xr:uid="{E8565398-3F3D-49B3-8CC0-A9426F225EEB}"/>
-    <hyperlink ref="A295" r:id="rId265" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82993" xr:uid="{53A3FEB2-614A-4A10-8C3D-EBD333E04527}"/>
-    <hyperlink ref="A296" r:id="rId266" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86075" xr:uid="{A1B464DE-0612-4814-8D64-FCBE83A1BD5D}"/>
-    <hyperlink ref="A297" r:id="rId267" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89459" xr:uid="{8A19386C-55AE-47C9-AC31-C808630021D0}"/>
-    <hyperlink ref="A298" r:id="rId268" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84408" xr:uid="{E9D3AEF6-693B-4846-AA5A-685554E0F0FD}"/>
-    <hyperlink ref="A299" r:id="rId269" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89489" xr:uid="{FD1AB3B7-B409-4859-8875-F272D3768F32}"/>
-    <hyperlink ref="A300" r:id="rId270" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1270" xr:uid="{176771C8-21F8-428C-8A1F-9D3B79A93D3F}"/>
-    <hyperlink ref="A301" r:id="rId271" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87888" xr:uid="{71FAB8A5-8E4C-4E99-8CD0-918CBE3F4E7F}"/>
-    <hyperlink ref="A302" r:id="rId272" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90479" xr:uid="{01BFD6D4-D680-4DA2-90C2-04AD54C1B1A6}"/>
-    <hyperlink ref="A303" r:id="rId273" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1568" xr:uid="{335907D9-DECA-473E-AECA-5855D0289FB7}"/>
-    <hyperlink ref="A306" r:id="rId274" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91709" xr:uid="{7BD180B9-4983-4E2C-8E99-9DB0B7929A80}"/>
-    <hyperlink ref="A307" r:id="rId275" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82408" xr:uid="{A49A260E-E304-4D64-84F6-AFBC1369DD91}"/>
-    <hyperlink ref="A308" r:id="rId276" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67065" xr:uid="{0555A072-60EA-41F0-9B4C-7974B350C05F}"/>
-    <hyperlink ref="A309" r:id="rId277" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=558" xr:uid="{26B34C33-0A50-4E6F-A348-F082BB0915AA}"/>
-    <hyperlink ref="A310" r:id="rId278" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86270" xr:uid="{39269D8C-FC5B-4F61-95F1-53D6752B866A}"/>
-    <hyperlink ref="A311" r:id="rId279" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91648" xr:uid="{6BC92D12-FBBA-4655-B48B-C551100C6556}"/>
-    <hyperlink ref="A312" r:id="rId280" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64435" xr:uid="{6B6FAF8D-B1D1-447E-95DA-193BF11F9200}"/>
-    <hyperlink ref="A313" r:id="rId281" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=654" xr:uid="{5A14DD83-314B-410E-9758-F5426FB186C4}"/>
-    <hyperlink ref="A314" r:id="rId282" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=655" xr:uid="{76C5D33C-EB35-40A0-9C8B-192409FA29D9}"/>
-    <hyperlink ref="A315" r:id="rId283" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1001" xr:uid="{4B69CFB4-011F-4146-BD8C-25C680BBF123}"/>
-    <hyperlink ref="A316" r:id="rId284" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67071" xr:uid="{97D83609-84E5-4163-94F1-D8F6565F0A45}"/>
-    <hyperlink ref="A317" r:id="rId285" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=768" xr:uid="{B25C830F-56BC-4B7A-8652-C72AD7BAE2CE}"/>
-    <hyperlink ref="A318" r:id="rId286" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25982" xr:uid="{D7504F34-5D3C-429A-99E5-1AA1207521AE}"/>
-    <hyperlink ref="A319" r:id="rId287" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87736" xr:uid="{CEA9F088-FE58-4028-A99C-02BC473C1FF6}"/>
-    <hyperlink ref="A320" r:id="rId288" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64436" xr:uid="{C58733FA-93FE-4493-8837-D15837FF65F8}"/>
-    <hyperlink ref="A321" r:id="rId289" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87737" xr:uid="{83D31908-CCBA-4D87-BE87-0AB71D2D4E72}"/>
-    <hyperlink ref="A322" r:id="rId290" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25986" xr:uid="{69A6D0A2-C7EF-43CB-989F-D81D0FAA0FF4}"/>
-    <hyperlink ref="A323" r:id="rId291" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25977" xr:uid="{1540118B-0FA7-45A8-8C42-96E72317F476}"/>
-    <hyperlink ref="A324" r:id="rId292" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67030" xr:uid="{1187725D-F499-4420-8AC9-3768518A23DB}"/>
-    <hyperlink ref="A325" r:id="rId293" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=879" xr:uid="{FAAF16FD-17DC-48F5-BCD9-50CE37679C9B}"/>
-    <hyperlink ref="A326" r:id="rId294" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67046" xr:uid="{7A53AEC3-7ABA-45FC-9FC1-F696E8704757}"/>
-    <hyperlink ref="A327" r:id="rId295" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=533" xr:uid="{7FD504DE-EB47-49E3-99B6-33CFEA609532}"/>
-    <hyperlink ref="A328" r:id="rId296" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=515" xr:uid="{0EFD6434-D703-4399-AEC6-F1F2A00B5785}"/>
-    <hyperlink ref="A329" r:id="rId297" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64405" xr:uid="{73DD3274-CF0C-46F4-99DC-3990A464C9CD}"/>
-    <hyperlink ref="A330" r:id="rId298" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66471" xr:uid="{D449C579-1C59-43C0-A4EA-6F8E5C8724EF}"/>
-    <hyperlink ref="A331" r:id="rId299" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64456" xr:uid="{D754C461-F0E5-4248-8175-9768A8A268FE}"/>
-    <hyperlink ref="A332" r:id="rId300" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67089" xr:uid="{045CFCB4-AA94-4647-9E57-7DB963902A0A}"/>
-    <hyperlink ref="A333" r:id="rId301" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=942" xr:uid="{9AEDA062-71F1-4488-9E9A-C3B53856B49B}"/>
-    <hyperlink ref="A334" r:id="rId302" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=413" xr:uid="{F56822DB-517C-46EA-968B-9392153A7582}"/>
-    <hyperlink ref="A335" r:id="rId303" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1011" xr:uid="{B4CF4A33-7731-4DAD-A255-DF5FA5770DB4}"/>
-    <hyperlink ref="A336" r:id="rId304" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88994" xr:uid="{4ADD5F66-D8E4-4F87-B2BE-CAF517D02066}"/>
-    <hyperlink ref="A337" r:id="rId305" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87732" xr:uid="{3502AC3E-8D63-463D-BB36-B32B9F9DEDC3}"/>
-    <hyperlink ref="A338" r:id="rId306" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86380" xr:uid="{DAEBCAB1-7F7A-4F27-946F-B7B08208FF93}"/>
-    <hyperlink ref="A339" r:id="rId307" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86432" xr:uid="{6A9E68EC-9304-40B4-A2A4-9C977D5552A7}"/>
-    <hyperlink ref="A340" r:id="rId308" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=845" xr:uid="{394B2EFB-5454-4023-8642-32ABE8072460}"/>
-    <hyperlink ref="A341" r:id="rId309" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82926" xr:uid="{2E1FCE36-4CF2-4615-A950-B44752F6CA3C}"/>
-    <hyperlink ref="A342" r:id="rId310" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1060" xr:uid="{9647AA84-06EE-448B-A4D7-231BEFEFBA17}"/>
-    <hyperlink ref="A343" r:id="rId311" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64442" xr:uid="{059ECBC2-228F-4C55-B652-96A52001406A}"/>
-    <hyperlink ref="A344" r:id="rId312" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=449" xr:uid="{4D7CEBD1-4CCF-4F7A-A80C-E3CA88A2F115}"/>
-    <hyperlink ref="A345" r:id="rId313" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67093" xr:uid="{92C34581-784F-4C2C-B635-6DB07A7D6864}"/>
-    <hyperlink ref="A346" r:id="rId314" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=80453" xr:uid="{BDB93E35-19E9-4A4A-B6DD-526887953133}"/>
-    <hyperlink ref="A347" r:id="rId315" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26027" xr:uid="{5108F38F-E1EB-4E5F-9B2B-0F9170FBF83C}"/>
-    <hyperlink ref="A348" r:id="rId316" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86394" xr:uid="{CBBD2E54-3C91-412F-82E5-35D3CDBDAE50}"/>
-    <hyperlink ref="A349" r:id="rId317" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26188" xr:uid="{2D8F0BA0-D2C3-45B6-8331-1A41D0CFEBEF}"/>
-    <hyperlink ref="A350" r:id="rId318" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59297" xr:uid="{E71BFFC9-6B76-415E-BC90-C9353606FAAB}"/>
-    <hyperlink ref="A351" r:id="rId319" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=418" xr:uid="{FB1B1D40-D3C2-4CC8-B1A6-4B4E33E17277}"/>
-    <hyperlink ref="A352" r:id="rId320" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59350" xr:uid="{4E7619E8-01F9-4B0D-8697-01A249DC15A1}"/>
-    <hyperlink ref="A353" r:id="rId321" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26021" xr:uid="{B875BF5B-DA35-49C0-B423-3A8B02A0224C}"/>
-    <hyperlink ref="A354" r:id="rId322" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91824" xr:uid="{1CD20F46-13B7-4F41-B046-4F7676DA08C8}"/>
-    <hyperlink ref="A355" r:id="rId323" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64447" xr:uid="{D08D4DC2-3079-4DE4-A2F5-0BD8414CAB41}"/>
-    <hyperlink ref="A356" r:id="rId324" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=720" xr:uid="{605C8037-AB07-4FF0-8EDE-6F68645183EB}"/>
-    <hyperlink ref="A357" r:id="rId325" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81025" xr:uid="{278F4F19-1A09-4C1A-9E90-D6C295CED516}"/>
-    <hyperlink ref="A358" r:id="rId326" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81024" xr:uid="{7E0FAB71-BD0D-4370-9FB8-54B6AE62C7C3}"/>
-    <hyperlink ref="A359" r:id="rId327" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64449" xr:uid="{4F9B8154-E8B5-48A1-8EAF-D649C0279E00}"/>
-    <hyperlink ref="A360" r:id="rId328" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26033" xr:uid="{9AEF1223-000B-4177-8191-FF34B762B978}"/>
-    <hyperlink ref="A361" r:id="rId329" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77037" xr:uid="{3878D15A-F3AC-4437-95AE-A72A25C5BA85}"/>
-    <hyperlink ref="A362" r:id="rId330" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=80202" xr:uid="{45D69E2C-27D7-4DC7-BB4A-72646AD3175D}"/>
-    <hyperlink ref="A363" r:id="rId331" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64451" xr:uid="{C6B4D9E0-6D0C-40F1-BDE6-1A37298900AE}"/>
-    <hyperlink ref="A364" r:id="rId332" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85046" xr:uid="{6CDCCCD3-8F89-4F62-BFAB-18896B68E2DC}"/>
-    <hyperlink ref="A365" r:id="rId333" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26005" xr:uid="{FDC850D6-6F65-4EDF-B799-9585A471F065}"/>
-    <hyperlink ref="A366" r:id="rId334" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26006" xr:uid="{3DA68A7C-1293-4A88-8ACF-C549543B606D}"/>
-    <hyperlink ref="A367" r:id="rId335" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59459" xr:uid="{CF85EE9C-09BF-478F-A7BE-DD8CCA819484}"/>
-    <hyperlink ref="A368" r:id="rId336" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89224" xr:uid="{CE52DCFC-4B7D-40DF-ACA2-977D4CB61162}"/>
-    <hyperlink ref="A369" r:id="rId337" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66491" xr:uid="{F66D55E1-D304-4525-8126-6D45842C0B2A}"/>
-    <hyperlink ref="A370" r:id="rId338" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64457" xr:uid="{E5A843B9-6B4C-4832-8433-F19A231AF9A3}"/>
-    <hyperlink ref="A371" r:id="rId339" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=832" xr:uid="{F92400AD-3217-47A0-8A45-7C11B5BAACB3}"/>
-    <hyperlink ref="A372" r:id="rId340" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67122" xr:uid="{B2E90C4B-99AA-400C-BDA1-B183D87DBDF8}"/>
-    <hyperlink ref="A373" r:id="rId341" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59293" xr:uid="{83A2E2E6-E7E3-4235-878B-E76DA693DB8E}"/>
-    <hyperlink ref="A374" r:id="rId342" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82451" xr:uid="{D555C328-5258-47C4-8842-286E7DE44CDE}"/>
-    <hyperlink ref="A375" r:id="rId343" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26049" xr:uid="{0EEC1794-F697-41AD-8625-77471CC0035E}"/>
-    <hyperlink ref="A376" r:id="rId344" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67121" xr:uid="{6A9EB385-D4CC-4176-9CC1-AE5A2C48ED36}"/>
-    <hyperlink ref="A379" r:id="rId345" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88218" xr:uid="{D700E5A5-78F7-4110-A489-2B52AC1AF82F}"/>
-    <hyperlink ref="A380" r:id="rId346" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88217" xr:uid="{B08EE9FE-0A7F-4F56-B84E-18790E96AE7F}"/>
-    <hyperlink ref="A381" r:id="rId347" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25909" xr:uid="{172B2A09-7CE2-454B-8C41-E1EB2FFB6315}"/>
-    <hyperlink ref="A382" r:id="rId348" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=36" xr:uid="{0413B5A4-63D9-4129-8917-DDBC95942236}"/>
-    <hyperlink ref="A383" r:id="rId349" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66844" xr:uid="{D433C600-DA83-419F-850E-5383F2C67197}"/>
-    <hyperlink ref="A384" r:id="rId350" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=214" xr:uid="{79E5356F-41CC-42B2-968A-030690DC3AFC}"/>
-    <hyperlink ref="A385" r:id="rId351" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=267" xr:uid="{4E9A15F9-90A7-4852-ADA8-FA48C2BD83F1}"/>
-    <hyperlink ref="A386" r:id="rId352" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=183" xr:uid="{AAFEB713-9EF9-4CFB-A25A-C95CC5DE7EE8}"/>
-    <hyperlink ref="A387" r:id="rId353" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=329" xr:uid="{57A3930F-2C1A-4535-9A4B-82A3A6F12762}"/>
-    <hyperlink ref="A388" r:id="rId354" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=331" xr:uid="{314F13C6-1BE0-4610-A1EB-DE79135ED2AC}"/>
-    <hyperlink ref="A389" r:id="rId355" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64475" xr:uid="{9369148D-14AC-41F1-8EA9-3D2D818DF347}"/>
-    <hyperlink ref="A390" r:id="rId356" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=75184" xr:uid="{11A7F46B-1213-46A5-8532-F09013DF3265}"/>
-    <hyperlink ref="A391" r:id="rId357" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=333" xr:uid="{AFE6C675-A572-4D6C-8DA1-F89A5680DC66}"/>
-    <hyperlink ref="A392" r:id="rId358" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=40" xr:uid="{B3E5FD96-0E5E-4C63-B7C8-C660651845A2}"/>
-    <hyperlink ref="A393" r:id="rId359" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86675" xr:uid="{4E27A365-65F3-406A-AE13-A8017252AF5F}"/>
-    <hyperlink ref="A394" r:id="rId360" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68050" xr:uid="{D851F980-237D-4F1B-B747-08410982E3E9}"/>
-    <hyperlink ref="A395" r:id="rId361" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88019" xr:uid="{CB262C42-0C3F-4D42-AAFE-BFE76D919968}"/>
-    <hyperlink ref="A396" r:id="rId362" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87617" xr:uid="{489C6F0F-8685-44C3-82BB-4E28583CD34B}"/>
-    <hyperlink ref="A397" r:id="rId363" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87618" xr:uid="{68F89661-3997-4F1E-BE6C-CED921380ADD}"/>
-    <hyperlink ref="A398" r:id="rId364" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=294" xr:uid="{F883AE15-5270-4417-8C53-B8996F829D48}"/>
-    <hyperlink ref="A399" r:id="rId365" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=22" xr:uid="{2AD06F76-A685-4348-8178-D7E0DB2CAA3D}"/>
-    <hyperlink ref="A400" r:id="rId366" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=123" xr:uid="{C3C47556-0E0D-4398-B793-2F72D5295F7A}"/>
-    <hyperlink ref="A401" r:id="rId367" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=239" xr:uid="{45406F9A-4487-451A-8097-0FA1939DBC80}"/>
-    <hyperlink ref="A402" r:id="rId368" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=313" xr:uid="{7488AA1A-34F5-45F2-B203-5D1E50F51D9A}"/>
-    <hyperlink ref="A403" r:id="rId369" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=278" xr:uid="{2E37D3AB-DEAF-4281-A48E-9D5FF0D9F873}"/>
-    <hyperlink ref="A404" r:id="rId370" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88020" xr:uid="{36805BAA-F603-43B5-8A9D-F004B1A6330F}"/>
-    <hyperlink ref="A405" r:id="rId371" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=254" xr:uid="{A0D82B46-9998-4B0F-A921-B01F31B84DF0}"/>
-    <hyperlink ref="A406" r:id="rId372" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=93739" xr:uid="{49F584B4-AAE2-43BB-9EE9-AD26B231B44A}"/>
-    <hyperlink ref="A407" r:id="rId373" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26775" xr:uid="{6EB6EA58-7D8E-4D3A-90B4-9F911F6A23C6}"/>
-    <hyperlink ref="A408" r:id="rId374" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59278" xr:uid="{D822E148-46BA-4790-9A51-7DC036605D52}"/>
-    <hyperlink ref="A409" r:id="rId375" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87606" xr:uid="{A7EB0D19-8E6D-48B3-882C-4EFE5BB57C61}"/>
-    <hyperlink ref="A410" r:id="rId376" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87607" xr:uid="{D471ED98-F689-4C9C-A9DC-5206D1CC5F31}"/>
-    <hyperlink ref="A411" r:id="rId377" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90832" xr:uid="{ACC45E9E-3847-4FA6-AD5A-6956E2413220}"/>
-    <hyperlink ref="A412" r:id="rId378" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66647" xr:uid="{ACEC808C-BE88-4609-A82C-43FD01594492}"/>
-    <hyperlink ref="A413" r:id="rId379" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=226" xr:uid="{D085C72C-1D5A-45B1-9113-C9BB161BA0A6}"/>
-    <hyperlink ref="A414" r:id="rId380" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85104" xr:uid="{89694F7D-45B8-4F78-A48F-9089C39EB159}"/>
-    <hyperlink ref="A415" r:id="rId381" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=217" xr:uid="{E1B7C8D8-A06D-41AB-A957-C3F07A60BE22}"/>
-    <hyperlink ref="A416" r:id="rId382" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88" xr:uid="{C333BFA5-38CE-437C-B443-2F3B0CAE8730}"/>
-    <hyperlink ref="A417" r:id="rId383" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=98" xr:uid="{741AC7BD-3E31-4E2F-BCE3-BA5AF2C4F413}"/>
-    <hyperlink ref="A418" r:id="rId384" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77" xr:uid="{1CC86A2F-EB87-434F-AE0C-D92A01A8DB28}"/>
-    <hyperlink ref="A419" r:id="rId385" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=185" xr:uid="{91D54D20-5FA7-4586-8E52-83DFEEC40ED2}"/>
-    <hyperlink ref="A420" r:id="rId386" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=299" xr:uid="{428EF467-9B08-488D-915F-29D1234FCB7A}"/>
-    <hyperlink ref="A421" r:id="rId387" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92894" xr:uid="{B37D3F82-D801-45F0-A79A-A3772C36BDA1}"/>
-    <hyperlink ref="A422" r:id="rId388" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=291" xr:uid="{AE6C42FA-6945-47DB-88FD-A5447627F270}"/>
-    <hyperlink ref="A423" r:id="rId389" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87597" xr:uid="{8C7E61B3-2724-4E5B-8078-4427DDDA4888}"/>
-    <hyperlink ref="A424" r:id="rId390" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25907" xr:uid="{A311CBF8-9ADB-452C-BF98-91F2A2BD8D7B}"/>
-    <hyperlink ref="A427" r:id="rId391" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83886" xr:uid="{B8E6BC2C-2FF2-4E8F-BA2C-34E9DB26E49A}"/>
-    <hyperlink ref="A428" r:id="rId392" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83885" xr:uid="{58E8CE77-A08E-4355-AE79-BCE1B68D62BE}"/>
-    <hyperlink ref="A429" r:id="rId393" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77672" xr:uid="{7B29A6E8-58FB-4F87-8EF4-E7786A7A685D}"/>
-    <hyperlink ref="A430" r:id="rId394" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84741" xr:uid="{2D31F29B-1C24-4970-942C-9D4B50C5EBF4}"/>
-    <hyperlink ref="A431" r:id="rId395" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89126" xr:uid="{7747681C-6257-4DA0-AAFA-2AD76DFCDCD1}"/>
-    <hyperlink ref="A432" r:id="rId396" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90325" xr:uid="{3F677D5B-A188-4D64-AFBA-873DD9463B32}"/>
-    <hyperlink ref="A433" r:id="rId397" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78959" xr:uid="{C414536F-202C-4021-A924-6141F84BACE2}"/>
-    <hyperlink ref="A434" r:id="rId398" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67220" xr:uid="{DAB1A698-5C5E-461D-B80A-EAA87EB97FF2}"/>
-    <hyperlink ref="A435" r:id="rId399" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66780" xr:uid="{0E9544F9-FD20-415D-8DBE-42D78940B9F4}"/>
-    <hyperlink ref="A436" r:id="rId400" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82676" xr:uid="{303AEE17-3B36-4685-A266-A1B3E3D4FFBA}"/>
-    <hyperlink ref="A437" r:id="rId401" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83136" xr:uid="{3BB8DD7F-6332-4A1A-AF42-B767BA9EA09E}"/>
-    <hyperlink ref="A438" r:id="rId402" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81552" xr:uid="{E0A341A7-0353-427B-8E32-70BCA22209F2}"/>
-    <hyperlink ref="A439" r:id="rId403" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83138" xr:uid="{F0962760-6460-4D6E-A158-3D8E454576CD}"/>
-    <hyperlink ref="A440" r:id="rId404" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66782" xr:uid="{8EEB39E9-E53B-4125-8885-66D2F436C0FE}"/>
-    <hyperlink ref="A441" r:id="rId405" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86599" xr:uid="{9BD79FEB-8DC9-4CFE-B0DB-9FEC75DCD1C3}"/>
-    <hyperlink ref="A442" r:id="rId406" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83144" xr:uid="{900D25A4-44FE-4C81-A2A4-B1519468E27C}"/>
-    <hyperlink ref="A443" r:id="rId407" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83146" xr:uid="{23DB7AAC-FB5D-4F11-8E99-09F448A9BEC6}"/>
-    <hyperlink ref="A444" r:id="rId408" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68363" xr:uid="{A2A64807-1147-4DA6-85E7-1E71BFC7D15C}"/>
-    <hyperlink ref="A445" r:id="rId409" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81542" xr:uid="{ED2E4FE9-18A6-48B4-894E-61F687CF7B65}"/>
-    <hyperlink ref="A446" r:id="rId410" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83153" xr:uid="{C80C2129-113B-45CC-9E58-BF34B7A1236B}"/>
-    <hyperlink ref="A447" r:id="rId411" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83155" xr:uid="{DF54E86B-976D-4D20-B190-0726976DEBB3}"/>
-    <hyperlink ref="A448" r:id="rId412" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86604" xr:uid="{31621B5F-EB9D-4E32-B79E-9EC38921F72B}"/>
-    <hyperlink ref="A449" r:id="rId413" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83156" xr:uid="{C99ADC51-1251-426E-9A70-F83EB616566A}"/>
-    <hyperlink ref="A450" r:id="rId414" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92902" xr:uid="{A920D8D4-00D5-4508-B640-B6ED8775356D}"/>
-    <hyperlink ref="A451" r:id="rId415" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83157" xr:uid="{11B557BA-C409-46DA-86D7-A7C66228681A}"/>
-    <hyperlink ref="A452" r:id="rId416" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83158" xr:uid="{C3656AB4-E7C0-4F83-8BBB-4C17B3C0EAF1}"/>
-    <hyperlink ref="A453" r:id="rId417" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89739" xr:uid="{89E8254A-BFA3-42B8-B161-B0B5F69760E8}"/>
-    <hyperlink ref="A454" r:id="rId418" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90855" xr:uid="{A18E5887-4415-4FE6-B12B-11DAEB1314BF}"/>
-    <hyperlink ref="A455" r:id="rId419" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66760" xr:uid="{96933EA3-4827-4910-A380-BB0FBBB530C8}"/>
-    <hyperlink ref="A456" r:id="rId420" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89884" xr:uid="{2E5E6D05-252E-4422-AF97-0DB6F1267DB5}"/>
-    <hyperlink ref="A457" r:id="rId421" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79111" xr:uid="{83C3AA8F-D242-45E6-9BA7-D6C9F11F917F}"/>
-    <hyperlink ref="A458" r:id="rId422" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90906" xr:uid="{90808E44-BE5B-4D4A-AD42-2B3E2BA2D36C}"/>
-    <hyperlink ref="A459" r:id="rId423" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26327" xr:uid="{703FFC09-B5A3-4E90-A239-252215766F26}"/>
-    <hyperlink ref="A460" r:id="rId424" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66766" xr:uid="{166D6C1C-7540-40EC-908B-B36DE3E93A11}"/>
-    <hyperlink ref="A461" r:id="rId425" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86084" xr:uid="{716B1D48-F885-4DF8-929A-F257CBBA9E09}"/>
-    <hyperlink ref="A462" r:id="rId426" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66769" xr:uid="{532ABB97-1473-484C-9E23-26CF54EFBAD0}"/>
-    <hyperlink ref="A463" r:id="rId427" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85268" xr:uid="{06622045-97D7-4657-A89E-DCA0B45A24FF}"/>
-    <hyperlink ref="A464" r:id="rId428" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79219" xr:uid="{77DF2C40-1C4A-4715-B1D8-BC6716C2B07D}"/>
-    <hyperlink ref="A465" r:id="rId429" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79113" xr:uid="{63C9CFDB-5A0F-4B3B-B66A-925CD1B91AE2}"/>
-    <hyperlink ref="A466" r:id="rId430" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25289" xr:uid="{89AC5FB3-4CCB-4801-BECA-562692B99317}"/>
-    <hyperlink ref="A467" r:id="rId431" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87805" xr:uid="{46B99202-421F-4DDB-B6ED-C5C082EE3092}"/>
-    <hyperlink ref="A468" r:id="rId432" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84159" xr:uid="{96EB0291-7154-4F1C-9671-30E4DF6384CB}"/>
-    <hyperlink ref="A471" r:id="rId433" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83757" xr:uid="{47123796-AB36-4988-886F-2C1823916D91}"/>
-    <hyperlink ref="A472" r:id="rId434" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68752" xr:uid="{67A83A7F-7C91-4A98-B599-3EB2C0F0FAA3}"/>
-    <hyperlink ref="A473" r:id="rId435" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64470" xr:uid="{1818CCD0-1D9C-40CE-99F1-88FCAFFE165F}"/>
-    <hyperlink ref="A474" r:id="rId436" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66675" xr:uid="{509AE2D5-C7B6-43D3-A256-FA048BD7C330}"/>
-    <hyperlink ref="A475" r:id="rId437" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68449" xr:uid="{9386D174-025E-4787-B87C-C3F37A8E4EB1}"/>
-    <hyperlink ref="A476" r:id="rId438" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26175" xr:uid="{BE5928FC-8E2E-47A5-B2A7-F3056AA9AFA4}"/>
-    <hyperlink ref="A477" r:id="rId439" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26176" xr:uid="{2C9D81FD-9D8F-4B3E-B948-653CFDE0618A}"/>
-    <hyperlink ref="A478" r:id="rId440" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66633" xr:uid="{7F112BAB-AFF5-4A63-BA3C-FA60A60AC9D1}"/>
-    <hyperlink ref="A479" r:id="rId441" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66676" xr:uid="{B8C10284-7A2C-44DF-AA13-13FCD05F6923}"/>
-    <hyperlink ref="A480" r:id="rId442" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66693" xr:uid="{36A8A1E2-6C87-4F7D-A85A-E275D1B8162C}"/>
-    <hyperlink ref="A481" r:id="rId443" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66698" xr:uid="{DEFB72BA-AFD7-457A-BEC7-181EEDBD2DDA}"/>
-    <hyperlink ref="A482" r:id="rId444" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91711" xr:uid="{8A2F4F00-6C97-437B-9383-6E18C8F7BA20}"/>
-    <hyperlink ref="A483" r:id="rId445" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26178" xr:uid="{664EB347-FA4A-4DE3-92C3-7D8F296ADC78}"/>
-    <hyperlink ref="A484" r:id="rId446" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67620" xr:uid="{F27D19A9-1C49-40E8-B45D-580C210AAA29}"/>
-    <hyperlink ref="A485" r:id="rId447" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66678" xr:uid="{C4D4319F-14A1-4B62-B167-DB3A8B33998A}"/>
-    <hyperlink ref="A486" r:id="rId448" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77042" xr:uid="{21CFCA26-48FA-4600-A2B2-16157A9A913A}"/>
-    <hyperlink ref="A487" r:id="rId449" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77041" xr:uid="{9F475F71-A11F-4356-AF55-922EC66E37AD}"/>
-    <hyperlink ref="A488" r:id="rId450" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68447" xr:uid="{E50FD214-7E78-4012-999D-9B2D141E6C37}"/>
-    <hyperlink ref="A489" r:id="rId451" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=60756" xr:uid="{3EF901D6-81DC-4AFA-A5F9-737BAFC27D2C}"/>
-    <hyperlink ref="A490" r:id="rId452" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68442" xr:uid="{08342FA9-E8FD-4339-86F5-A063B625F44E}"/>
-    <hyperlink ref="A491" r:id="rId453" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26179" xr:uid="{1C8490BD-F4BD-499B-B6B2-D4EB9D418736}"/>
-    <hyperlink ref="A492" r:id="rId454" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66680" xr:uid="{728F62D6-D36C-44E8-BDF4-7BBCFF1AC75B}"/>
-    <hyperlink ref="A495" r:id="rId455" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1965" xr:uid="{755A5110-D987-4B12-B8C8-6E626E6F2EA1}"/>
-    <hyperlink ref="A496" r:id="rId456" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92547" xr:uid="{9C2E9945-CCA7-40E9-AE10-53F37D9C8A9F}"/>
-    <hyperlink ref="A497" r:id="rId457" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1973" xr:uid="{D3BD5CFF-FB8A-4B18-8CF8-1067818EEAE6}"/>
-    <hyperlink ref="A498" r:id="rId458" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1870" xr:uid="{8AB9C5DC-349A-4E5A-A2DE-E9CCDD9ADBA0}"/>
-    <hyperlink ref="A499" r:id="rId459" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78964" xr:uid="{B7BD49F8-F0D7-46FD-8660-E20BF2C1B323}"/>
-    <hyperlink ref="A500" r:id="rId460" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86707" xr:uid="{ADE3978E-813A-4532-83CF-42E71ADA9D8E}"/>
-    <hyperlink ref="A501" r:id="rId461" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1821" xr:uid="{DEA373DF-A574-4EEE-8B6E-691E4258A611}"/>
-    <hyperlink ref="A502" r:id="rId462" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1827" xr:uid="{C081D122-C604-458E-80D2-BEFF5EEBA9EA}"/>
-    <hyperlink ref="A503" r:id="rId463" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1828" xr:uid="{943F42A0-84F8-4032-BBB2-40BAF3DBBF3E}"/>
-    <hyperlink ref="A504" r:id="rId464" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1807" xr:uid="{885B8047-2CCB-47BF-9695-7ADF034F505A}"/>
-    <hyperlink ref="A505" r:id="rId465" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66669" xr:uid="{1ACB1521-FD3F-4D64-87C0-6042CF6451D3}"/>
-    <hyperlink ref="A506" r:id="rId466" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1942" xr:uid="{CFACA7DC-27F9-49DC-8728-776568FA6644}"/>
-    <hyperlink ref="A507" r:id="rId467" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1944" xr:uid="{57096096-818F-4812-8E2D-F3B281E72941}"/>
-    <hyperlink ref="A508" r:id="rId468" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59709" xr:uid="{5BCE25FC-F14D-4497-89C4-92965D5D72FB}"/>
-    <hyperlink ref="A509" r:id="rId469" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64385" xr:uid="{FC5F6206-3545-4392-8D46-53DF3DF1E70F}"/>
-    <hyperlink ref="A510" r:id="rId470" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64782" xr:uid="{2AE370EA-65E4-4F5C-921C-7480D0388B6D}"/>
-    <hyperlink ref="A511" r:id="rId471" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85375" xr:uid="{EB5A4F9E-1F50-437E-9652-2B6576E14A31}"/>
-    <hyperlink ref="A514" r:id="rId472" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83821" xr:uid="{1AB77110-D812-4C4C-8429-86CAD2C15350}"/>
-    <hyperlink ref="A515" r:id="rId473" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25934" xr:uid="{3463C55A-88FA-4D3A-925B-21909E139B5D}"/>
-    <hyperlink ref="A516" r:id="rId474" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1665" xr:uid="{7EA4A814-8FB4-4BF9-B7AE-71A6935CCDFB}"/>
-    <hyperlink ref="A517" r:id="rId475" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1666" xr:uid="{F170C335-A3AB-41FC-AD16-7212AE7CEF61}"/>
-    <hyperlink ref="A518" r:id="rId476" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1765" xr:uid="{29122F6A-9719-443B-9B9D-81836238BB20}"/>
-    <hyperlink ref="A519" r:id="rId477" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59250" xr:uid="{EED65969-DD1A-428B-9111-CDF9DA66D5F0}"/>
-    <hyperlink ref="A520" r:id="rId478" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59628" xr:uid="{7A8F67EE-58B7-4C43-9508-CA95D0599304}"/>
-    <hyperlink ref="A521" r:id="rId479" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1603" xr:uid="{023A8128-C425-43C2-AC34-7A438EFE1D4B}"/>
-    <hyperlink ref="A522" r:id="rId480" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1482" xr:uid="{F7A57213-EEA4-4CB5-AFCC-9CA1B216F487}"/>
-    <hyperlink ref="A523" r:id="rId481" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25570" xr:uid="{0777E17B-5221-4D10-95EA-D754879A4DDC}"/>
-    <hyperlink ref="A524" r:id="rId482" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1649" xr:uid="{F6A6E856-3370-404D-9AC9-F9C298BF682D}"/>
-    <hyperlink ref="A525" r:id="rId483" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25931" xr:uid="{8E8BD60D-43C2-4D63-A9AE-A7238B97AD03}"/>
-    <hyperlink ref="A526" r:id="rId484" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1656" xr:uid="{21A4655A-989C-4E4B-9C0F-915DE7883F62}"/>
-    <hyperlink ref="A527" r:id="rId485" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1193" xr:uid="{CADE6393-9336-4046-8B54-F322CC180464}"/>
-    <hyperlink ref="A528" r:id="rId486" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1420" xr:uid="{8A5914D7-6C99-4A16-92F9-56D3CEC8C043}"/>
-    <hyperlink ref="A529" r:id="rId487" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1766" xr:uid="{A6E31440-BEB7-4091-B7EF-4A5C3AE72DF5}"/>
-    <hyperlink ref="A530" r:id="rId488" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59254" xr:uid="{81613FE4-1CC8-4BDC-AD5E-A313BFE7D22D}"/>
-    <hyperlink ref="A531" r:id="rId489" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84785" xr:uid="{FAA14CA1-D1D8-43C5-B807-B22DA4E29981}"/>
-    <hyperlink ref="A532" r:id="rId490" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1308" xr:uid="{54018AD2-9979-4841-A9A8-01B31B508F3E}"/>
-    <hyperlink ref="A533" r:id="rId491" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66699" xr:uid="{212A220C-8A2F-4AAE-B48F-10FD4572A1E2}"/>
-    <hyperlink ref="A534" r:id="rId492" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83160" xr:uid="{83D08654-91AF-4410-B10B-40A087A7EF6E}"/>
-    <hyperlink ref="A535" r:id="rId493" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83162" xr:uid="{481C2D6D-83BA-40A8-93DF-3B8A38474F78}"/>
-    <hyperlink ref="A536" r:id="rId494" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59257" xr:uid="{648B3BF3-F791-43A6-96D9-82C1D3F26F5B}"/>
-    <hyperlink ref="A537" r:id="rId495" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82287" xr:uid="{13E2C0B6-ABDA-4365-BACD-D1E974AFFF44}"/>
-    <hyperlink ref="A538" r:id="rId496" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91467" xr:uid="{68C7850B-B6D4-4199-B0BB-4A75D2F27FDE}"/>
-    <hyperlink ref="A539" r:id="rId497" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1630" xr:uid="{40B73AF1-250D-4204-81DB-3B88F808F52A}"/>
-    <hyperlink ref="A540" r:id="rId498" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1262" xr:uid="{D9968E58-FBB2-432C-972A-4831963DE31F}"/>
-    <hyperlink ref="A541" r:id="rId499" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1761" xr:uid="{3A2F1774-3BB8-487F-AA7D-23E75E349F3F}"/>
-    <hyperlink ref="A542" r:id="rId500" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84578" xr:uid="{2757C5FD-DB77-4FD0-BC46-4D35E8EDE644}"/>
-    <hyperlink ref="A545" r:id="rId501" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67080" xr:uid="{FC9871E6-F537-4A2B-BC84-A97CC7B4F088}"/>
-    <hyperlink ref="A546" r:id="rId502" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=80759" xr:uid="{DCF3DC0E-4E11-4A96-9F1B-16B70047BA0A}"/>
-    <hyperlink ref="A547" r:id="rId503" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86269" xr:uid="{FD40C170-F3EB-4472-92E4-950C5A15372F}"/>
-    <hyperlink ref="A548" r:id="rId504" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84121" xr:uid="{ADFD3D30-D7D4-4192-A838-001D41DEA753}"/>
-    <hyperlink ref="A549" r:id="rId505" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64454" xr:uid="{7A82A294-6A38-4B13-8F86-DD9535A271C9}"/>
-    <hyperlink ref="A550" r:id="rId506" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=564" xr:uid="{C7D91214-BAA8-4DD8-A4A4-2C3D14113198}"/>
-    <hyperlink ref="A551" r:id="rId507" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26000" xr:uid="{7B286339-6258-4328-B766-B539ED4E9EB9}"/>
-    <hyperlink ref="A552" r:id="rId508" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=80437" xr:uid="{67127ABF-7A15-4AE7-A943-5BB34F6F497F}"/>
-    <hyperlink ref="A553" r:id="rId509" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=529" xr:uid="{2DB440B4-7D41-41E1-9D45-75ECC5E8EC10}"/>
-    <hyperlink ref="A554" r:id="rId510" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82651" xr:uid="{7EE801E8-FD35-48D6-A4AD-F7B28D3BF8BA}"/>
-    <hyperlink ref="A555" r:id="rId511" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=872" xr:uid="{4B917B4D-E464-4010-8661-FE706B2B5538}"/>
-    <hyperlink ref="A556" r:id="rId512" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=874" xr:uid="{6C76540B-D372-4BCB-83C0-1B37E1768B49}"/>
-    <hyperlink ref="A557" r:id="rId513" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=855" xr:uid="{71BA1BD5-60C8-431D-8E39-3EE361EE1AAA}"/>
-    <hyperlink ref="A558" r:id="rId514" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=862" xr:uid="{8BFE1C3F-7055-446D-9104-22DB8EA28EF2}"/>
-    <hyperlink ref="A559" r:id="rId515" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67034" xr:uid="{83790AAE-25DE-4268-AB45-8022A201BA0F}"/>
-    <hyperlink ref="A560" r:id="rId516" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67036" xr:uid="{9DDDC0A8-3C4F-465D-BC03-3CE6341BA944}"/>
-    <hyperlink ref="A561" r:id="rId517" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25978" xr:uid="{FF9B3779-C6B6-497A-8A0C-CDE8443827E0}"/>
-    <hyperlink ref="A562" r:id="rId518" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=877" xr:uid="{C303840F-A7D1-42DD-A476-1D4696B80D8B}"/>
-    <hyperlink ref="A563" r:id="rId519" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67062" xr:uid="{BFA029F8-357A-4617-A8AA-7B69B3AF584B}"/>
-    <hyperlink ref="A564" r:id="rId520" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64458" xr:uid="{7F62E77F-AFBD-4530-A589-472221112DEE}"/>
-    <hyperlink ref="A565" r:id="rId521" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82270" xr:uid="{0694D895-3880-4795-81F3-25B66E79E837}"/>
-    <hyperlink ref="A566" r:id="rId522" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89221" xr:uid="{0A62151E-F0A8-4595-ADD4-B46C41DC00BE}"/>
-    <hyperlink ref="A567" r:id="rId523" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89223" xr:uid="{8AE8FC28-B78C-4BCB-BB12-9E452FFF0914}"/>
-    <hyperlink ref="A568" r:id="rId524" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=929" xr:uid="{F4E088AA-1E98-4955-BABD-1507DF7D210C}"/>
-    <hyperlink ref="A569" r:id="rId525" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26013" xr:uid="{B3D73759-B46B-40EE-B45B-EA2E334E7B4E}"/>
-    <hyperlink ref="A570" r:id="rId526" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64438" xr:uid="{1D8FBC3C-EBCB-4AE6-B89B-A38B20BAF5AD}"/>
-    <hyperlink ref="A571" r:id="rId527" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=863" xr:uid="{3E9DD661-EE5D-4B0F-AE0F-7248269A4F96}"/>
-    <hyperlink ref="A572" r:id="rId528" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64440" xr:uid="{E761EB60-451C-4A20-86E2-EF17C6DE60CC}"/>
-    <hyperlink ref="A573" r:id="rId529" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66501" xr:uid="{62A3FD82-E742-4A2B-BC86-A586E6230DA3}"/>
-    <hyperlink ref="A574" r:id="rId530" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64441" xr:uid="{781C7241-E908-4778-9454-5009D5929874}"/>
-    <hyperlink ref="A575" r:id="rId531" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=470" xr:uid="{9683876F-466C-4509-933A-7912EB5D6143}"/>
-    <hyperlink ref="A576" r:id="rId532" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1059" xr:uid="{C5E26401-D298-4F02-9AE2-CAF7AA281DA3}"/>
-    <hyperlink ref="A577" r:id="rId533" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=682" xr:uid="{9345DC89-0FDB-4AAB-A485-C43BBB359B7F}"/>
-    <hyperlink ref="A578" r:id="rId534" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82332" xr:uid="{26C16D94-6CBB-46AA-86A0-18CD7920F774}"/>
-    <hyperlink ref="A579" r:id="rId535" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=934" xr:uid="{FF58300D-7F41-4D4E-877D-BDFF1C3D0A1C}"/>
-    <hyperlink ref="A580" r:id="rId536" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66994" xr:uid="{DD8C9E87-A1D4-45B5-8118-99D545FA4B9A}"/>
-    <hyperlink ref="A581" r:id="rId537" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66995" xr:uid="{AEFB12D1-4C07-4A9E-B28D-67CC1E1E359C}"/>
-    <hyperlink ref="A582" r:id="rId538" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=843" xr:uid="{D63A23DC-E28E-4FC8-82F6-05AA179E1B79}"/>
-    <hyperlink ref="A583" r:id="rId539" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1061" xr:uid="{AB1B8AFC-3C76-4C6D-8666-064E7A662C4F}"/>
-    <hyperlink ref="A584" r:id="rId540" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26194" xr:uid="{DF798C2C-C55A-455D-BE15-3BC8E96EBDB1}"/>
-    <hyperlink ref="A585" r:id="rId541" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26004" xr:uid="{393ABB54-14E0-4870-A015-39D674E59165}"/>
-    <hyperlink ref="A586" r:id="rId542" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81011" xr:uid="{C86B7F36-C9D8-4E29-8BB3-4C167A3217B4}"/>
-    <hyperlink ref="A587" r:id="rId543" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=726" xr:uid="{EC726DEE-A074-4140-BA71-BBB6EE8AE19D}"/>
-    <hyperlink ref="A588" r:id="rId544" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66671" xr:uid="{0DA46403-DE41-4F6B-80C4-1E64CA8A473B}"/>
-    <hyperlink ref="A589" r:id="rId545" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64444" xr:uid="{0B73ADA1-D3F6-4FE2-B48D-686BA9490D01}"/>
-    <hyperlink ref="A590" r:id="rId546" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=601" xr:uid="{CC15B754-FE68-4E22-9156-ABC0B44CCE8B}"/>
-    <hyperlink ref="A591" r:id="rId547" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64445" xr:uid="{02AF0735-FEA8-4C9D-99CA-6DF81251D0E9}"/>
-    <hyperlink ref="A592" r:id="rId548" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=604" xr:uid="{297CA505-95A7-4F1D-9CB6-B0884A81170D}"/>
-    <hyperlink ref="A593" r:id="rId549" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1075" xr:uid="{3A745C13-3673-435E-809A-4D86A6E3B326}"/>
-    <hyperlink ref="A594" r:id="rId550" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67041" xr:uid="{807BC13A-9966-4CBA-B69E-D7446DB8ADA7}"/>
-    <hyperlink ref="A595" r:id="rId551" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91209" xr:uid="{63E9C432-40B2-460C-97A8-0874791A9BC7}"/>
-    <hyperlink ref="A596" r:id="rId552" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=865" xr:uid="{56878059-D174-4956-AFF9-59BDA0E4554E}"/>
-    <hyperlink ref="A597" r:id="rId553" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=758" xr:uid="{DC71FF9B-025E-4907-82C5-04BD8F6B380D}"/>
-    <hyperlink ref="A598" r:id="rId554" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59612" xr:uid="{DA10E702-A9EC-43EA-BA91-45D559E662E5}"/>
-    <hyperlink ref="A599" r:id="rId555" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=738" xr:uid="{08E9E5C1-5BB7-4F34-BBE8-7305A671596C}"/>
-    <hyperlink ref="A600" r:id="rId556" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67033" xr:uid="{3CBD11AD-283D-4FC9-BECD-523C46E499B3}"/>
-    <hyperlink ref="A601" r:id="rId557" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1036" xr:uid="{25440C97-52A6-4246-A1B2-96EBD45D2FF0}"/>
-    <hyperlink ref="A602" r:id="rId558" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64450" xr:uid="{FB1B1C64-C817-43B7-AC39-F88BA91471A0}"/>
-    <hyperlink ref="A603" r:id="rId559" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=525" xr:uid="{6C23821F-E3B6-4BC4-A7CB-6E7DE399305D}"/>
-    <hyperlink ref="A604" r:id="rId560" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59398" xr:uid="{F75A0AA6-484F-47E5-AB94-8FB1F1E5823C}"/>
-    <hyperlink ref="A605" r:id="rId561" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64452" xr:uid="{3E514D9C-E3BE-44BE-A403-575BA83A5D5B}"/>
-    <hyperlink ref="A606" r:id="rId562" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82950" xr:uid="{E7E100CA-EF0E-4EE1-90BB-3ED64824E05C}"/>
-    <hyperlink ref="A607" r:id="rId563" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67113" xr:uid="{5D831DD1-6A5E-4A2D-9041-31D6EC4C9EFA}"/>
-    <hyperlink ref="A608" r:id="rId564" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25994" xr:uid="{EB1D93D7-6CF1-4372-91F3-BEFED8B28505}"/>
-    <hyperlink ref="A609" r:id="rId565" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64460" xr:uid="{9E903216-3A94-4A7D-AA04-26BFF95CADDC}"/>
-    <hyperlink ref="A610" r:id="rId566" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82273" xr:uid="{3AFCC620-9ED3-412C-A100-D56E8090DC1D}"/>
-    <hyperlink ref="A611" r:id="rId567" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64464" xr:uid="{6C474AD8-B329-48AF-9F2E-EFF8AE3E88B3}"/>
-    <hyperlink ref="A612" r:id="rId568" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64459" xr:uid="{E8CAD183-2EB9-4229-90E3-A8CD9862BA03}"/>
-    <hyperlink ref="A613" r:id="rId569" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66472" xr:uid="{6ADD6CC7-6455-4CF6-8DD8-AA9E9E89C1D1}"/>
-    <hyperlink ref="A614" r:id="rId570" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64463" xr:uid="{C00EB018-B9ED-4513-87A4-79E1F5526DE8}"/>
-    <hyperlink ref="A615" r:id="rId571" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64462" xr:uid="{40FE1F5A-C01B-473E-A818-8DDF9A85125B}"/>
-    <hyperlink ref="A616" r:id="rId572" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90381" xr:uid="{F9EFEC20-14EA-4DE3-9B93-4545A11772FB}"/>
-    <hyperlink ref="A617" r:id="rId573" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=923" xr:uid="{A33AF2C4-AE6E-47EC-B7EB-58A2C16800A0}"/>
-    <hyperlink ref="A618" r:id="rId574" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67051" xr:uid="{4085E6BE-D208-499E-913B-40DACCDADB6F}"/>
-    <hyperlink ref="A619" r:id="rId575" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26048" xr:uid="{5523E0DA-A0B1-47B6-8387-7824F0EFCD59}"/>
-    <hyperlink ref="A620" r:id="rId576" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59300" xr:uid="{A26578B9-C362-46B8-8278-ADC853E6A168}"/>
-    <hyperlink ref="A623" r:id="rId577" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=344" xr:uid="{A69F495A-06A9-48CA-9C82-88952AF49D36}"/>
-    <hyperlink ref="A624" r:id="rId578" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83086" xr:uid="{D0C22308-E313-4AB0-A92E-49F67B6AB2B0}"/>
-    <hyperlink ref="A625" r:id="rId579" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=34" xr:uid="{428A5108-3598-4EF5-BF37-1D73F333517D}"/>
-    <hyperlink ref="A626" r:id="rId580" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=37" xr:uid="{C2E56C04-D597-4421-8AC2-5D9F9D78E2AC}"/>
-    <hyperlink ref="A627" r:id="rId581" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88021" xr:uid="{545DEE05-D0ED-4710-B389-4178CA525228}"/>
-    <hyperlink ref="A628" r:id="rId582" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66659" xr:uid="{E31C0C9A-2A5C-44D8-9D09-1395E5626517}"/>
-    <hyperlink ref="A629" r:id="rId583" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=132" xr:uid="{922C5D2A-1721-4752-B690-33B1A00D6FF3}"/>
-    <hyperlink ref="A630" r:id="rId584" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=330" xr:uid="{A126011A-3740-4AE9-A9C9-0A9D7C3CC1D9}"/>
-    <hyperlink ref="A631" r:id="rId585" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=75183" xr:uid="{11B20F6A-1666-4AB2-8E74-5AF655FCF2B7}"/>
-    <hyperlink ref="A632" r:id="rId586" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=180" xr:uid="{1A9A8BEC-623E-4589-81A7-0788F207E951}"/>
-    <hyperlink ref="A633" r:id="rId587" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66665" xr:uid="{168522EC-FAA7-431F-9CB6-5AD95712E33D}"/>
-    <hyperlink ref="A634" r:id="rId588" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66666" xr:uid="{82021DC0-D77B-4FD1-9875-BED8D73DF243}"/>
-    <hyperlink ref="A635" r:id="rId589" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66667" xr:uid="{E442FDA4-6E0E-4322-A167-FC8B72F004A7}"/>
-    <hyperlink ref="A636" r:id="rId590" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66661" xr:uid="{90A52AB0-CD84-4BC4-A4A9-A9B40EBA47FF}"/>
-    <hyperlink ref="A637" r:id="rId591" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66662" xr:uid="{5B89DEDF-EF69-40D3-A306-25C83B3D11BF}"/>
-    <hyperlink ref="A638" r:id="rId592" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66663" xr:uid="{4791F94D-805C-4C12-ABCC-0B4AE0BCB110}"/>
-    <hyperlink ref="A639" r:id="rId593" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66664" xr:uid="{BEC8CF0A-2A4A-42D0-96F2-11303E41529A}"/>
-    <hyperlink ref="A640" r:id="rId594" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=137" xr:uid="{20BEC922-DB31-4D7D-AD17-3BFC6254071B}"/>
-    <hyperlink ref="A641" r:id="rId595" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=174" xr:uid="{3CC25EEC-8880-4809-BE5C-99B8737A6E90}"/>
-    <hyperlink ref="A642" r:id="rId596" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=282" xr:uid="{79D49A5D-1602-468E-A8D3-21ECB622E32F}"/>
-    <hyperlink ref="A643" r:id="rId597" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87619" xr:uid="{BF5F5C48-778C-4383-A18E-B8C2F27BFC00}"/>
-    <hyperlink ref="A644" r:id="rId598" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87620" xr:uid="{6D73A419-2F41-4F2D-9C68-0B8B9A550BED}"/>
-    <hyperlink ref="A645" r:id="rId599" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26" xr:uid="{4EC90489-1B7D-4709-9AB2-7BAEE23A13FE}"/>
-    <hyperlink ref="A646" r:id="rId600" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89289" xr:uid="{5746C6D5-00BD-406B-A614-A43E08EAE771}"/>
-    <hyperlink ref="A647" r:id="rId601" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=125" xr:uid="{6442CF0E-8000-4A64-8781-03A8A2C3B127}"/>
-    <hyperlink ref="A648" r:id="rId602" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83395" xr:uid="{6AE711F1-CC01-4A11-B6DA-4F31C6AC1F9B}"/>
-    <hyperlink ref="A649" r:id="rId603" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89262" xr:uid="{2293B5A1-1798-4226-89B0-2B4CEBEC1311}"/>
-    <hyperlink ref="A650" r:id="rId604" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66651" xr:uid="{79F8F6A0-7B49-4E65-BD0E-3CDF282E5E2D}"/>
-    <hyperlink ref="A651" r:id="rId605" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92008" xr:uid="{5073B26A-0648-488C-9B89-1350F32F2522}"/>
-    <hyperlink ref="A652" r:id="rId606" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87600" xr:uid="{8CA48D32-5F22-4260-896A-50A8D78E5B71}"/>
-    <hyperlink ref="A653" r:id="rId607" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90831" xr:uid="{F3281890-CBB3-48E2-AA05-25CF3C74BE03}"/>
-    <hyperlink ref="A654" r:id="rId608" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66849" xr:uid="{3A168284-48ED-408D-9668-F5051CCD5C3A}"/>
-    <hyperlink ref="A655" r:id="rId609" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=225" xr:uid="{5EDD7D10-E8DC-4E8D-9F7D-EFB236A5781E}"/>
-    <hyperlink ref="A656" r:id="rId610" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59281" xr:uid="{E2A3D41F-2707-4A88-89E2-31814E5A16CE}"/>
-    <hyperlink ref="A657" r:id="rId611" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87608" xr:uid="{59037388-2029-484F-A79D-20EEE7032D83}"/>
-    <hyperlink ref="A658" r:id="rId612" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66646" xr:uid="{BEED794A-305F-4DC7-B738-287C671C0271}"/>
-    <hyperlink ref="A659" r:id="rId613" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=316" xr:uid="{FA0DEBA6-5007-4077-B0D1-DBBFD1F60677}"/>
-    <hyperlink ref="A660" r:id="rId614" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82954" xr:uid="{D441FE8B-A17A-4C17-B0CA-50EC80289E0D}"/>
-    <hyperlink ref="A661" r:id="rId615" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88453" xr:uid="{6D79FB2B-7384-41B3-9BB2-C42D6822FDF9}"/>
-    <hyperlink ref="A662" r:id="rId616" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66645" xr:uid="{859ED508-B9E5-4417-B811-CBAF01A3F5A7}"/>
-    <hyperlink ref="A663" r:id="rId617" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86367" xr:uid="{201D223D-9D15-4EAC-ABAA-BBB4EEF7479F}"/>
-    <hyperlink ref="A664" r:id="rId618" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=108" xr:uid="{CE2932FD-7211-43A4-8F3A-D14B60DF6AEE}"/>
-    <hyperlink ref="A665" r:id="rId619" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=113" xr:uid="{DA53CB23-8DB1-44A3-9647-D4B96DEDD56C}"/>
-    <hyperlink ref="A666" r:id="rId620" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=96" xr:uid="{59E13665-B849-46EB-ABFF-A9A087626BAE}"/>
-    <hyperlink ref="A667" r:id="rId621" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=99" xr:uid="{68F847E2-08F2-442E-A260-9CC933D94834}"/>
-    <hyperlink ref="A668" r:id="rId622" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=186" xr:uid="{589187EC-2654-425B-8622-7657135E1E22}"/>
-    <hyperlink ref="A669" r:id="rId623" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87639" xr:uid="{9C3C50FA-E20C-4596-B7CF-2670E283E4D9}"/>
-    <hyperlink ref="A670" r:id="rId624" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82790" xr:uid="{3EC3EFFD-204E-443D-B5DF-A522BB8DBCB5}"/>
-    <hyperlink ref="A671" r:id="rId625" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66889" xr:uid="{AAE2A658-B3B9-4DB4-BC85-A22858C8F1CC}"/>
-    <hyperlink ref="A672" r:id="rId626" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=229" xr:uid="{8FF21171-089D-4F90-B133-AA3B400F034C}"/>
-    <hyperlink ref="A673" r:id="rId627" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=302" xr:uid="{4DD90395-BD2C-4CB7-8A5D-C8ECCE723181}"/>
-    <hyperlink ref="A674" r:id="rId628" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=305" xr:uid="{119FF10E-3FD5-406C-A015-FF16B7C1E46E}"/>
-    <hyperlink ref="A675" r:id="rId629" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83091" xr:uid="{4184EDCB-5D85-430D-B44A-F12215BFBB83}"/>
-    <hyperlink ref="A676" r:id="rId630" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66" xr:uid="{DE897674-3DEC-401E-BBE6-0536C47CD7E5}"/>
-    <hyperlink ref="A677" r:id="rId631" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25906" xr:uid="{12E09030-2A68-44EC-B93B-C31405B9954A}"/>
-    <hyperlink ref="A680" r:id="rId632" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64415" xr:uid="{4775927A-7344-4AF9-A8C9-1FE1E5BE87F8}"/>
-    <hyperlink ref="A681" r:id="rId633" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89125" xr:uid="{0ED76845-7B94-49D8-B206-89358B6DAAAB}"/>
-    <hyperlink ref="A682" r:id="rId634" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91922" xr:uid="{43CB526C-E6C9-4C38-B3DE-279453C0B506}"/>
-    <hyperlink ref="A683" r:id="rId635" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66778" xr:uid="{C921D6BB-C07F-4C86-BCC0-0914D160FFEF}"/>
-    <hyperlink ref="A684" r:id="rId636" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66781" xr:uid="{87A18E9B-F499-43B4-9266-5F8AFF94D9F5}"/>
-    <hyperlink ref="A685" r:id="rId637" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66796" xr:uid="{A5788FFF-3C4A-4AAE-BBD8-2078F71DCCF5}"/>
-    <hyperlink ref="A686" r:id="rId638" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66797" xr:uid="{E5D10D20-451D-4D57-AFF7-AEBF2F0643D1}"/>
-    <hyperlink ref="A687" r:id="rId639" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66798" xr:uid="{EA5802C4-19B4-4C8D-82C0-0573E1157911}"/>
-    <hyperlink ref="A688" r:id="rId640" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86875" xr:uid="{47143C81-5A1D-4AEA-82C1-496FF7206D0C}"/>
-    <hyperlink ref="A689" r:id="rId641" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64420" xr:uid="{A573C776-F1B6-44F7-920A-CD4CC5E5CE56}"/>
-    <hyperlink ref="A690" r:id="rId642" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77747" xr:uid="{FF550114-A33D-42AB-83EC-30FDE8F88603}"/>
-    <hyperlink ref="A691" r:id="rId643" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26335" xr:uid="{95E06694-DC5E-4476-BA1D-78772ADD6726}"/>
-    <hyperlink ref="A692" r:id="rId644" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85451" xr:uid="{48D35633-280C-4CFC-ABEE-94A71896CFF5}"/>
-    <hyperlink ref="A693" r:id="rId645" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25234" xr:uid="{F8695920-B20B-4918-872B-C1BE359A6FF6}"/>
-    <hyperlink ref="A694" r:id="rId646" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86266" xr:uid="{F5BCB296-6F90-460E-B032-6565C28DA5D3}"/>
-    <hyperlink ref="A697" r:id="rId647" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68444" xr:uid="{1B355FD5-266D-4315-8164-01D5BB3AE5BA}"/>
-    <hyperlink ref="A698" r:id="rId648" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68446" xr:uid="{81D0E643-EB1C-4C46-B057-9315E065C366}"/>
-    <hyperlink ref="A699" r:id="rId649" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68453" xr:uid="{70580834-006B-4975-BBD1-5E60B88E6D62}"/>
-    <hyperlink ref="A700" r:id="rId650" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68455" xr:uid="{3BAA8E34-03E1-4EF9-985D-F0EE8D7EE776}"/>
-    <hyperlink ref="A701" r:id="rId651" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=76339" xr:uid="{64958454-1289-48E5-A58D-C1818BF05FE0}"/>
-    <hyperlink ref="A702" r:id="rId652" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=69374" xr:uid="{1E5F8E29-3C6E-4776-84B6-C95F864FC90A}"/>
-    <hyperlink ref="A703" r:id="rId653" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85267" xr:uid="{459B9B98-DA4A-4193-928D-95FF720ABA3F}"/>
-    <hyperlink ref="A704" r:id="rId654" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=69402" xr:uid="{472549DE-9976-4CF0-9B5A-7D542EEECE7A}"/>
+    <hyperlink ref="A704" r:id="rId1" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=69402" xr:uid="{472549DE-9976-4CF0-9B5A-7D542EEECE7A}"/>
+    <hyperlink ref="A703" r:id="rId2" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85267" xr:uid="{459B9B98-DA4A-4193-928D-95FF720ABA3F}"/>
+    <hyperlink ref="A702" r:id="rId3" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=69374" xr:uid="{1E5F8E29-3C6E-4776-84B6-C95F864FC90A}"/>
+    <hyperlink ref="A701" r:id="rId4" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=76339" xr:uid="{64958454-1289-48E5-A58D-C1818BF05FE0}"/>
+    <hyperlink ref="A700" r:id="rId5" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68455" xr:uid="{3BAA8E34-03E1-4EF9-985D-F0EE8D7EE776}"/>
+    <hyperlink ref="A699" r:id="rId6" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68453" xr:uid="{70580834-006B-4975-BBD1-5E60B88E6D62}"/>
+    <hyperlink ref="A698" r:id="rId7" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68446" xr:uid="{81D0E643-EB1C-4C46-B057-9315E065C366}"/>
+    <hyperlink ref="A697" r:id="rId8" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68444" xr:uid="{1B355FD5-266D-4315-8164-01D5BB3AE5BA}"/>
+    <hyperlink ref="A694" r:id="rId9" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86266" xr:uid="{F5BCB296-6F90-460E-B032-6565C28DA5D3}"/>
+    <hyperlink ref="A693" r:id="rId10" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25234" xr:uid="{F8695920-B20B-4918-872B-C1BE359A6FF6}"/>
+    <hyperlink ref="A692" r:id="rId11" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85451" xr:uid="{48D35633-280C-4CFC-ABEE-94A71896CFF5}"/>
+    <hyperlink ref="A691" r:id="rId12" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26335" xr:uid="{95E06694-DC5E-4476-BA1D-78772ADD6726}"/>
+    <hyperlink ref="A690" r:id="rId13" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77747" xr:uid="{FF550114-A33D-42AB-83EC-30FDE8F88603}"/>
+    <hyperlink ref="A689" r:id="rId14" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64420" xr:uid="{A573C776-F1B6-44F7-920A-CD4CC5E5CE56}"/>
+    <hyperlink ref="A688" r:id="rId15" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86875" xr:uid="{47143C81-5A1D-4AEA-82C1-496FF7206D0C}"/>
+    <hyperlink ref="A687" r:id="rId16" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66798" xr:uid="{EA5802C4-19B4-4C8D-82C0-0573E1157911}"/>
+    <hyperlink ref="A686" r:id="rId17" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66797" xr:uid="{E5D10D20-451D-4D57-AFF7-AEBF2F0643D1}"/>
+    <hyperlink ref="A685" r:id="rId18" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66796" xr:uid="{A5788FFF-3C4A-4AAE-BBD8-2078F71DCCF5}"/>
+    <hyperlink ref="A684" r:id="rId19" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66781" xr:uid="{87A18E9B-F499-43B4-9266-5F8AFF94D9F5}"/>
+    <hyperlink ref="A683" r:id="rId20" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66778" xr:uid="{C921D6BB-C07F-4C86-BCC0-0914D160FFEF}"/>
+    <hyperlink ref="A682" r:id="rId21" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91922" xr:uid="{43CB526C-E6C9-4C38-B3DE-279453C0B506}"/>
+    <hyperlink ref="A681" r:id="rId22" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89125" xr:uid="{0ED76845-7B94-49D8-B206-89358B6DAAAB}"/>
+    <hyperlink ref="A680" r:id="rId23" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64415" xr:uid="{4775927A-7344-4AF9-A8C9-1FE1E5BE87F8}"/>
+    <hyperlink ref="A677" r:id="rId24" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25906" xr:uid="{12E09030-2A68-44EC-B93B-C31405B9954A}"/>
+    <hyperlink ref="A676" r:id="rId25" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66" xr:uid="{DE897674-3DEC-401E-BBE6-0536C47CD7E5}"/>
+    <hyperlink ref="A675" r:id="rId26" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83091" xr:uid="{4184EDCB-5D85-430D-B44A-F12215BFBB83}"/>
+    <hyperlink ref="A674" r:id="rId27" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=305" xr:uid="{119FF10E-3FD5-406C-A015-FF16B7C1E46E}"/>
+    <hyperlink ref="A673" r:id="rId28" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=302" xr:uid="{4DD90395-BD2C-4CB7-8A5D-C8ECCE723181}"/>
+    <hyperlink ref="A672" r:id="rId29" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=229" xr:uid="{8FF21171-089D-4F90-B133-AA3B400F034C}"/>
+    <hyperlink ref="A671" r:id="rId30" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66889" xr:uid="{AAE2A658-B3B9-4DB4-BC85-A22858C8F1CC}"/>
+    <hyperlink ref="A670" r:id="rId31" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82790" xr:uid="{3EC3EFFD-204E-443D-B5DF-A522BB8DBCB5}"/>
+    <hyperlink ref="A669" r:id="rId32" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87639" xr:uid="{9C3C50FA-E20C-4596-B7CF-2670E283E4D9}"/>
+    <hyperlink ref="A668" r:id="rId33" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=186" xr:uid="{589187EC-2654-425B-8622-7657135E1E22}"/>
+    <hyperlink ref="A667" r:id="rId34" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=99" xr:uid="{68F847E2-08F2-442E-A260-9CC933D94834}"/>
+    <hyperlink ref="A666" r:id="rId35" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=96" xr:uid="{59E13665-B849-46EB-ABFF-A9A087626BAE}"/>
+    <hyperlink ref="A665" r:id="rId36" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=113" xr:uid="{DA53CB23-8DB1-44A3-9647-D4B96DEDD56C}"/>
+    <hyperlink ref="A664" r:id="rId37" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=108" xr:uid="{CE2932FD-7211-43A4-8F3A-D14B60DF6AEE}"/>
+    <hyperlink ref="A663" r:id="rId38" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86367" xr:uid="{201D223D-9D15-4EAC-ABAA-BBB4EEF7479F}"/>
+    <hyperlink ref="A662" r:id="rId39" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66645" xr:uid="{859ED508-B9E5-4417-B811-CBAF01A3F5A7}"/>
+    <hyperlink ref="A661" r:id="rId40" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88453" xr:uid="{6D79FB2B-7384-41B3-9BB2-C42D6822FDF9}"/>
+    <hyperlink ref="A660" r:id="rId41" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82954" xr:uid="{D441FE8B-A17A-4C17-B0CA-50EC80289E0D}"/>
+    <hyperlink ref="A659" r:id="rId42" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=316" xr:uid="{FA0DEBA6-5007-4077-B0D1-DBBFD1F60677}"/>
+    <hyperlink ref="A658" r:id="rId43" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66646" xr:uid="{BEED794A-305F-4DC7-B738-287C671C0271}"/>
+    <hyperlink ref="A657" r:id="rId44" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87608" xr:uid="{59037388-2029-484F-A79D-20EEE7032D83}"/>
+    <hyperlink ref="A656" r:id="rId45" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59281" xr:uid="{E2A3D41F-2707-4A88-89E2-31814E5A16CE}"/>
+    <hyperlink ref="A655" r:id="rId46" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=225" xr:uid="{5EDD7D10-E8DC-4E8D-9F7D-EFB236A5781E}"/>
+    <hyperlink ref="A654" r:id="rId47" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66849" xr:uid="{3A168284-48ED-408D-9668-F5051CCD5C3A}"/>
+    <hyperlink ref="A653" r:id="rId48" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90831" xr:uid="{F3281890-CBB3-48E2-AA05-25CF3C74BE03}"/>
+    <hyperlink ref="A652" r:id="rId49" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87600" xr:uid="{8CA48D32-5F22-4260-896A-50A8D78E5B71}"/>
+    <hyperlink ref="A651" r:id="rId50" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92008" xr:uid="{5073B26A-0648-488C-9B89-1350F32F2522}"/>
+    <hyperlink ref="A650" r:id="rId51" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66651" xr:uid="{79F8F6A0-7B49-4E65-BD0E-3CDF282E5E2D}"/>
+    <hyperlink ref="A649" r:id="rId52" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89262" xr:uid="{2293B5A1-1798-4226-89B0-2B4CEBEC1311}"/>
+    <hyperlink ref="A648" r:id="rId53" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83395" xr:uid="{6AE711F1-CC01-4A11-B6DA-4F31C6AC1F9B}"/>
+    <hyperlink ref="A647" r:id="rId54" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=125" xr:uid="{6442CF0E-8000-4A64-8781-03A8A2C3B127}"/>
+    <hyperlink ref="A646" r:id="rId55" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89289" xr:uid="{5746C6D5-00BD-406B-A614-A43E08EAE771}"/>
+    <hyperlink ref="A645" r:id="rId56" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26" xr:uid="{4EC90489-1B7D-4709-9AB2-7BAEE23A13FE}"/>
+    <hyperlink ref="A644" r:id="rId57" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87620" xr:uid="{6D73A419-2F41-4F2D-9C68-0B8B9A550BED}"/>
+    <hyperlink ref="A643" r:id="rId58" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87619" xr:uid="{BF5F5C48-778C-4383-A18E-B8C2F27BFC00}"/>
+    <hyperlink ref="A642" r:id="rId59" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=282" xr:uid="{79D49A5D-1602-468E-A8D3-21ECB622E32F}"/>
+    <hyperlink ref="A641" r:id="rId60" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=174" xr:uid="{3CC25EEC-8880-4809-BE5C-99B8737A6E90}"/>
+    <hyperlink ref="A640" r:id="rId61" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=137" xr:uid="{20BEC922-DB31-4D7D-AD17-3BFC6254071B}"/>
+    <hyperlink ref="A639" r:id="rId62" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66664" xr:uid="{BEC8CF0A-2A4A-42D0-96F2-11303E41529A}"/>
+    <hyperlink ref="A638" r:id="rId63" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66663" xr:uid="{4791F94D-805C-4C12-ABCC-0B4AE0BCB110}"/>
+    <hyperlink ref="A637" r:id="rId64" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66662" xr:uid="{5B89DEDF-EF69-40D3-A306-25C83B3D11BF}"/>
+    <hyperlink ref="A636" r:id="rId65" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66661" xr:uid="{90A52AB0-CD84-4BC4-A4A9-A9B40EBA47FF}"/>
+    <hyperlink ref="A635" r:id="rId66" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66667" xr:uid="{E442FDA4-6E0E-4322-A167-FC8B72F004A7}"/>
+    <hyperlink ref="A634" r:id="rId67" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66666" xr:uid="{82021DC0-D77B-4FD1-9875-BED8D73DF243}"/>
+    <hyperlink ref="A633" r:id="rId68" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66665" xr:uid="{168522EC-FAA7-431F-9CB6-5AD95712E33D}"/>
+    <hyperlink ref="A632" r:id="rId69" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=180" xr:uid="{1A9A8BEC-623E-4589-81A7-0788F207E951}"/>
+    <hyperlink ref="A631" r:id="rId70" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=75183" xr:uid="{11B20F6A-1666-4AB2-8E74-5AF655FCF2B7}"/>
+    <hyperlink ref="A630" r:id="rId71" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=330" xr:uid="{A126011A-3740-4AE9-A9C9-0A9D7C3CC1D9}"/>
+    <hyperlink ref="A629" r:id="rId72" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=132" xr:uid="{922C5D2A-1721-4752-B690-33B1A00D6FF3}"/>
+    <hyperlink ref="A628" r:id="rId73" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66659" xr:uid="{E31C0C9A-2A5C-44D8-9D09-1395E5626517}"/>
+    <hyperlink ref="A627" r:id="rId74" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88021" xr:uid="{545DEE05-D0ED-4710-B389-4178CA525228}"/>
+    <hyperlink ref="A626" r:id="rId75" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=37" xr:uid="{C2E56C04-D597-4421-8AC2-5D9F9D78E2AC}"/>
+    <hyperlink ref="A625" r:id="rId76" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=34" xr:uid="{428A5108-3598-4EF5-BF37-1D73F333517D}"/>
+    <hyperlink ref="A624" r:id="rId77" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83086" xr:uid="{D0C22308-E313-4AB0-A92E-49F67B6AB2B0}"/>
+    <hyperlink ref="A623" r:id="rId78" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=344" xr:uid="{A69F495A-06A9-48CA-9C82-88952AF49D36}"/>
+    <hyperlink ref="A620" r:id="rId79" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59300" xr:uid="{A26578B9-C362-46B8-8278-ADC853E6A168}"/>
+    <hyperlink ref="A619" r:id="rId80" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26048" xr:uid="{5523E0DA-A0B1-47B6-8387-7824F0EFCD59}"/>
+    <hyperlink ref="A618" r:id="rId81" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67051" xr:uid="{4085E6BE-D208-499E-913B-40DACCDADB6F}"/>
+    <hyperlink ref="A617" r:id="rId82" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=923" xr:uid="{A33AF2C4-AE6E-47EC-B7EB-58A2C16800A0}"/>
+    <hyperlink ref="A616" r:id="rId83" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90381" xr:uid="{F9EFEC20-14EA-4DE3-9B93-4545A11772FB}"/>
+    <hyperlink ref="A615" r:id="rId84" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64462" xr:uid="{40FE1F5A-C01B-473E-A818-8DDF9A85125B}"/>
+    <hyperlink ref="A614" r:id="rId85" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64463" xr:uid="{C00EB018-B9ED-4513-87A4-79E1F5526DE8}"/>
+    <hyperlink ref="A613" r:id="rId86" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66472" xr:uid="{6ADD6CC7-6455-4CF6-8DD8-AA9E9E89C1D1}"/>
+    <hyperlink ref="A612" r:id="rId87" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64459" xr:uid="{E8CAD183-2EB9-4229-90E3-A8CD9862BA03}"/>
+    <hyperlink ref="A611" r:id="rId88" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64464" xr:uid="{6C474AD8-B329-48AF-9F2E-EFF8AE3E88B3}"/>
+    <hyperlink ref="A610" r:id="rId89" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82273" xr:uid="{3AFCC620-9ED3-412C-A100-D56E8090DC1D}"/>
+    <hyperlink ref="A609" r:id="rId90" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64460" xr:uid="{9E903216-3A94-4A7D-AA04-26BFF95CADDC}"/>
+    <hyperlink ref="A608" r:id="rId91" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25994" xr:uid="{EB1D93D7-6CF1-4372-91F3-BEFED8B28505}"/>
+    <hyperlink ref="A607" r:id="rId92" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67113" xr:uid="{5D831DD1-6A5E-4A2D-9041-31D6EC4C9EFA}"/>
+    <hyperlink ref="A606" r:id="rId93" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82950" xr:uid="{E7E100CA-EF0E-4EE1-90BB-3ED64824E05C}"/>
+    <hyperlink ref="A605" r:id="rId94" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64452" xr:uid="{3E514D9C-E3BE-44BE-A403-575BA83A5D5B}"/>
+    <hyperlink ref="A604" r:id="rId95" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59398" xr:uid="{F75A0AA6-484F-47E5-AB94-8FB1F1E5823C}"/>
+    <hyperlink ref="A603" r:id="rId96" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=525" xr:uid="{6C23821F-E3B6-4BC4-A7CB-6E7DE399305D}"/>
+    <hyperlink ref="A602" r:id="rId97" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64450" xr:uid="{FB1B1C64-C817-43B7-AC39-F88BA91471A0}"/>
+    <hyperlink ref="A601" r:id="rId98" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1036" xr:uid="{25440C97-52A6-4246-A1B2-96EBD45D2FF0}"/>
+    <hyperlink ref="A600" r:id="rId99" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67033" xr:uid="{3CBD11AD-283D-4FC9-BECD-523C46E499B3}"/>
+    <hyperlink ref="A599" r:id="rId100" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=738" xr:uid="{08E9E5C1-5BB7-4F34-BBE8-7305A671596C}"/>
+    <hyperlink ref="A598" r:id="rId101" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59612" xr:uid="{DA10E702-A9EC-43EA-BA91-45D559E662E5}"/>
+    <hyperlink ref="A597" r:id="rId102" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=758" xr:uid="{DC71FF9B-025E-4907-82C5-04BD8F6B380D}"/>
+    <hyperlink ref="A596" r:id="rId103" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=865" xr:uid="{56878059-D174-4956-AFF9-59BDA0E4554E}"/>
+    <hyperlink ref="A595" r:id="rId104" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91209" xr:uid="{63E9C432-40B2-460C-97A8-0874791A9BC7}"/>
+    <hyperlink ref="A594" r:id="rId105" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67041" xr:uid="{807BC13A-9966-4CBA-B69E-D7446DB8ADA7}"/>
+    <hyperlink ref="A593" r:id="rId106" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1075" xr:uid="{3A745C13-3673-435E-809A-4D86A6E3B326}"/>
+    <hyperlink ref="A592" r:id="rId107" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=604" xr:uid="{297CA505-95A7-4F1D-9CB6-B0884A81170D}"/>
+    <hyperlink ref="A591" r:id="rId108" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64445" xr:uid="{02AF0735-FEA8-4C9D-99CA-6DF81251D0E9}"/>
+    <hyperlink ref="A590" r:id="rId109" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=601" xr:uid="{CC15B754-FE68-4E22-9156-ABC0B44CCE8B}"/>
+    <hyperlink ref="A589" r:id="rId110" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64444" xr:uid="{0B73ADA1-D3F6-4FE2-B48D-686BA9490D01}"/>
+    <hyperlink ref="A588" r:id="rId111" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66671" xr:uid="{0DA46403-DE41-4F6B-80C4-1E64CA8A473B}"/>
+    <hyperlink ref="A587" r:id="rId112" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=726" xr:uid="{EC726DEE-A074-4140-BA71-BBB6EE8AE19D}"/>
+    <hyperlink ref="A586" r:id="rId113" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81011" xr:uid="{C86B7F36-C9D8-4E29-8BB3-4C167A3217B4}"/>
+    <hyperlink ref="A585" r:id="rId114" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26004" xr:uid="{393ABB54-14E0-4870-A015-39D674E59165}"/>
+    <hyperlink ref="A584" r:id="rId115" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26194" xr:uid="{DF798C2C-C55A-455D-BE15-3BC8E96EBDB1}"/>
+    <hyperlink ref="A583" r:id="rId116" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1061" xr:uid="{AB1B8AFC-3C76-4C6D-8666-064E7A662C4F}"/>
+    <hyperlink ref="A582" r:id="rId117" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=843" xr:uid="{D63A23DC-E28E-4FC8-82F6-05AA179E1B79}"/>
+    <hyperlink ref="A581" r:id="rId118" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66995" xr:uid="{AEFB12D1-4C07-4A9E-B28D-67CC1E1E359C}"/>
+    <hyperlink ref="A580" r:id="rId119" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66994" xr:uid="{DD8C9E87-A1D4-45B5-8118-99D545FA4B9A}"/>
+    <hyperlink ref="A579" r:id="rId120" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=934" xr:uid="{FF58300D-7F41-4D4E-877D-BDFF1C3D0A1C}"/>
+    <hyperlink ref="A578" r:id="rId121" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82332" xr:uid="{26C16D94-6CBB-46AA-86A0-18CD7920F774}"/>
+    <hyperlink ref="A577" r:id="rId122" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=682" xr:uid="{9345DC89-0FDB-4AAB-A485-C43BBB359B7F}"/>
+    <hyperlink ref="A576" r:id="rId123" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1059" xr:uid="{C5E26401-D298-4F02-9AE2-CAF7AA281DA3}"/>
+    <hyperlink ref="A575" r:id="rId124" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=470" xr:uid="{9683876F-466C-4509-933A-7912EB5D6143}"/>
+    <hyperlink ref="A574" r:id="rId125" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64441" xr:uid="{781C7241-E908-4778-9454-5009D5929874}"/>
+    <hyperlink ref="A573" r:id="rId126" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66501" xr:uid="{62A3FD82-E742-4A2B-BC86-A586E6230DA3}"/>
+    <hyperlink ref="A572" r:id="rId127" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64440" xr:uid="{E761EB60-451C-4A20-86E2-EF17C6DE60CC}"/>
+    <hyperlink ref="A571" r:id="rId128" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=863" xr:uid="{3E9DD661-EE5D-4B0F-AE0F-7248269A4F96}"/>
+    <hyperlink ref="A570" r:id="rId129" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64438" xr:uid="{1D8FBC3C-EBCB-4AE6-B89B-A38B20BAF5AD}"/>
+    <hyperlink ref="A569" r:id="rId130" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26013" xr:uid="{B3D73759-B46B-40EE-B45B-EA2E334E7B4E}"/>
+    <hyperlink ref="A568" r:id="rId131" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=929" xr:uid="{F4E088AA-1E98-4955-BABD-1507DF7D210C}"/>
+    <hyperlink ref="A567" r:id="rId132" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89223" xr:uid="{8AE8FC28-B78C-4BCB-BB12-9E452FFF0914}"/>
+    <hyperlink ref="A566" r:id="rId133" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89221" xr:uid="{0A62151E-F0A8-4595-ADD4-B46C41DC00BE}"/>
+    <hyperlink ref="A565" r:id="rId134" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82270" xr:uid="{0694D895-3880-4795-81F3-25B66E79E837}"/>
+    <hyperlink ref="A564" r:id="rId135" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64458" xr:uid="{7F62E77F-AFBD-4530-A589-472221112DEE}"/>
+    <hyperlink ref="A563" r:id="rId136" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67062" xr:uid="{BFA029F8-357A-4617-A8AA-7B69B3AF584B}"/>
+    <hyperlink ref="A562" r:id="rId137" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=877" xr:uid="{C303840F-A7D1-42DD-A476-1D4696B80D8B}"/>
+    <hyperlink ref="A561" r:id="rId138" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25978" xr:uid="{FF9B3779-C6B6-497A-8A0C-CDE8443827E0}"/>
+    <hyperlink ref="A560" r:id="rId139" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67036" xr:uid="{9DDDC0A8-3C4F-465D-BC03-3CE6341BA944}"/>
+    <hyperlink ref="A559" r:id="rId140" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67034" xr:uid="{83790AAE-25DE-4268-AB45-8022A201BA0F}"/>
+    <hyperlink ref="A558" r:id="rId141" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=862" xr:uid="{8BFE1C3F-7055-446D-9104-22DB8EA28EF2}"/>
+    <hyperlink ref="A557" r:id="rId142" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=855" xr:uid="{71BA1BD5-60C8-431D-8E39-3EE361EE1AAA}"/>
+    <hyperlink ref="A556" r:id="rId143" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=874" xr:uid="{6C76540B-D372-4BCB-83C0-1B37E1768B49}"/>
+    <hyperlink ref="A555" r:id="rId144" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=872" xr:uid="{4B917B4D-E464-4010-8661-FE706B2B5538}"/>
+    <hyperlink ref="A554" r:id="rId145" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82651" xr:uid="{7EE801E8-FD35-48D6-A4AD-F7B28D3BF8BA}"/>
+    <hyperlink ref="A553" r:id="rId146" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=529" xr:uid="{2DB440B4-7D41-41E1-9D45-75ECC5E8EC10}"/>
+    <hyperlink ref="A552" r:id="rId147" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=80437" xr:uid="{67127ABF-7A15-4AE7-A943-5BB34F6F497F}"/>
+    <hyperlink ref="A551" r:id="rId148" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26000" xr:uid="{7B286339-6258-4328-B766-B539ED4E9EB9}"/>
+    <hyperlink ref="A550" r:id="rId149" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=564" xr:uid="{C7D91214-BAA8-4DD8-A4A4-2C3D14113198}"/>
+    <hyperlink ref="A549" r:id="rId150" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64454" xr:uid="{7A82A294-6A38-4B13-8F86-DD9535A271C9}"/>
+    <hyperlink ref="A548" r:id="rId151" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84121" xr:uid="{ADFD3D30-D7D4-4192-A838-001D41DEA753}"/>
+    <hyperlink ref="A547" r:id="rId152" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86269" xr:uid="{FD40C170-F3EB-4472-92E4-950C5A15372F}"/>
+    <hyperlink ref="A546" r:id="rId153" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=80759" xr:uid="{DCF3DC0E-4E11-4A96-9F1B-16B70047BA0A}"/>
+    <hyperlink ref="A545" r:id="rId154" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67080" xr:uid="{FC9871E6-F537-4A2B-BC84-A97CC7B4F088}"/>
+    <hyperlink ref="A542" r:id="rId155" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84578" xr:uid="{2757C5FD-DB77-4FD0-BC46-4D35E8EDE644}"/>
+    <hyperlink ref="A541" r:id="rId156" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1761" xr:uid="{3A2F1774-3BB8-487F-AA7D-23E75E349F3F}"/>
+    <hyperlink ref="A540" r:id="rId157" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1262" xr:uid="{D9968E58-FBB2-432C-972A-4831963DE31F}"/>
+    <hyperlink ref="A539" r:id="rId158" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1630" xr:uid="{40B73AF1-250D-4204-81DB-3B88F808F52A}"/>
+    <hyperlink ref="A538" r:id="rId159" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91467" xr:uid="{68C7850B-B6D4-4199-B0BB-4A75D2F27FDE}"/>
+    <hyperlink ref="A537" r:id="rId160" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82287" xr:uid="{13E2C0B6-ABDA-4365-BACD-D1E974AFFF44}"/>
+    <hyperlink ref="A536" r:id="rId161" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59257" xr:uid="{648B3BF3-F791-43A6-96D9-82C1D3F26F5B}"/>
+    <hyperlink ref="A535" r:id="rId162" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83162" xr:uid="{481C2D6D-83BA-40A8-93DF-3B8A38474F78}"/>
+    <hyperlink ref="A534" r:id="rId163" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83160" xr:uid="{83D08654-91AF-4410-B10B-40A087A7EF6E}"/>
+    <hyperlink ref="A533" r:id="rId164" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66699" xr:uid="{212A220C-8A2F-4AAE-B48F-10FD4572A1E2}"/>
+    <hyperlink ref="A532" r:id="rId165" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1308" xr:uid="{54018AD2-9979-4841-A9A8-01B31B508F3E}"/>
+    <hyperlink ref="A531" r:id="rId166" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84785" xr:uid="{FAA14CA1-D1D8-43C5-B807-B22DA4E29981}"/>
+    <hyperlink ref="A530" r:id="rId167" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59254" xr:uid="{81613FE4-1CC8-4BDC-AD5E-A313BFE7D22D}"/>
+    <hyperlink ref="A529" r:id="rId168" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1766" xr:uid="{A6E31440-BEB7-4091-B7EF-4A5C3AE72DF5}"/>
+    <hyperlink ref="A528" r:id="rId169" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1420" xr:uid="{8A5914D7-6C99-4A16-92F9-56D3CEC8C043}"/>
+    <hyperlink ref="A527" r:id="rId170" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1193" xr:uid="{CADE6393-9336-4046-8B54-F322CC180464}"/>
+    <hyperlink ref="A526" r:id="rId171" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1656" xr:uid="{21A4655A-989C-4E4B-9C0F-915DE7883F62}"/>
+    <hyperlink ref="A525" r:id="rId172" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25931" xr:uid="{8E8BD60D-43C2-4D63-A9AE-A7238B97AD03}"/>
+    <hyperlink ref="A524" r:id="rId173" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1649" xr:uid="{F6A6E856-3370-404D-9AC9-F9C298BF682D}"/>
+    <hyperlink ref="A523" r:id="rId174" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25570" xr:uid="{0777E17B-5221-4D10-95EA-D754879A4DDC}"/>
+    <hyperlink ref="A522" r:id="rId175" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1482" xr:uid="{F7A57213-EEA4-4CB5-AFCC-9CA1B216F487}"/>
+    <hyperlink ref="A521" r:id="rId176" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1603" xr:uid="{023A8128-C425-43C2-AC34-7A438EFE1D4B}"/>
+    <hyperlink ref="A520" r:id="rId177" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59628" xr:uid="{7A8F67EE-58B7-4C43-9508-CA95D0599304}"/>
+    <hyperlink ref="A519" r:id="rId178" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59250" xr:uid="{EED65969-DD1A-428B-9111-CDF9DA66D5F0}"/>
+    <hyperlink ref="A518" r:id="rId179" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1765" xr:uid="{29122F6A-9719-443B-9B9D-81836238BB20}"/>
+    <hyperlink ref="A517" r:id="rId180" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1666" xr:uid="{F170C335-A3AB-41FC-AD16-7212AE7CEF61}"/>
+    <hyperlink ref="A516" r:id="rId181" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1665" xr:uid="{7EA4A814-8FB4-4BF9-B7AE-71A6935CCDFB}"/>
+    <hyperlink ref="A515" r:id="rId182" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25934" xr:uid="{3463C55A-88FA-4D3A-925B-21909E139B5D}"/>
+    <hyperlink ref="A514" r:id="rId183" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83821" xr:uid="{1AB77110-D812-4C4C-8429-86CAD2C15350}"/>
+    <hyperlink ref="A511" r:id="rId184" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85375" xr:uid="{EB5A4F9E-1F50-437E-9652-2B6576E14A31}"/>
+    <hyperlink ref="A510" r:id="rId185" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64782" xr:uid="{2AE370EA-65E4-4F5C-921C-7480D0388B6D}"/>
+    <hyperlink ref="A509" r:id="rId186" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64385" xr:uid="{FC5F6206-3545-4392-8D46-53DF3DF1E70F}"/>
+    <hyperlink ref="A508" r:id="rId187" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59709" xr:uid="{5BCE25FC-F14D-4497-89C4-92965D5D72FB}"/>
+    <hyperlink ref="A507" r:id="rId188" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1944" xr:uid="{57096096-818F-4812-8E2D-F3B281E72941}"/>
+    <hyperlink ref="A506" r:id="rId189" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1942" xr:uid="{CFACA7DC-27F9-49DC-8728-776568FA6644}"/>
+    <hyperlink ref="A505" r:id="rId190" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66669" xr:uid="{1ACB1521-FD3F-4D64-87C0-6042CF6451D3}"/>
+    <hyperlink ref="A504" r:id="rId191" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1807" xr:uid="{885B8047-2CCB-47BF-9695-7ADF034F505A}"/>
+    <hyperlink ref="A503" r:id="rId192" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1828" xr:uid="{943F42A0-84F8-4032-BBB2-40BAF3DBBF3E}"/>
+    <hyperlink ref="A502" r:id="rId193" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1827" xr:uid="{C081D122-C604-458E-80D2-BEFF5EEBA9EA}"/>
+    <hyperlink ref="A501" r:id="rId194" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1821" xr:uid="{DEA373DF-A574-4EEE-8B6E-691E4258A611}"/>
+    <hyperlink ref="A500" r:id="rId195" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86707" xr:uid="{ADE3978E-813A-4532-83CF-42E71ADA9D8E}"/>
+    <hyperlink ref="A499" r:id="rId196" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78964" xr:uid="{B7BD49F8-F0D7-46FD-8660-E20BF2C1B323}"/>
+    <hyperlink ref="A498" r:id="rId197" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1870" xr:uid="{8AB9C5DC-349A-4E5A-A2DE-E9CCDD9ADBA0}"/>
+    <hyperlink ref="A497" r:id="rId198" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1973" xr:uid="{D3BD5CFF-FB8A-4B18-8CF8-1067818EEAE6}"/>
+    <hyperlink ref="A496" r:id="rId199" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92547" xr:uid="{9C2E9945-CCA7-40E9-AE10-53F37D9C8A9F}"/>
+    <hyperlink ref="A495" r:id="rId200" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1965" xr:uid="{755A5110-D987-4B12-B8C8-6E626E6F2EA1}"/>
+    <hyperlink ref="A492" r:id="rId201" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66680" xr:uid="{728F62D6-D36C-44E8-BDF4-7BBCFF1AC75B}"/>
+    <hyperlink ref="A491" r:id="rId202" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26179" xr:uid="{1C8490BD-F4BD-499B-B6B2-D4EB9D418736}"/>
+    <hyperlink ref="A490" r:id="rId203" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68442" xr:uid="{08342FA9-E8FD-4339-86F5-A063B625F44E}"/>
+    <hyperlink ref="A489" r:id="rId204" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=60756" xr:uid="{3EF901D6-81DC-4AFA-A5F9-737BAFC27D2C}"/>
+    <hyperlink ref="A488" r:id="rId205" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68447" xr:uid="{E50FD214-7E78-4012-999D-9B2D141E6C37}"/>
+    <hyperlink ref="A487" r:id="rId206" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77041" xr:uid="{9F475F71-A11F-4356-AF55-922EC66E37AD}"/>
+    <hyperlink ref="A486" r:id="rId207" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77042" xr:uid="{21CFCA26-48FA-4600-A2B2-16157A9A913A}"/>
+    <hyperlink ref="A485" r:id="rId208" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66678" xr:uid="{C4D4319F-14A1-4B62-B167-DB3A8B33998A}"/>
+    <hyperlink ref="A484" r:id="rId209" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67620" xr:uid="{F27D19A9-1C49-40E8-B45D-580C210AAA29}"/>
+    <hyperlink ref="A483" r:id="rId210" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26178" xr:uid="{664EB347-FA4A-4DE3-92C3-7D8F296ADC78}"/>
+    <hyperlink ref="A482" r:id="rId211" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91711" xr:uid="{8A2F4F00-6C97-437B-9383-6E18C8F7BA20}"/>
+    <hyperlink ref="A481" r:id="rId212" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66698" xr:uid="{DEFB72BA-AFD7-457A-BEC7-181EEDBD2DDA}"/>
+    <hyperlink ref="A480" r:id="rId213" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66693" xr:uid="{36A8A1E2-6C87-4F7D-A85A-E275D1B8162C}"/>
+    <hyperlink ref="A479" r:id="rId214" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66676" xr:uid="{B8C10284-7A2C-44DF-AA13-13FCD05F6923}"/>
+    <hyperlink ref="A478" r:id="rId215" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66633" xr:uid="{7F112BAB-AFF5-4A63-BA3C-FA60A60AC9D1}"/>
+    <hyperlink ref="A477" r:id="rId216" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26176" xr:uid="{2C9D81FD-9D8F-4B3E-B948-653CFDE0618A}"/>
+    <hyperlink ref="A476" r:id="rId217" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26175" xr:uid="{BE5928FC-8E2E-47A5-B2A7-F3056AA9AFA4}"/>
+    <hyperlink ref="A475" r:id="rId218" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68449" xr:uid="{9386D174-025E-4787-B87C-C3F37A8E4EB1}"/>
+    <hyperlink ref="A474" r:id="rId219" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66675" xr:uid="{509AE2D5-C7B6-43D3-A256-FA048BD7C330}"/>
+    <hyperlink ref="A473" r:id="rId220" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64470" xr:uid="{1818CCD0-1D9C-40CE-99F1-88FCAFFE165F}"/>
+    <hyperlink ref="A472" r:id="rId221" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68752" xr:uid="{67A83A7F-7C91-4A98-B599-3EB2C0F0FAA3}"/>
+    <hyperlink ref="A471" r:id="rId222" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83757" xr:uid="{47123796-AB36-4988-886F-2C1823916D91}"/>
+    <hyperlink ref="A468" r:id="rId223" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84159" xr:uid="{96EB0291-7154-4F1C-9671-30E4DF6384CB}"/>
+    <hyperlink ref="A467" r:id="rId224" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87805" xr:uid="{46B99202-421F-4DDB-B6ED-C5C082EE3092}"/>
+    <hyperlink ref="A466" r:id="rId225" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25289" xr:uid="{89AC5FB3-4CCB-4801-BECA-562692B99317}"/>
+    <hyperlink ref="A465" r:id="rId226" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79113" xr:uid="{63C9CFDB-5A0F-4B3B-B66A-925CD1B91AE2}"/>
+    <hyperlink ref="A464" r:id="rId227" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79219" xr:uid="{77DF2C40-1C4A-4715-B1D8-BC6716C2B07D}"/>
+    <hyperlink ref="A463" r:id="rId228" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85268" xr:uid="{06622045-97D7-4657-A89E-DCA0B45A24FF}"/>
+    <hyperlink ref="A462" r:id="rId229" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66769" xr:uid="{532ABB97-1473-484C-9E23-26CF54EFBAD0}"/>
+    <hyperlink ref="A461" r:id="rId230" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86084" xr:uid="{716B1D48-F885-4DF8-929A-F257CBBA9E09}"/>
+    <hyperlink ref="A460" r:id="rId231" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66766" xr:uid="{166D6C1C-7540-40EC-908B-B36DE3E93A11}"/>
+    <hyperlink ref="A459" r:id="rId232" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26327" xr:uid="{703FFC09-B5A3-4E90-A239-252215766F26}"/>
+    <hyperlink ref="A458" r:id="rId233" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90906" xr:uid="{90808E44-BE5B-4D4A-AD42-2B3E2BA2D36C}"/>
+    <hyperlink ref="A457" r:id="rId234" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79111" xr:uid="{83C3AA8F-D242-45E6-9BA7-D6C9F11F917F}"/>
+    <hyperlink ref="A456" r:id="rId235" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89884" xr:uid="{2E5E6D05-252E-4422-AF97-0DB6F1267DB5}"/>
+    <hyperlink ref="A455" r:id="rId236" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66760" xr:uid="{96933EA3-4827-4910-A380-BB0FBBB530C8}"/>
+    <hyperlink ref="A454" r:id="rId237" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90855" xr:uid="{A18E5887-4415-4FE6-B12B-11DAEB1314BF}"/>
+    <hyperlink ref="A453" r:id="rId238" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89739" xr:uid="{89E8254A-BFA3-42B8-B161-B0B5F69760E8}"/>
+    <hyperlink ref="A452" r:id="rId239" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83158" xr:uid="{C3656AB4-E7C0-4F83-8BBB-4C17B3C0EAF1}"/>
+    <hyperlink ref="A451" r:id="rId240" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83157" xr:uid="{11B557BA-C409-46DA-86D7-A7C66228681A}"/>
+    <hyperlink ref="A450" r:id="rId241" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92902" xr:uid="{A920D8D4-00D5-4508-B640-B6ED8775356D}"/>
+    <hyperlink ref="A449" r:id="rId242" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83156" xr:uid="{C99ADC51-1251-426E-9A70-F83EB616566A}"/>
+    <hyperlink ref="A448" r:id="rId243" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86604" xr:uid="{31621B5F-EB9D-4E32-B79E-9EC38921F72B}"/>
+    <hyperlink ref="A447" r:id="rId244" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83155" xr:uid="{DF54E86B-976D-4D20-B190-0726976DEBB3}"/>
+    <hyperlink ref="A446" r:id="rId245" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83153" xr:uid="{C80C2129-113B-45CC-9E58-BF34B7A1236B}"/>
+    <hyperlink ref="A445" r:id="rId246" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81542" xr:uid="{ED2E4FE9-18A6-48B4-894E-61F687CF7B65}"/>
+    <hyperlink ref="A444" r:id="rId247" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68363" xr:uid="{A2A64807-1147-4DA6-85E7-1E71BFC7D15C}"/>
+    <hyperlink ref="A443" r:id="rId248" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83146" xr:uid="{23DB7AAC-FB5D-4F11-8E99-09F448A9BEC6}"/>
+    <hyperlink ref="A442" r:id="rId249" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83144" xr:uid="{900D25A4-44FE-4C81-A2A4-B1519468E27C}"/>
+    <hyperlink ref="A441" r:id="rId250" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86599" xr:uid="{9BD79FEB-8DC9-4CFE-B0DB-9FEC75DCD1C3}"/>
+    <hyperlink ref="A440" r:id="rId251" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66782" xr:uid="{8EEB39E9-E53B-4125-8885-66D2F436C0FE}"/>
+    <hyperlink ref="A439" r:id="rId252" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83138" xr:uid="{F0962760-6460-4D6E-A158-3D8E454576CD}"/>
+    <hyperlink ref="A438" r:id="rId253" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81552" xr:uid="{E0A341A7-0353-427B-8E32-70BCA22209F2}"/>
+    <hyperlink ref="A437" r:id="rId254" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83136" xr:uid="{3BB8DD7F-6332-4A1A-AF42-B767BA9EA09E}"/>
+    <hyperlink ref="A436" r:id="rId255" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82676" xr:uid="{303AEE17-3B36-4685-A266-A1B3E3D4FFBA}"/>
+    <hyperlink ref="A435" r:id="rId256" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66780" xr:uid="{0E9544F9-FD20-415D-8DBE-42D78940B9F4}"/>
+    <hyperlink ref="A434" r:id="rId257" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67220" xr:uid="{DAB1A698-5C5E-461D-B80A-EAA87EB97FF2}"/>
+    <hyperlink ref="A433" r:id="rId258" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78959" xr:uid="{C414536F-202C-4021-A924-6141F84BACE2}"/>
+    <hyperlink ref="A432" r:id="rId259" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90325" xr:uid="{3F677D5B-A188-4D64-AFBA-873DD9463B32}"/>
+    <hyperlink ref="A431" r:id="rId260" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89126" xr:uid="{7747681C-6257-4DA0-AAFA-2AD76DFCDCD1}"/>
+    <hyperlink ref="A430" r:id="rId261" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84741" xr:uid="{2D31F29B-1C24-4970-942C-9D4B50C5EBF4}"/>
+    <hyperlink ref="A429" r:id="rId262" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77672" xr:uid="{7B29A6E8-58FB-4F87-8EF4-E7786A7A685D}"/>
+    <hyperlink ref="A428" r:id="rId263" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83885" xr:uid="{58E8CE77-A08E-4355-AE79-BCE1B68D62BE}"/>
+    <hyperlink ref="A427" r:id="rId264" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83886" xr:uid="{B8E6BC2C-2FF2-4E8F-BA2C-34E9DB26E49A}"/>
+    <hyperlink ref="A424" r:id="rId265" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25907" xr:uid="{A311CBF8-9ADB-452C-BF98-91F2A2BD8D7B}"/>
+    <hyperlink ref="A423" r:id="rId266" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87597" xr:uid="{8C7E61B3-2724-4E5B-8078-4427DDDA4888}"/>
+    <hyperlink ref="A422" r:id="rId267" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=291" xr:uid="{AE6C42FA-6945-47DB-88FD-A5447627F270}"/>
+    <hyperlink ref="A421" r:id="rId268" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92894" xr:uid="{B37D3F82-D801-45F0-A79A-A3772C36BDA1}"/>
+    <hyperlink ref="A420" r:id="rId269" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=299" xr:uid="{428EF467-9B08-488D-915F-29D1234FCB7A}"/>
+    <hyperlink ref="A419" r:id="rId270" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=185" xr:uid="{91D54D20-5FA7-4586-8E52-83DFEEC40ED2}"/>
+    <hyperlink ref="A418" r:id="rId271" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77" xr:uid="{1CC86A2F-EB87-434F-AE0C-D92A01A8DB28}"/>
+    <hyperlink ref="A417" r:id="rId272" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=98" xr:uid="{741AC7BD-3E31-4E2F-BCE3-BA5AF2C4F413}"/>
+    <hyperlink ref="A416" r:id="rId273" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88" xr:uid="{C333BFA5-38CE-437C-B443-2F3B0CAE8730}"/>
+    <hyperlink ref="A415" r:id="rId274" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=217" xr:uid="{E1B7C8D8-A06D-41AB-A957-C3F07A60BE22}"/>
+    <hyperlink ref="A414" r:id="rId275" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85104" xr:uid="{89694F7D-45B8-4F78-A48F-9089C39EB159}"/>
+    <hyperlink ref="A413" r:id="rId276" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=226" xr:uid="{D085C72C-1D5A-45B1-9113-C9BB161BA0A6}"/>
+    <hyperlink ref="A412" r:id="rId277" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66647" xr:uid="{ACEC808C-BE88-4609-A82C-43FD01594492}"/>
+    <hyperlink ref="A411" r:id="rId278" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90832" xr:uid="{ACC45E9E-3847-4FA6-AD5A-6956E2413220}"/>
+    <hyperlink ref="A410" r:id="rId279" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87607" xr:uid="{D471ED98-F689-4C9C-A9DC-5206D1CC5F31}"/>
+    <hyperlink ref="A409" r:id="rId280" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87606" xr:uid="{A7EB0D19-8E6D-48B3-882C-4EFE5BB57C61}"/>
+    <hyperlink ref="A408" r:id="rId281" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59278" xr:uid="{D822E148-46BA-4790-9A51-7DC036605D52}"/>
+    <hyperlink ref="A407" r:id="rId282" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26775" xr:uid="{6EB6EA58-7D8E-4D3A-90B4-9F911F6A23C6}"/>
+    <hyperlink ref="A406" r:id="rId283" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=93739" xr:uid="{49F584B4-AAE2-43BB-9EE9-AD26B231B44A}"/>
+    <hyperlink ref="A405" r:id="rId284" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=254" xr:uid="{A0D82B46-9998-4B0F-A921-B01F31B84DF0}"/>
+    <hyperlink ref="A404" r:id="rId285" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88020" xr:uid="{36805BAA-F603-43B5-8A9D-F004B1A6330F}"/>
+    <hyperlink ref="A403" r:id="rId286" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=278" xr:uid="{2E37D3AB-DEAF-4281-A48E-9D5FF0D9F873}"/>
+    <hyperlink ref="A402" r:id="rId287" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=313" xr:uid="{7488AA1A-34F5-45F2-B203-5D1E50F51D9A}"/>
+    <hyperlink ref="A401" r:id="rId288" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=239" xr:uid="{45406F9A-4487-451A-8097-0FA1939DBC80}"/>
+    <hyperlink ref="A400" r:id="rId289" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=123" xr:uid="{C3C47556-0E0D-4398-B793-2F72D5295F7A}"/>
+    <hyperlink ref="A399" r:id="rId290" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=22" xr:uid="{2AD06F76-A685-4348-8178-D7E0DB2CAA3D}"/>
+    <hyperlink ref="A398" r:id="rId291" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=294" xr:uid="{F883AE15-5270-4417-8C53-B8996F829D48}"/>
+    <hyperlink ref="A397" r:id="rId292" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87618" xr:uid="{68F89661-3997-4F1E-BE6C-CED921380ADD}"/>
+    <hyperlink ref="A396" r:id="rId293" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87617" xr:uid="{489C6F0F-8685-44C3-82BB-4E28583CD34B}"/>
+    <hyperlink ref="A395" r:id="rId294" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88019" xr:uid="{CB262C42-0C3F-4D42-AAFE-BFE76D919968}"/>
+    <hyperlink ref="A394" r:id="rId295" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68050" xr:uid="{D851F980-237D-4F1B-B747-08410982E3E9}"/>
+    <hyperlink ref="A393" r:id="rId296" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86675" xr:uid="{4E27A365-65F3-406A-AE13-A8017252AF5F}"/>
+    <hyperlink ref="A392" r:id="rId297" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=40" xr:uid="{B3E5FD96-0E5E-4C63-B7C8-C660651845A2}"/>
+    <hyperlink ref="A391" r:id="rId298" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=333" xr:uid="{AFE6C675-A572-4D6C-8DA1-F89A5680DC66}"/>
+    <hyperlink ref="A390" r:id="rId299" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=75184" xr:uid="{11A7F46B-1213-46A5-8532-F09013DF3265}"/>
+    <hyperlink ref="A389" r:id="rId300" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64475" xr:uid="{9369148D-14AC-41F1-8EA9-3D2D818DF347}"/>
+    <hyperlink ref="A388" r:id="rId301" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=331" xr:uid="{314F13C6-1BE0-4610-A1EB-DE79135ED2AC}"/>
+    <hyperlink ref="A387" r:id="rId302" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=329" xr:uid="{57A3930F-2C1A-4535-9A4B-82A3A6F12762}"/>
+    <hyperlink ref="A386" r:id="rId303" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=183" xr:uid="{AAFEB713-9EF9-4CFB-A25A-C95CC5DE7EE8}"/>
+    <hyperlink ref="A385" r:id="rId304" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=267" xr:uid="{4E9A15F9-90A7-4852-ADA8-FA48C2BD83F1}"/>
+    <hyperlink ref="A384" r:id="rId305" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=214" xr:uid="{79E5356F-41CC-42B2-968A-030690DC3AFC}"/>
+    <hyperlink ref="A383" r:id="rId306" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66844" xr:uid="{D433C600-DA83-419F-850E-5383F2C67197}"/>
+    <hyperlink ref="A382" r:id="rId307" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=36" xr:uid="{0413B5A4-63D9-4129-8917-DDBC95942236}"/>
+    <hyperlink ref="A381" r:id="rId308" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25909" xr:uid="{172B2A09-7CE2-454B-8C41-E1EB2FFB6315}"/>
+    <hyperlink ref="A380" r:id="rId309" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88217" xr:uid="{B08EE9FE-0A7F-4F56-B84E-18790E96AE7F}"/>
+    <hyperlink ref="A379" r:id="rId310" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88218" xr:uid="{D700E5A5-78F7-4110-A489-2B52AC1AF82F}"/>
+    <hyperlink ref="A376" r:id="rId311" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67121" xr:uid="{6A9EB385-D4CC-4176-9CC1-AE5A2C48ED36}"/>
+    <hyperlink ref="A375" r:id="rId312" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26049" xr:uid="{0EEC1794-F697-41AD-8625-77471CC0035E}"/>
+    <hyperlink ref="A374" r:id="rId313" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82451" xr:uid="{D555C328-5258-47C4-8842-286E7DE44CDE}"/>
+    <hyperlink ref="A373" r:id="rId314" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59293" xr:uid="{83A2E2E6-E7E3-4235-878B-E76DA693DB8E}"/>
+    <hyperlink ref="A372" r:id="rId315" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67122" xr:uid="{B2E90C4B-99AA-400C-BDA1-B183D87DBDF8}"/>
+    <hyperlink ref="A371" r:id="rId316" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=832" xr:uid="{F92400AD-3217-47A0-8A45-7C11B5BAACB3}"/>
+    <hyperlink ref="A370" r:id="rId317" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64457" xr:uid="{E5A843B9-6B4C-4832-8433-F19A231AF9A3}"/>
+    <hyperlink ref="A369" r:id="rId318" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66491" xr:uid="{F66D55E1-D304-4525-8126-6D45842C0B2A}"/>
+    <hyperlink ref="A368" r:id="rId319" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89224" xr:uid="{CE52DCFC-4B7D-40DF-ACA2-977D4CB61162}"/>
+    <hyperlink ref="A367" r:id="rId320" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59459" xr:uid="{CF85EE9C-09BF-478F-A7BE-DD8CCA819484}"/>
+    <hyperlink ref="A366" r:id="rId321" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26006" xr:uid="{3DA68A7C-1293-4A88-8ACF-C549543B606D}"/>
+    <hyperlink ref="A365" r:id="rId322" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26005" xr:uid="{FDC850D6-6F65-4EDF-B799-9585A471F065}"/>
+    <hyperlink ref="A364" r:id="rId323" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85046" xr:uid="{6CDCCCD3-8F89-4F62-BFAB-18896B68E2DC}"/>
+    <hyperlink ref="A363" r:id="rId324" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64451" xr:uid="{C6B4D9E0-6D0C-40F1-BDE6-1A37298900AE}"/>
+    <hyperlink ref="A362" r:id="rId325" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=80202" xr:uid="{45D69E2C-27D7-4DC7-BB4A-72646AD3175D}"/>
+    <hyperlink ref="A361" r:id="rId326" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77037" xr:uid="{3878D15A-F3AC-4437-95AE-A72A25C5BA85}"/>
+    <hyperlink ref="A360" r:id="rId327" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26033" xr:uid="{9AEF1223-000B-4177-8191-FF34B762B978}"/>
+    <hyperlink ref="A359" r:id="rId328" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64449" xr:uid="{4F9B8154-E8B5-48A1-8EAF-D649C0279E00}"/>
+    <hyperlink ref="A358" r:id="rId329" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81024" xr:uid="{7E0FAB71-BD0D-4370-9FB8-54B6AE62C7C3}"/>
+    <hyperlink ref="A357" r:id="rId330" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81025" xr:uid="{278F4F19-1A09-4C1A-9E90-D6C295CED516}"/>
+    <hyperlink ref="A356" r:id="rId331" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=720" xr:uid="{605C8037-AB07-4FF0-8EDE-6F68645183EB}"/>
+    <hyperlink ref="A355" r:id="rId332" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64447" xr:uid="{D08D4DC2-3079-4DE4-A2F5-0BD8414CAB41}"/>
+    <hyperlink ref="A354" r:id="rId333" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91824" xr:uid="{1CD20F46-13B7-4F41-B046-4F7676DA08C8}"/>
+    <hyperlink ref="A353" r:id="rId334" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26021" xr:uid="{B875BF5B-DA35-49C0-B423-3A8B02A0224C}"/>
+    <hyperlink ref="A352" r:id="rId335" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59350" xr:uid="{4E7619E8-01F9-4B0D-8697-01A249DC15A1}"/>
+    <hyperlink ref="A351" r:id="rId336" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=418" xr:uid="{FB1B1D40-D3C2-4CC8-B1A6-4B4E33E17277}"/>
+    <hyperlink ref="A350" r:id="rId337" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59297" xr:uid="{E71BFFC9-6B76-415E-BC90-C9353606FAAB}"/>
+    <hyperlink ref="A349" r:id="rId338" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26188" xr:uid="{2D8F0BA0-D2C3-45B6-8331-1A41D0CFEBEF}"/>
+    <hyperlink ref="A348" r:id="rId339" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86394" xr:uid="{CBBD2E54-3C91-412F-82E5-35D3CDBDAE50}"/>
+    <hyperlink ref="A347" r:id="rId340" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26027" xr:uid="{5108F38F-E1EB-4E5F-9B2B-0F9170FBF83C}"/>
+    <hyperlink ref="A346" r:id="rId341" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=80453" xr:uid="{BDB93E35-19E9-4A4A-B6DD-526887953133}"/>
+    <hyperlink ref="A345" r:id="rId342" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67093" xr:uid="{92C34581-784F-4C2C-B635-6DB07A7D6864}"/>
+    <hyperlink ref="A344" r:id="rId343" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=449" xr:uid="{4D7CEBD1-4CCF-4F7A-A80C-E3CA88A2F115}"/>
+    <hyperlink ref="A343" r:id="rId344" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64442" xr:uid="{059ECBC2-228F-4C55-B652-96A52001406A}"/>
+    <hyperlink ref="A342" r:id="rId345" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1060" xr:uid="{9647AA84-06EE-448B-A4D7-231BEFEFBA17}"/>
+    <hyperlink ref="A341" r:id="rId346" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82926" xr:uid="{2E1FCE36-4CF2-4615-A950-B44752F6CA3C}"/>
+    <hyperlink ref="A340" r:id="rId347" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=845" xr:uid="{394B2EFB-5454-4023-8642-32ABE8072460}"/>
+    <hyperlink ref="A339" r:id="rId348" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86432" xr:uid="{6A9E68EC-9304-40B4-A2A4-9C977D5552A7}"/>
+    <hyperlink ref="A338" r:id="rId349" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86380" xr:uid="{DAEBCAB1-7F7A-4F27-946F-B7B08208FF93}"/>
+    <hyperlink ref="A337" r:id="rId350" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87732" xr:uid="{3502AC3E-8D63-463D-BB36-B32B9F9DEDC3}"/>
+    <hyperlink ref="A336" r:id="rId351" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88994" xr:uid="{4ADD5F66-D8E4-4F87-B2BE-CAF517D02066}"/>
+    <hyperlink ref="A335" r:id="rId352" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1011" xr:uid="{B4CF4A33-7731-4DAD-A255-DF5FA5770DB4}"/>
+    <hyperlink ref="A334" r:id="rId353" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=413" xr:uid="{F56822DB-517C-46EA-968B-9392153A7582}"/>
+    <hyperlink ref="A333" r:id="rId354" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=942" xr:uid="{9AEDA062-71F1-4488-9E9A-C3B53856B49B}"/>
+    <hyperlink ref="A332" r:id="rId355" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67089" xr:uid="{045CFCB4-AA94-4647-9E57-7DB963902A0A}"/>
+    <hyperlink ref="A331" r:id="rId356" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64456" xr:uid="{D754C461-F0E5-4248-8175-9768A8A268FE}"/>
+    <hyperlink ref="A330" r:id="rId357" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66471" xr:uid="{D449C579-1C59-43C0-A4EA-6F8E5C8724EF}"/>
+    <hyperlink ref="A329" r:id="rId358" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64405" xr:uid="{73DD3274-CF0C-46F4-99DC-3990A464C9CD}"/>
+    <hyperlink ref="A328" r:id="rId359" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=515" xr:uid="{0EFD6434-D703-4399-AEC6-F1F2A00B5785}"/>
+    <hyperlink ref="A327" r:id="rId360" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=533" xr:uid="{7FD504DE-EB47-49E3-99B6-33CFEA609532}"/>
+    <hyperlink ref="A326" r:id="rId361" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67046" xr:uid="{7A53AEC3-7ABA-45FC-9FC1-F696E8704757}"/>
+    <hyperlink ref="A325" r:id="rId362" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=879" xr:uid="{FAAF16FD-17DC-48F5-BCD9-50CE37679C9B}"/>
+    <hyperlink ref="A324" r:id="rId363" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67030" xr:uid="{1187725D-F499-4420-8AC9-3768518A23DB}"/>
+    <hyperlink ref="A323" r:id="rId364" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25977" xr:uid="{1540118B-0FA7-45A8-8C42-96E72317F476}"/>
+    <hyperlink ref="A322" r:id="rId365" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25986" xr:uid="{69A6D0A2-C7EF-43CB-989F-D81D0FAA0FF4}"/>
+    <hyperlink ref="A321" r:id="rId366" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87737" xr:uid="{83D31908-CCBA-4D87-BE87-0AB71D2D4E72}"/>
+    <hyperlink ref="A320" r:id="rId367" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64436" xr:uid="{C58733FA-93FE-4493-8837-D15837FF65F8}"/>
+    <hyperlink ref="A319" r:id="rId368" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87736" xr:uid="{CEA9F088-FE58-4028-A99C-02BC473C1FF6}"/>
+    <hyperlink ref="A318" r:id="rId369" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25982" xr:uid="{D7504F34-5D3C-429A-99E5-1AA1207521AE}"/>
+    <hyperlink ref="A317" r:id="rId370" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=768" xr:uid="{B25C830F-56BC-4B7A-8652-C72AD7BAE2CE}"/>
+    <hyperlink ref="A316" r:id="rId371" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67071" xr:uid="{97D83609-84E5-4163-94F1-D8F6565F0A45}"/>
+    <hyperlink ref="A315" r:id="rId372" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1001" xr:uid="{4B69CFB4-011F-4146-BD8C-25C680BBF123}"/>
+    <hyperlink ref="A314" r:id="rId373" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=655" xr:uid="{76C5D33C-EB35-40A0-9C8B-192409FA29D9}"/>
+    <hyperlink ref="A313" r:id="rId374" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=654" xr:uid="{5A14DD83-314B-410E-9758-F5426FB186C4}"/>
+    <hyperlink ref="A312" r:id="rId375" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64435" xr:uid="{6B6FAF8D-B1D1-447E-95DA-193BF11F9200}"/>
+    <hyperlink ref="A311" r:id="rId376" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91648" xr:uid="{6BC92D12-FBBA-4655-B48B-C551100C6556}"/>
+    <hyperlink ref="A310" r:id="rId377" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86270" xr:uid="{39269D8C-FC5B-4F61-95F1-53D6752B866A}"/>
+    <hyperlink ref="A309" r:id="rId378" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=558" xr:uid="{26B34C33-0A50-4E6F-A348-F082BB0915AA}"/>
+    <hyperlink ref="A308" r:id="rId379" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67065" xr:uid="{0555A072-60EA-41F0-9B4C-7974B350C05F}"/>
+    <hyperlink ref="A307" r:id="rId380" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82408" xr:uid="{A49A260E-E304-4D64-84F6-AFBC1369DD91}"/>
+    <hyperlink ref="A306" r:id="rId381" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91709" xr:uid="{7BD180B9-4983-4E2C-8E99-9DB0B7929A80}"/>
+    <hyperlink ref="A303" r:id="rId382" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1568" xr:uid="{335907D9-DECA-473E-AECA-5855D0289FB7}"/>
+    <hyperlink ref="A302" r:id="rId383" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90479" xr:uid="{01BFD6D4-D680-4DA2-90C2-04AD54C1B1A6}"/>
+    <hyperlink ref="A301" r:id="rId384" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87888" xr:uid="{71FAB8A5-8E4C-4E99-8CD0-918CBE3F4E7F}"/>
+    <hyperlink ref="A300" r:id="rId385" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1270" xr:uid="{176771C8-21F8-428C-8A1F-9D3B79A93D3F}"/>
+    <hyperlink ref="A299" r:id="rId386" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89489" xr:uid="{FD1AB3B7-B409-4859-8875-F272D3768F32}"/>
+    <hyperlink ref="A298" r:id="rId387" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84408" xr:uid="{E9D3AEF6-693B-4846-AA5A-685554E0F0FD}"/>
+    <hyperlink ref="A297" r:id="rId388" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89459" xr:uid="{8A19386C-55AE-47C9-AC31-C808630021D0}"/>
+    <hyperlink ref="A296" r:id="rId389" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86075" xr:uid="{A1B464DE-0612-4814-8D64-FCBE83A1BD5D}"/>
+    <hyperlink ref="A295" r:id="rId390" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82993" xr:uid="{53A3FEB2-614A-4A10-8C3D-EBD333E04527}"/>
+    <hyperlink ref="A294" r:id="rId391" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84053" xr:uid="{E8565398-3F3D-49B3-8CC0-A9426F225EEB}"/>
+    <hyperlink ref="A293" r:id="rId392" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83163" xr:uid="{41FC7F61-FA40-4ED8-B1E3-3E19E8E25929}"/>
+    <hyperlink ref="A292" r:id="rId393" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87162" xr:uid="{EC3650B1-C9DE-4BBC-A8B7-D569AC876918}"/>
+    <hyperlink ref="A291" r:id="rId394" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83079" xr:uid="{31234DC2-DBFD-4103-8A81-CC56BA9586B7}"/>
+    <hyperlink ref="A290" r:id="rId395" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85296" xr:uid="{CCF612C2-99BB-407A-A16F-79C9BD5E4253}"/>
+    <hyperlink ref="A289" r:id="rId396" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1378" xr:uid="{54C208ED-56C4-49A4-B7BA-F83CA3617522}"/>
+    <hyperlink ref="A288" r:id="rId397" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1767" xr:uid="{4E2C6C2F-05EF-462F-85D4-0918FFA4E09C}"/>
+    <hyperlink ref="A287" r:id="rId398" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1182" xr:uid="{F14AF216-1D56-41E9-9AC8-5F5AA2DF9B3C}"/>
+    <hyperlink ref="A286" r:id="rId399" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1179" xr:uid="{7928C153-D4A3-4D4B-B94D-E5AACB852A35}"/>
+    <hyperlink ref="A285" r:id="rId400" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64487" xr:uid="{72D6CF72-2BEE-480F-8DC6-6C34596628B8}"/>
+    <hyperlink ref="A284" r:id="rId401" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59199" xr:uid="{41FF9C5B-D572-4C61-8A84-62FBDD39E0F6}"/>
+    <hyperlink ref="A283" r:id="rId402" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64389" xr:uid="{C6BB070E-67E2-47CD-BD1C-8C686A108C9F}"/>
+    <hyperlink ref="A282" r:id="rId403" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67197" xr:uid="{AD656426-3D04-4446-8684-D234EE2FC339}"/>
+    <hyperlink ref="A281" r:id="rId404" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64483" xr:uid="{A839CA85-76AE-4DD4-A47D-DE007DCB7701}"/>
+    <hyperlink ref="A280" r:id="rId405" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1768" xr:uid="{97136BC0-881C-40D9-A992-1D3B9608B74A}"/>
+    <hyperlink ref="A279" r:id="rId406" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86865" xr:uid="{F9104D4B-159B-42E5-BE54-BA88F79A4193}"/>
+    <hyperlink ref="A278" r:id="rId407" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64721" xr:uid="{093B07DF-3753-4216-A7AF-B46BEA83CFA3}"/>
+    <hyperlink ref="A277" r:id="rId408" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83106" xr:uid="{1C9894FE-21CC-4D1A-AD0D-7BCB8C2AF0AA}"/>
+    <hyperlink ref="A276" r:id="rId409" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90209" xr:uid="{34167136-2C11-4FE8-B65F-2A302B465D61}"/>
+    <hyperlink ref="A275" r:id="rId410" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90207" xr:uid="{B0E87597-1EC8-40A5-8108-E1F8FDBCFC49}"/>
+    <hyperlink ref="A274" r:id="rId411" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90205" xr:uid="{F726AB53-5A89-4782-A5EB-EDFC723547C0}"/>
+    <hyperlink ref="A273" r:id="rId412" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1763" xr:uid="{D7F153B7-89FC-4598-B339-136283E9ABC3}"/>
+    <hyperlink ref="A272" r:id="rId413" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83161" xr:uid="{63434CED-8F06-499A-BDED-5562243C3EDD}"/>
+    <hyperlink ref="A269" r:id="rId414" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1873" xr:uid="{03E0FA7D-4513-4938-97DC-879BB68A9CFB}"/>
+    <hyperlink ref="A268" r:id="rId415" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89189" xr:uid="{4878D9CD-1AA3-4DC5-BE9B-53ADF0470A8D}"/>
+    <hyperlink ref="A267" r:id="rId416" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1887" xr:uid="{7CBB273F-8F76-4E46-8B3F-FAB3C243E97A}"/>
+    <hyperlink ref="A266" r:id="rId417" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78930" xr:uid="{EA985102-2A7E-4DA5-A36F-512990FB7D73}"/>
+    <hyperlink ref="A265" r:id="rId418" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1935" xr:uid="{8C063BF8-19AB-41DE-9B7B-99668BC7AEF2}"/>
+    <hyperlink ref="A264" r:id="rId419" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25960" xr:uid="{DAF0C7F0-8F4E-44F9-A082-B0092AD6692C}"/>
+    <hyperlink ref="A263" r:id="rId420" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91509" xr:uid="{927DCA4A-A8BF-44A0-A0B5-72EF1C7C8E32}"/>
+    <hyperlink ref="A262" r:id="rId421" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64733" xr:uid="{1E54C13E-9401-4519-80DF-2698C6296668}"/>
+    <hyperlink ref="A261" r:id="rId422" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1844" xr:uid="{C342790D-F608-4B84-997A-3B5A8E4AEB09}"/>
+    <hyperlink ref="A260" r:id="rId423" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59151" xr:uid="{4D228DE1-7AE4-47DC-B105-287F19EAB0E3}"/>
+    <hyperlink ref="A259" r:id="rId424" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79086" xr:uid="{71C9DCEE-9A79-49A4-91FB-F83C46733F5C}"/>
+    <hyperlink ref="A256" r:id="rId425" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83504" xr:uid="{7F58A54B-DE08-4693-9FA9-41BAFAB604A5}"/>
+    <hyperlink ref="A255" r:id="rId426" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=56792" xr:uid="{F1C04C17-55C8-47BF-B3E4-B66DA15A5FFD}"/>
+    <hyperlink ref="A254" r:id="rId427" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26180" xr:uid="{5EB2979E-E786-4939-944E-F748C979B8C5}"/>
+    <hyperlink ref="A253" r:id="rId428" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77039" xr:uid="{6ACD8E39-3745-47C4-8ABB-3D07A8555FEE}"/>
+    <hyperlink ref="A252" r:id="rId429" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88315" xr:uid="{CCDF8290-203E-4E8E-8A51-308F62DADB65}"/>
+    <hyperlink ref="A251" r:id="rId430" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64468" xr:uid="{946BDC73-9201-4963-BB03-C1C678CEEBAF}"/>
+    <hyperlink ref="A250" r:id="rId431" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26177" xr:uid="{DFEA8D2A-4E14-4EF9-9A3C-283510D00A32}"/>
+    <hyperlink ref="A249" r:id="rId432" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81530" xr:uid="{5FE6680A-BEAA-45F5-BFDA-B677DB93651E}"/>
+    <hyperlink ref="A248" r:id="rId433" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26185" xr:uid="{F5E17BAF-D2AD-4262-93B6-E66452D7A9DB}"/>
+    <hyperlink ref="A247" r:id="rId434" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66632" xr:uid="{B7B874F6-DE0B-4C2C-9B76-365B313AB0C8}"/>
+    <hyperlink ref="A246" r:id="rId435" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83806" xr:uid="{5AE49F57-D69D-481C-912D-B6817F51E949}"/>
+    <hyperlink ref="A245" r:id="rId436" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26171" xr:uid="{B466EE5F-2FAE-4B2A-A2AC-6AD69A7F0F4A}"/>
+    <hyperlink ref="A244" r:id="rId437" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26170" xr:uid="{3DF9039C-7286-46BC-BB83-27EE7A6C49AA}"/>
+    <hyperlink ref="A243" r:id="rId438" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66240" xr:uid="{AFD3D618-1C28-4B39-8B82-998E7F0CDBAA}"/>
+    <hyperlink ref="A242" r:id="rId439" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82454" xr:uid="{95A7E45D-A395-4FFA-808C-014D018D7BA8}"/>
+    <hyperlink ref="A241" r:id="rId440" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=56790" xr:uid="{657F1A4E-B118-4E3D-B094-F0CC51C166A4}"/>
+    <hyperlink ref="A240" r:id="rId441" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88677" xr:uid="{FE6A91AC-978E-4991-AE5E-2BFCEB162ED7}"/>
+    <hyperlink ref="A239" r:id="rId442" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89857" xr:uid="{E2F77206-A9C5-420E-B09C-072F416405F8}"/>
+    <hyperlink ref="A238" r:id="rId443" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87175" xr:uid="{6F2E10C3-0192-4BFA-909F-5833EFD335FB}"/>
+    <hyperlink ref="A237" r:id="rId444" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26184" xr:uid="{896D0295-2BA8-4C07-89A4-C2F890386068}"/>
+    <hyperlink ref="A236" r:id="rId445" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26168" xr:uid="{77451B1A-7E65-441B-AE13-BCA0AFCF2405}"/>
+    <hyperlink ref="A235" r:id="rId446" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26167" xr:uid="{5F70082F-4A3A-4727-B294-F781290BA4A3}"/>
+    <hyperlink ref="A234" r:id="rId447" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77038" xr:uid="{E3277A4D-C707-4898-8795-2AC1F278CBE1}"/>
+    <hyperlink ref="A233" r:id="rId448" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=56791" xr:uid="{75B4BC6A-9B51-491B-B57F-F0B7A8F45514}"/>
+    <hyperlink ref="A232" r:id="rId449" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64698" xr:uid="{4220AAD7-D5C6-4736-A5D5-0E87EFDECE63}"/>
+    <hyperlink ref="A231" r:id="rId450" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86541" xr:uid="{EA637BAC-93A6-442D-B8EB-4B93007FDF8C}"/>
+    <hyperlink ref="A228" r:id="rId451" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90907" xr:uid="{696AC6CC-3598-4FAB-930E-5708B584FA45}"/>
+    <hyperlink ref="A227" r:id="rId452" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66774" xr:uid="{D2143FA1-14E5-4C03-A5FF-7065ED9565DC}"/>
+    <hyperlink ref="A226" r:id="rId453" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81253" xr:uid="{B8B8287C-559C-4C97-9862-3C054A46B463}"/>
+    <hyperlink ref="A225" r:id="rId454" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86868" xr:uid="{B99A8DE5-0EFE-41D6-AB00-2F4F664A184D}"/>
+    <hyperlink ref="A224" r:id="rId455" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81249" xr:uid="{C2C8F275-6F11-4A4C-8F88-C4EFBC3DBF65}"/>
+    <hyperlink ref="A223" r:id="rId456" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85279" xr:uid="{A9B5E6B0-9D90-447A-A32C-FA52D930D32C}"/>
+    <hyperlink ref="A222" r:id="rId457" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92260" xr:uid="{4CF180D6-ED3D-4A0A-BC8F-09A576AC6305}"/>
+    <hyperlink ref="A221" r:id="rId458" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84736" xr:uid="{6E516C54-08E8-4BEF-A36F-D45BB4285891}"/>
+    <hyperlink ref="A220" r:id="rId459" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=79221" xr:uid="{40DCD6D7-78C0-48B2-B6CA-BCE29AFF1BC2}"/>
+    <hyperlink ref="A219" r:id="rId460" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77743" xr:uid="{0D66F442-C103-47CB-BC34-BDCA7B4F4328}"/>
+    <hyperlink ref="A218" r:id="rId461" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66821" xr:uid="{AF1063F9-8C0E-4360-A4B7-4DD96955193E}"/>
+    <hyperlink ref="A217" r:id="rId462" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81247" xr:uid="{98BD183E-AFF4-4336-BECF-A181674F0D15}"/>
+    <hyperlink ref="A216" r:id="rId463" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82084" xr:uid="{ECF5ABD1-710B-481C-BA9B-D0F46497231C}"/>
+    <hyperlink ref="A215" r:id="rId464" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81851" xr:uid="{B7810234-9537-400F-A416-1AD18C342DB7}"/>
+    <hyperlink ref="A214" r:id="rId465" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81252" xr:uid="{A9935700-7D63-4346-BA73-059D683229BA}"/>
+    <hyperlink ref="A213" r:id="rId466" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81852" xr:uid="{74561EB1-8963-4B23-9129-F1371E0AE562}"/>
+    <hyperlink ref="A212" r:id="rId467" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66762" xr:uid="{2ED5E5E9-BFD0-4E4D-801B-90CB943B41CE}"/>
+    <hyperlink ref="A211" r:id="rId468" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66756" xr:uid="{E601C642-6C09-42DC-89EB-AC5C812DA238}"/>
+    <hyperlink ref="A210" r:id="rId469" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82953" xr:uid="{5E140773-EC7E-47FA-B93B-5A40B5EC02F3}"/>
+    <hyperlink ref="A209" r:id="rId470" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=77869" xr:uid="{A2B1F571-A3C9-44FA-9B7E-60539CBFD82B}"/>
+    <hyperlink ref="A208" r:id="rId471" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66754" xr:uid="{3539E873-5DA9-432C-93A8-E3C1EE9EC029}"/>
+    <hyperlink ref="A207" r:id="rId472" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66734" xr:uid="{85692326-C8A7-4724-AF00-9DCB6599896F}"/>
+    <hyperlink ref="A206" r:id="rId473" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82864" xr:uid="{D0FE19D0-D233-4F31-9E9F-D55DB23EACAB}"/>
+    <hyperlink ref="A205" r:id="rId474" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90756" xr:uid="{34D2A2AC-998A-4FF5-BCC9-91C38592BD71}"/>
+    <hyperlink ref="A204" r:id="rId475" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90715" xr:uid="{4220E88A-3F6F-4464-A931-86ADBCE439C4}"/>
+    <hyperlink ref="A203" r:id="rId476" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86603" xr:uid="{5D07BA36-4AD8-4DB7-876C-8B5E9F9F397E}"/>
+    <hyperlink ref="A202" r:id="rId477" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86602" xr:uid="{8DB41FB7-F220-41BA-B639-FF3FFE90B226}"/>
+    <hyperlink ref="A201" r:id="rId478" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83148" xr:uid="{3C5A7442-C687-401C-BAA8-B1CA97071D50}"/>
+    <hyperlink ref="A200" r:id="rId479" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81538" xr:uid="{5DC64890-D8ED-40CA-AD9E-DFF1E6686AB8}"/>
+    <hyperlink ref="A199" r:id="rId480" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83143" xr:uid="{2CFF255C-E290-4B5B-B1AC-338783E50654}"/>
+    <hyperlink ref="A198" r:id="rId481" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83141" xr:uid="{142233DE-18C7-4932-A2F8-3E36594692A3}"/>
+    <hyperlink ref="A197" r:id="rId482" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90755" xr:uid="{25ED2CCE-9FA4-49F7-8FF0-AD3848455B65}"/>
+    <hyperlink ref="A196" r:id="rId483" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86598" xr:uid="{FCF98EAB-99F5-4E64-A553-6FC020322B1F}"/>
+    <hyperlink ref="A195" r:id="rId484" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82675" xr:uid="{C20AEB33-0D39-48B5-8D68-5284C5DCAC9C}"/>
+    <hyperlink ref="A194" r:id="rId485" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82674" xr:uid="{4E9AA32F-06AD-40A6-B221-414395213844}"/>
+    <hyperlink ref="A193" r:id="rId486" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66752" xr:uid="{E6BE7C57-93DE-4546-A8AE-076228C62A29}"/>
+    <hyperlink ref="A192" r:id="rId487" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92235" xr:uid="{94DC6344-EFDD-45BC-9372-27D3E36E6D6A}"/>
+    <hyperlink ref="A191" r:id="rId488" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78931" xr:uid="{242F5AB4-E75E-478E-8E08-63F185900F11}"/>
+    <hyperlink ref="A190" r:id="rId489" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88056" xr:uid="{AD5D19FD-362B-4BEB-908B-D75F0D7975AC}"/>
+    <hyperlink ref="A189" r:id="rId490" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90200" xr:uid="{A6A74D13-CF11-48D4-84A4-B88467FD60C9}"/>
+    <hyperlink ref="A188" r:id="rId491" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81250" xr:uid="{657B154A-D2EE-4385-A227-DA421138185F}"/>
+    <hyperlink ref="A187" r:id="rId492" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67458" xr:uid="{9702A3C2-88CC-4C51-8BAC-7B81FCF1082D}"/>
+    <hyperlink ref="A184" r:id="rId493" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68" xr:uid="{2DF6B774-172B-4B81-9576-19BF8D3D391D}"/>
+    <hyperlink ref="A183" r:id="rId494" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87611" xr:uid="{A7D0B8DE-B765-4C16-BE43-F6EC96BE8AE1}"/>
+    <hyperlink ref="A182" r:id="rId495" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25911" xr:uid="{A97C01DF-B4B3-4FD4-8072-5E7BD9B7DB4A}"/>
+    <hyperlink ref="A181" r:id="rId496" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66642" xr:uid="{DFA38772-E299-46CC-9F3A-79D66C5052BE}"/>
+    <hyperlink ref="A180" r:id="rId497" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87605" xr:uid="{6308123B-E32E-465A-8350-3F4B56FCB8AD}"/>
+    <hyperlink ref="A179" r:id="rId498" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87645" xr:uid="{182B4909-56EC-4269-9436-8B61D27BEC15}"/>
+    <hyperlink ref="A178" r:id="rId499" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=198" xr:uid="{4EBCFBCB-F7DD-4884-91C3-13D281349984}"/>
+    <hyperlink ref="A177" r:id="rId500" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=273" xr:uid="{528766E8-E34E-4CC5-B820-23177335E8B0}"/>
+    <hyperlink ref="A176" r:id="rId501" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86568" xr:uid="{E1CF58A7-7D4D-4E7B-8A48-51F7C8B44476}"/>
+    <hyperlink ref="A173" r:id="rId502" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66973" xr:uid="{3516967F-8D34-40A3-A921-432205E010F6}"/>
+    <hyperlink ref="A172" r:id="rId503" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84650" xr:uid="{804A16DA-5EA2-4B42-9E2B-F823A83E33A1}"/>
+    <hyperlink ref="A171" r:id="rId504" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=906" xr:uid="{ADB1394E-5C1A-47FF-8720-2B14DD0A1F5D}"/>
+    <hyperlink ref="A170" r:id="rId505" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=847" xr:uid="{28785A4E-3583-42CF-8DF6-33AA1FACB164}"/>
+    <hyperlink ref="A169" r:id="rId506" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=747" xr:uid="{82758803-6D75-42F1-97D2-0E0AC04B1857}"/>
+    <hyperlink ref="A168" r:id="rId507" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67092" xr:uid="{1D4002EF-5038-489B-8EF7-8448F7DD332B}"/>
+    <hyperlink ref="A167" r:id="rId508" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26011" xr:uid="{C92F6549-F58E-4DB4-88BC-F2FC22AC7913}"/>
+    <hyperlink ref="A166" r:id="rId509" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=744" xr:uid="{A32DA72F-0DE8-444B-8621-F25E8D1A94EB}"/>
+    <hyperlink ref="A165" r:id="rId510" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67090" xr:uid="{C93E07B7-8E1D-40E2-90E6-E01F2B2E7C23}"/>
+    <hyperlink ref="A164" r:id="rId511" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59714" xr:uid="{CF88757D-34A2-4052-8359-64CFE2B6EBF9}"/>
+    <hyperlink ref="A163" r:id="rId512" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67099" xr:uid="{E0717111-7B35-4E09-A84E-11B761A4841D}"/>
+    <hyperlink ref="A162" r:id="rId513" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=856" xr:uid="{5212D68A-95B4-4B62-82B6-81EFE7CD5340}"/>
+    <hyperlink ref="A161" r:id="rId514" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82338" xr:uid="{F948643C-8CBA-40B4-B2B2-1B6F1037C115}"/>
+    <hyperlink ref="A160" r:id="rId515" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26001" xr:uid="{E510D4CF-A3BF-4721-B68F-8A543DC09A26}"/>
+    <hyperlink ref="A159" r:id="rId516" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86183" xr:uid="{514B8788-E10B-4782-8C9B-D67F394ED8A6}"/>
+    <hyperlink ref="A158" r:id="rId517" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82329" xr:uid="{AAC3CB5B-7FED-4F89-8E1C-B5E36D24F4C4}"/>
+    <hyperlink ref="A155" r:id="rId518" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88103" xr:uid="{90B13F54-E87E-40C2-90AF-78C0DAD53A28}"/>
+    <hyperlink ref="A154" r:id="rId519" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1569" xr:uid="{18FAE1C3-1FF6-4C40-A27A-2E143698CCB1}"/>
+    <hyperlink ref="A153" r:id="rId520" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66727" xr:uid="{AA6D5A31-8AC4-4A99-BE07-38C02B9460E3}"/>
+    <hyperlink ref="A152" r:id="rId521" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90478" xr:uid="{A4F70C5C-17C5-4E5B-A845-9DA87C23372D}"/>
+    <hyperlink ref="A151" r:id="rId522" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25558" xr:uid="{B420191A-4343-4D4F-9E39-C09FE9C56CEB}"/>
+    <hyperlink ref="A150" r:id="rId523" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89838" xr:uid="{EB0DCC4E-D252-423B-B494-BE703453821F}"/>
+    <hyperlink ref="A149" r:id="rId524" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89488" xr:uid="{F1BE878D-8373-4D50-B55E-855578B0E6AE}"/>
+    <hyperlink ref="A148" r:id="rId525" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1760" xr:uid="{4BAEACCF-E821-4885-A279-7160D3728A80}"/>
+    <hyperlink ref="A147" r:id="rId526" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91229" xr:uid="{E2B83340-A15F-48BE-B34A-DE53F438E139}"/>
+    <hyperlink ref="A146" r:id="rId527" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84754" xr:uid="{4D476415-30DB-48CA-9827-267A5F8BC163}"/>
+    <hyperlink ref="A145" r:id="rId528" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84753" xr:uid="{E95DEF4E-4794-4C8A-8CF7-5262672817D0}"/>
+    <hyperlink ref="A144" r:id="rId529" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=78333" xr:uid="{C38605A4-88B2-4A5D-9A37-7DDFF3FF451E}"/>
+    <hyperlink ref="A143" r:id="rId530" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91704" xr:uid="{3EF1113C-2218-49EE-A5E5-50A7F08A91F4}"/>
+    <hyperlink ref="A142" r:id="rId531" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=59550" xr:uid="{D6D45B19-D5C0-4293-8FDE-C32FBF00C225}"/>
+    <hyperlink ref="A141" r:id="rId532" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1711" xr:uid="{94FE0069-27FE-4AD9-9B75-78C1337B138F}"/>
+    <hyperlink ref="A140" r:id="rId533" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64728" xr:uid="{CE67A829-7A90-4A66-9B9E-4D15E5F14A82}"/>
+    <hyperlink ref="A139" r:id="rId534" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84783" xr:uid="{A507A735-6E15-4E7D-9BEE-11043B4E184E}"/>
+    <hyperlink ref="A138" r:id="rId535" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81648" xr:uid="{24E5439B-2D82-4845-A185-25C011A3F9FA}"/>
+    <hyperlink ref="A137" r:id="rId536" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90714" xr:uid="{13474A62-9EA2-4EA9-A6A1-34E18F31C438}"/>
+    <hyperlink ref="A136" r:id="rId537" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1444" xr:uid="{07BD2BE1-5B10-4595-95AA-95D6022AE86C}"/>
+    <hyperlink ref="A135" r:id="rId538" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1526" xr:uid="{BD21E2ED-ABB0-4AD7-A159-73C05670B77A}"/>
+    <hyperlink ref="A134" r:id="rId539" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90203" xr:uid="{E18B3EB3-E218-47A6-8B20-D8CC810FA322}"/>
+    <hyperlink ref="A133" r:id="rId540" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91455" xr:uid="{D44CE2D0-BAD1-4558-A83C-2C895B341420}"/>
+    <hyperlink ref="A132" r:id="rId541" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88341" xr:uid="{4F2351F6-A7FE-4E5D-A8BB-F3C3D0927143}"/>
+    <hyperlink ref="A131" r:id="rId542" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1118" xr:uid="{CEC2355D-44EA-461F-8607-E9EA759F8CBE}"/>
+    <hyperlink ref="A130" r:id="rId543" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1115" xr:uid="{0353EDD7-CEC5-4720-A5E8-8A7D43F5CF9D}"/>
+    <hyperlink ref="A127" r:id="rId544" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1890" xr:uid="{38866BCB-9546-4BAA-B9D2-2E36169F3E69}"/>
+    <hyperlink ref="A126" r:id="rId545" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1889" xr:uid="{BE19DC77-A4A7-4AC2-B32D-5FF1A3C1881D}"/>
+    <hyperlink ref="A125" r:id="rId546" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66670" xr:uid="{FF5BD28F-4C25-426E-A400-21776D7B696B}"/>
+    <hyperlink ref="A124" r:id="rId547" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1915" xr:uid="{C66F09EC-2A7C-4FC4-918D-E93EFE4E636D}"/>
+    <hyperlink ref="A123" r:id="rId548" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1934" xr:uid="{92A5DBEC-D71A-4449-A51F-DE70E19FB4CB}"/>
+    <hyperlink ref="A122" r:id="rId549" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25959" xr:uid="{FDBB8A38-D1A2-4997-A17D-098AFD8D1417}"/>
+    <hyperlink ref="A121" r:id="rId550" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1820" xr:uid="{6B730417-4A90-4F50-B8A8-01B2BE9ECDCB}"/>
+    <hyperlink ref="A120" r:id="rId551" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82063" xr:uid="{1310436F-0186-4241-8A1A-109DEA80BACF}"/>
+    <hyperlink ref="A119" r:id="rId552" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1841" xr:uid="{3B16B4D1-2043-4550-A8E6-9C3748F6CEAD}"/>
+    <hyperlink ref="A118" r:id="rId553" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87765" xr:uid="{E1F62DF1-A7BD-45CB-A6FA-84628CF3744C}"/>
+    <hyperlink ref="A117" r:id="rId554" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1848" xr:uid="{1CECF288-8A65-4950-89EF-136EF2847A43}"/>
+    <hyperlink ref="A116" r:id="rId555" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92544" xr:uid="{7A88FDCE-4257-4D27-8862-F3E9FF5123BD}"/>
+    <hyperlink ref="A115" r:id="rId556" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1792" xr:uid="{9439526B-2C1E-4052-BEBD-9ACE38545F73}"/>
+    <hyperlink ref="A114" r:id="rId557" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64384" xr:uid="{E812F241-6160-49EF-9C9C-A077026FD18A}"/>
+    <hyperlink ref="A113" r:id="rId558" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1791" xr:uid="{69F3B022-1BAF-4A02-9202-7EA9C9BAE354}"/>
+    <hyperlink ref="A112" r:id="rId559" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1789" xr:uid="{0691E331-E051-4692-827A-4DAA20ED369A}"/>
+    <hyperlink ref="A111" r:id="rId560" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1815" xr:uid="{9C0E5419-83BF-4176-8E34-0971BD824D59}"/>
+    <hyperlink ref="A110" r:id="rId561" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92317" xr:uid="{BE93941B-7467-4020-A1F7-E91373C63FEB}"/>
+    <hyperlink ref="A107" r:id="rId562" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83756" xr:uid="{84A78B21-29E1-44F3-99EE-9CAF433ADC4A}"/>
+    <hyperlink ref="A106" r:id="rId563" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83909" xr:uid="{1285AE63-C637-4876-953F-41877015C8A1}"/>
+    <hyperlink ref="A105" r:id="rId564" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=81364" xr:uid="{A93C41B9-014F-445E-8B6E-914F5C9EC77A}"/>
+    <hyperlink ref="A104" r:id="rId565" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90734" xr:uid="{91B574B9-DC3F-4885-9366-D8EBA6F636FE}"/>
+    <hyperlink ref="A103" r:id="rId566" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89880" xr:uid="{5B692B18-A8AE-47B5-911D-43C9C0EB010D}"/>
+    <hyperlink ref="A102" r:id="rId567" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=92610" xr:uid="{9E4E8519-0690-42D7-8613-9EF454922427}"/>
+    <hyperlink ref="A101" r:id="rId568" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82453" xr:uid="{D4171043-D2BB-41AA-A7F7-CD198366EF8F}"/>
+    <hyperlink ref="A100" r:id="rId569" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87879" xr:uid="{1F03D436-A934-4372-8840-5F1BAC636246}"/>
+    <hyperlink ref="A99" r:id="rId570" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87878" xr:uid="{5706C6FF-F774-4E4D-AAC1-B50B088A1821}"/>
+    <hyperlink ref="A98" r:id="rId571" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90731" xr:uid="{4F378F72-5429-4A2F-BA0C-9EF0610F45CA}"/>
+    <hyperlink ref="A97" r:id="rId572" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90730" xr:uid="{0CF2326C-2986-4143-AD0D-A9586D94D2A2}"/>
+    <hyperlink ref="A96" r:id="rId573" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90729" xr:uid="{891188CF-C23C-4ABC-AF49-606EC22E9B81}"/>
+    <hyperlink ref="A95" r:id="rId574" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90728" xr:uid="{0EA553C2-7067-43EC-BACC-414956FAEA59}"/>
+    <hyperlink ref="A94" r:id="rId575" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=84745" xr:uid="{C5AB91C8-6E69-4185-8DA3-EDDADA8A3A6C}"/>
+    <hyperlink ref="A93" r:id="rId576" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87176" xr:uid="{1586260A-AF8E-41FA-BAFA-B9FC886CE3A9}"/>
+    <hyperlink ref="A92" r:id="rId577" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87177" xr:uid="{1076A5CE-BA23-48FF-B0CC-D63C4A966B8D}"/>
+    <hyperlink ref="A91" r:id="rId578" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87180" xr:uid="{D6ED18F1-FE77-4155-993E-ADAA20614D21}"/>
+    <hyperlink ref="A90" r:id="rId579" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87179" xr:uid="{C9565759-9571-413C-82CF-4558FD307D93}"/>
+    <hyperlink ref="A89" r:id="rId580" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87178" xr:uid="{985BBAA5-F894-464C-880A-F864B7E7B744}"/>
+    <hyperlink ref="A88" r:id="rId581" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87880" xr:uid="{6B4A0BB3-1406-4E55-9F09-CA321C9C3C44}"/>
+    <hyperlink ref="A87" r:id="rId582" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87174" xr:uid="{43C48861-1F3C-4789-86F9-2087FC36647E}"/>
+    <hyperlink ref="A86" r:id="rId583" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=68751" xr:uid="{57B9F439-B29D-4936-A5ED-CCD55A77B7AD}"/>
+    <hyperlink ref="A85" r:id="rId584" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90721" xr:uid="{6B91DD30-7466-4A71-85B6-6D3E24E73356}"/>
+    <hyperlink ref="A84" r:id="rId585" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64418" xr:uid="{97808EEE-0B8A-4FBD-A629-163E00B87F15}"/>
+    <hyperlink ref="A83" r:id="rId586" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=76155" xr:uid="{420995E6-446C-4D88-BE78-CC314B03CE1A}"/>
+    <hyperlink ref="A80" r:id="rId587" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26169" xr:uid="{9A887FD4-356D-4909-96C2-9CD5B6F58B68}"/>
+    <hyperlink ref="A77" r:id="rId588" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=83060" xr:uid="{FC3843DA-6BD0-4DDF-9D51-FD5AF4F81B0C}"/>
+    <hyperlink ref="A74" r:id="rId589" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=342" xr:uid="{06EBA890-5329-4886-BE8E-32F82A3CF1E7}"/>
+    <hyperlink ref="A73" r:id="rId590" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25905" xr:uid="{07D331AC-1C07-44B9-A604-0AF31C86B688}"/>
+    <hyperlink ref="A72" r:id="rId591" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25904" xr:uid="{E96A92C3-55D0-40F5-83F2-89865EE1AD51}"/>
+    <hyperlink ref="A71" r:id="rId592" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=184" xr:uid="{101B6012-F077-4600-BEBC-0ECC0F6DDF91}"/>
+    <hyperlink ref="A70" r:id="rId593" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89" xr:uid="{32CC872D-550D-4AE0-B4D5-7E907364E3AF}"/>
+    <hyperlink ref="A69" r:id="rId594" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=86804" xr:uid="{95277E64-2919-41B1-827D-25A5C1B68B53}"/>
+    <hyperlink ref="A68" r:id="rId595" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85424" xr:uid="{1D02BF06-B1B0-49E2-B6C5-2FFED776C931}"/>
+    <hyperlink ref="A67" r:id="rId596" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=195" xr:uid="{882FD58D-036C-49B0-9A14-9611CAB1C522}"/>
+    <hyperlink ref="A66" r:id="rId597" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64383" xr:uid="{917AC371-C539-42C3-8C66-64A2F453705A}"/>
+    <hyperlink ref="A65" r:id="rId598" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89865" xr:uid="{0465ED10-E6F0-4CDF-81A8-F66338B66316}"/>
+    <hyperlink ref="A64" r:id="rId599" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89883" xr:uid="{4ED460D6-78BD-4E09-8F43-4E599C6BC8BB}"/>
+    <hyperlink ref="A63" r:id="rId600" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89882" xr:uid="{3E141C9A-BAE1-426A-960C-F3EFE9FDE98C}"/>
+    <hyperlink ref="A62" r:id="rId601" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=279" xr:uid="{B317D9D9-9394-4136-8A3F-F424EB15916E}"/>
+    <hyperlink ref="A61" r:id="rId602" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89881" xr:uid="{3A5F9883-4758-4DDF-8036-7E78E350386F}"/>
+    <hyperlink ref="A60" r:id="rId603" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=240" xr:uid="{499DD522-81EF-47F6-8D38-F7A91DED1686}"/>
+    <hyperlink ref="A59" r:id="rId604" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66869" xr:uid="{37ACCB0E-72DF-4677-8AD4-75B3C1323053}"/>
+    <hyperlink ref="A58" r:id="rId605" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87621" xr:uid="{B50B0D9B-AD67-4C80-BD09-E28AF80DC73B}"/>
+    <hyperlink ref="A57" r:id="rId606" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=103" xr:uid="{E2265458-3707-4946-B013-DB757F854D29}"/>
+    <hyperlink ref="A56" r:id="rId607" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=101" xr:uid="{07B8C15B-A754-4C3F-A524-8661E9D37C7A}"/>
+    <hyperlink ref="A55" r:id="rId608" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=126" xr:uid="{C13A451D-3782-4BA6-AF31-81CD3A3564FA}"/>
+    <hyperlink ref="A54" r:id="rId609" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=122" xr:uid="{248C3927-E322-48FB-A873-64BEE855376F}"/>
+    <hyperlink ref="A53" r:id="rId610" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=89288" xr:uid="{F10D7D36-259B-4BDB-8D46-4C2FF37A1084}"/>
+    <hyperlink ref="A52" r:id="rId611" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64477" xr:uid="{447E1B53-0B9C-4A4C-8B56-71F399612FE3}"/>
+    <hyperlink ref="A51" r:id="rId612" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=283" xr:uid="{83C21B31-6A59-43AB-8C28-5ABFD84E7D7B}"/>
+    <hyperlink ref="A50" r:id="rId613" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=136" xr:uid="{6982D990-5CCE-41E2-8005-9DD97F69E24A}"/>
+    <hyperlink ref="A49" r:id="rId614" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66654" xr:uid="{5A7116DF-E171-42D4-80C4-5305B483C48C}"/>
+    <hyperlink ref="A48" r:id="rId615" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=246" xr:uid="{B80E7DDC-4023-4787-925F-7F1A4BD72FB2}"/>
+    <hyperlink ref="A47" r:id="rId616" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66655" xr:uid="{CE9FA1F4-B465-4261-8AC6-1E0688031774}"/>
+    <hyperlink ref="A46" r:id="rId617" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=243" xr:uid="{76C2E3C3-A086-45DD-96D6-F99F7C89A62F}"/>
+    <hyperlink ref="A45" r:id="rId618" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=87615" xr:uid="{F7065351-6CA4-4967-AE6E-4FB05C621889}"/>
+    <hyperlink ref="A44" r:id="rId619" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=131" xr:uid="{F6CCF81E-7195-4446-96D6-FD685FC6C3B0}"/>
+    <hyperlink ref="A43" r:id="rId620" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=90573" xr:uid="{B3A0D2B1-58FC-4C31-A5A4-EC6CAD5D5256}"/>
+    <hyperlink ref="A42" r:id="rId621" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=297" xr:uid="{8EB96791-D4D7-4F33-8121-6BBDC790C64D}"/>
+    <hyperlink ref="A41" r:id="rId622" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=215" xr:uid="{30D8FB20-6F3E-4306-8191-EF254A8FFC5F}"/>
+    <hyperlink ref="A40" r:id="rId623" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=85133" xr:uid="{ADCF8146-3BD5-4D13-8C79-3CFE907D1AC9}"/>
+    <hyperlink ref="A39" r:id="rId624" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66658" xr:uid="{8ACA5FC0-6DDA-41C6-B833-A72D63ED1409}"/>
+    <hyperlink ref="A38" r:id="rId625" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66657" xr:uid="{C0529084-AFFC-43D7-9DEC-16075A279076}"/>
+    <hyperlink ref="A37" r:id="rId626" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66656" xr:uid="{C217429B-04AC-43CC-841D-3125AF182550}"/>
+    <hyperlink ref="A36" r:id="rId627" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64791" xr:uid="{5BE78AF7-7B01-4B15-BA80-483DD0C40075}"/>
+    <hyperlink ref="A33" r:id="rId628" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25900" xr:uid="{8506C2D7-21D5-4F78-8D79-C64B8742D3E7}"/>
+    <hyperlink ref="A32" r:id="rId629" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25899" xr:uid="{6BDA2036-9F32-4372-8650-F9D81FB64B62}"/>
+    <hyperlink ref="A31" r:id="rId630" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67123" xr:uid="{9C229E73-C320-42C0-806E-266C2EE78B77}"/>
+    <hyperlink ref="A30" r:id="rId631" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26017" xr:uid="{CE5CD712-2DAF-4C41-A99F-5F45F7F1C858}"/>
+    <hyperlink ref="A29" r:id="rId632" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=67106" xr:uid="{DAC00578-F3E7-4DB2-819F-E9EBFCC6CD55}"/>
+    <hyperlink ref="A28" r:id="rId633" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=723" xr:uid="{401FC724-1983-48CD-9A54-EEF3C36146B0}"/>
+    <hyperlink ref="A27" r:id="rId634" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=66502" xr:uid="{7EF33C8C-4474-45CC-8067-3E7036D94E26}"/>
+    <hyperlink ref="A26" r:id="rId635" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26043" xr:uid="{3B3221C2-2F64-4B0E-B55B-CD76936A7F0D}"/>
+    <hyperlink ref="A25" r:id="rId636" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25891" xr:uid="{AA5F19FF-82F1-4EB8-BE77-80B9620AB80F}"/>
+    <hyperlink ref="A24" r:id="rId637" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=82446" xr:uid="{F178C61F-A494-44E4-BE5B-DC7E92E8E2FE}"/>
+    <hyperlink ref="A23" r:id="rId638" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25985" xr:uid="{EC62BDAA-C583-4BB9-81C8-96C0FA4CC91C}"/>
+    <hyperlink ref="A22" r:id="rId639" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=88995" xr:uid="{1F3FC93D-5BD6-4688-AA5E-908855746261}"/>
+    <hyperlink ref="A21" r:id="rId640" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25989" xr:uid="{17512182-BE3C-47EB-8E31-5B544A875980}"/>
+    <hyperlink ref="A20" r:id="rId641" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25888" xr:uid="{AF4A8F06-3442-431E-918F-1080702A13F6}"/>
+    <hyperlink ref="A19" r:id="rId642" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=64437" xr:uid="{E9721343-E8E0-4B8B-AB78-48EA6954A97C}"/>
+    <hyperlink ref="A18" r:id="rId643" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=91194" xr:uid="{1BF40194-F255-4B54-ACB1-4798DCB27B4F}"/>
+    <hyperlink ref="A17" r:id="rId644" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=93588" xr:uid="{0E8AC8D7-EDB9-4046-BB7E-7BA95C3F84FD}"/>
+    <hyperlink ref="A16" r:id="rId645" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25972" xr:uid="{B726044E-60F3-4C3C-A840-DF38F2795F52}"/>
+    <hyperlink ref="A15" r:id="rId646" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26036" xr:uid="{A87024CC-8A6E-4398-AA73-27F2CA4E1503}"/>
+    <hyperlink ref="A14" r:id="rId647" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=26035" xr:uid="{09D84912-0F1F-4A50-8292-D1A0290EDF97}"/>
+    <hyperlink ref="A13" r:id="rId648" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25988" xr:uid="{6F5F618A-2F70-4ABA-91B2-F6956E7C41D3}"/>
+    <hyperlink ref="A12" r:id="rId649" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=25895" xr:uid="{B2DBE08A-EEAC-4BB2-9047-EE298F53E28F}"/>
+    <hyperlink ref="A9" r:id="rId650" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1400" xr:uid="{96D20029-092F-4F18-8A54-AB626B7F54B8}"/>
+    <hyperlink ref="A6" r:id="rId651" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1886" xr:uid="{531AF1D7-3DE9-414F-B00B-95A963CCA482}"/>
+    <hyperlink ref="A5" r:id="rId652" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1911" xr:uid="{3B3FD51B-A787-4A1D-9CE8-D088A87C937F}"/>
+    <hyperlink ref="A4" r:id="rId653" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1910" xr:uid="{16D61E72-A144-4242-9644-3D68DA5DB7C3}"/>
+    <hyperlink ref="A3" r:id="rId654" display="https://www.environment.gov.au/cgi-bin/sprat/public/publicspecies.pl?taxon_id=1909" xr:uid="{D4C01F0B-20B2-4267-AA9A-8BE0C7F712F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
